--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/教案/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A868B45F-5A75-C94C-8539-69A93C045571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85068E34-872C-9543-8D1C-2AB93DFD92E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="19860" activeTab="12" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
+    <workbookView xWindow="-38380" yWindow="-1340" windowWidth="38400" windowHeight="19860" activeTab="5" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="691">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2682,12 +2682,400 @@
     <t>首先统计字符串中大小字符的数量，然后根据数量的对比结果将原字符转换成大写或小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1000</t>
+  </si>
+  <si>
+    <t>按要求打印出题目描述的图形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF43B</t>
+  </si>
+  <si>
+    <t>先统计第一个字符串中各个字母的数量，然后遍历第二个字符串看已有的字符是否满足第二个字符串的需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF656F</t>
+  </si>
+  <si>
+    <t>按题目描述将每个字符转换成具体的数值然后求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF129A</t>
+  </si>
+  <si>
+    <t>统计奇偶数的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF339A</t>
+  </si>
+  <si>
+    <t>先统计加法字符串中1、2、3的个数，然后依次输出1 2 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF546A</t>
+  </si>
+  <si>
+    <t>n从1开始循环累加到w所得和减去n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P6745</t>
+  </si>
+  <si>
+    <t>当x的长度超过k时需要考虑大数加法，否则就是一个简单的字符串拼接问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P6382</t>
+  </si>
+  <si>
+    <t>首先检查输入的前三个字符，如果是外地车牌则直接输出5个1，否则倒着找寻最后一个数字字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF520A</t>
+  </si>
+  <si>
+    <t>统计输入字符串中是否包含所有26个字母，不区分大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3663</t>
+  </si>
+  <si>
+    <t>统计输入字符串中luguo出现的次数，注意输入字符串长度可能不足5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3742</t>
+  </si>
+  <si>
+    <t>根据题意，第二个字符中的字符不可能小于第一个字符串中的字符，如果检测发现，则输出-1，否则输出第二个字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9712</t>
+  </si>
+  <si>
+    <t>给输入字符串加上前缀，注意：原字符串中的部分符号需要特殊处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7106</t>
+  </si>
+  <si>
+    <t>16进制转换成10进制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_joi2022_yo1b_c</t>
+  </si>
+  <si>
+    <t>如果当前字符是J则输出前一个字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_dwacon2018_prelims_a</t>
+  </si>
+  <si>
+    <r>
+      <t>输入一个长度为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>的字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>，该字符串若满足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a[2]=a[0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a[1]=a[3]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>则输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>，否则输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14.5"/>
+        <color theme="1"/>
+        <rFont val="KaTeX_Math"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3866</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc044_b</t>
+  </si>
+  <si>
+    <t>判断字符串中每个字符出现的次数是否为偶数，可以使用位操作中的异或，最终判断位图是否是0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc025_a</t>
+  </si>
+  <si>
+    <t>输出第一个字符是（n-1）/5；第二个字符索引是（n-1）%5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_joi2022_yo1a_c</t>
+  </si>
+  <si>
+    <t>统计26个字母在字符串中出现的次数，本题可结合为操作一起做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1179</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5705</t>
+  </si>
+  <si>
+    <t>虽然是浮点数反转，可以将其作为字符串处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5704</t>
+  </si>
+  <si>
+    <t>将一个小写字符转换成大写输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2620</t>
+  </si>
+  <si>
+    <t>三个判断可以写成三个判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个简单的判断，判断输入的两个数的大小关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2617</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3865</t>
+  </si>
+  <si>
+    <t>先准备一个足够长的包含-的字符串，然后根据循环的行号修改指定位置上的-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3771</t>
+  </si>
+  <si>
+    <t>遍历区间中每个数，然后比较每一位上数字的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3924</t>
+  </si>
+  <si>
+    <t>本题的难点是如何计算哪一行输出的内容不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3756</t>
+  </si>
+  <si>
+    <t>本题需要进行进制转换，10to5，10to7但是不需要得到最终的值，只需要坚持过程中是否得到0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2831,6 +3219,24 @@
       <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14.5"/>
+      <color theme="1"/>
+      <name val="KaTeX_Math"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3327,10 +3733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA01CD-1AE7-9542-B6B1-CA2C7C3DAE22}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3571,6 +3977,14 @@
     <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>647</v>
+      </c>
+      <c r="B29" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -3654,10 +4068,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AD1CB3-B15B-514D-9416-A79C2FB5057A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3681,6 +4095,14 @@
       </c>
       <c r="B2" s="12" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -3735,10 +4157,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0151667-4496-0547-B4D1-2F823C37E5ED}">
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4877,6 +5299,142 @@
       </c>
       <c r="B135" s="4" t="s">
         <v>636</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>637</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>639</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>641</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>645</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>651</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>653</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>655</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>657</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>659</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>663</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="21">
+      <c r="A146" t="s">
+        <v>665</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>668</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>670</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>672</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>675</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>677</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>683</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -4935,10 +5493,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA0E1B1-B423-EA4D-8298-450E69DA726B}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5041,6 +5599,14 @@
       </c>
       <c r="B12" s="4" t="s">
         <v>611</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -5777,7 +6343,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6006,7 +6572,21 @@
         <v>293</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>643</v>
+      </c>
+      <c r="B28" t="s">
+        <v>644</v>
+      </c>
+    </row>
     <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>687</v>
+      </c>
+      <c r="B29" t="s">
+        <v>688</v>
+      </c>
       <c r="C29">
         <f>FACT(20)</f>
         <v>2.43290200817664E+18</v>
@@ -6029,10 +6609,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDE49E5-74A2-2542-85FA-0F5DD1837FBD}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6201,6 +6781,14 @@
       </c>
       <c r="B19" s="4" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>679</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -6226,10 +6814,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63A915-3057-CC46-9D28-73B5505B3E97}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6366,6 +6954,45 @@
     <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>661</v>
+      </c>
+      <c r="B20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>685</v>
+      </c>
+      <c r="B24" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>689</v>
+      </c>
+      <c r="B25" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -6636,10 +7263,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9394822-9041-ED4F-B88F-BE1CE8C48764}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6726,6 +7353,11 @@
         <v>209</v>
       </c>
       <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>682</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85068E34-872C-9543-8D1C-2AB93DFD92E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237EF5D-81C4-2C45-AD30-61864B0F5534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38380" yWindow="-1340" windowWidth="38400" windowHeight="19860" activeTab="5" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
+    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="19860" firstSheet="1" activeTab="1" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="简单数组" sheetId="13" r:id="rId3"/>
     <sheet name="复杂循环练习" sheetId="5" r:id="rId4"/>
     <sheet name="选择" sheetId="6" r:id="rId5"/>
-    <sheet name="位值" sheetId="7" r:id="rId6"/>
+    <sheet name="位值和进制" sheetId="7" r:id="rId6"/>
     <sheet name="数论" sheetId="8" r:id="rId7"/>
     <sheet name="斐波那契" sheetId="9" r:id="rId8"/>
     <sheet name="IO、简单数据类型" sheetId="10" r:id="rId9"/>
@@ -33,8 +33,9 @@
     <sheet name="枚举" sheetId="21" r:id="rId18"/>
     <sheet name="递推" sheetId="22" r:id="rId19"/>
     <sheet name="8皇后" sheetId="23" r:id="rId20"/>
-    <sheet name="题单" sheetId="2" r:id="rId21"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId22"/>
+    <sheet name="矩阵操作" sheetId="24" r:id="rId21"/>
+    <sheet name="题单" sheetId="2" r:id="rId22"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId23"/>
   </sheets>
   <definedNames>
     <definedName name="P3741_2.in" localSheetId="12">字符处理!$C$10:$C$11</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="706">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,13 +737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P3397</t>
-  </si>
-  <si>
-    <t>使用二维数组模拟地面上的每一个坐标点位，相应点位每被地毯覆盖一次数组成员就+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/P5729</t>
   </si>
   <si>
@@ -757,13 +751,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P2615</t>
-  </si>
-  <si>
-    <t>根据题目描述将数字填入二维数组，然后依次将二维数组成员输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/record/139125105</t>
   </si>
   <si>
@@ -794,9 +781,6 @@
   <si>
     <t>利用数组模拟所有的灯，注意数组类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P5731</t>
   </si>
   <si>
     <t>将数据事先保存在一个二维数组，然后输出该二维数组。二维数组初始化的步骤：循环（n+1）/2次，每次填充四条边。N位奇数时，需要单独填充中间的位置。</t>
@@ -835,9 +819,6 @@
   <si>
     <t>二维数组转化成一维数组，0和1之间如何乒乓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1320</t>
   </si>
   <si>
     <t>将0和1组成的图形转换成压缩码，压缩码需要生成后一次输出，否则无法AC。索引号为奇数的项纪录0的个数，索引号为偶数的项纪录1的个数</t>
@@ -1242,9 +1223,6 @@
 	return 0;
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1328</t>
   </si>
   <si>
     <t>将出拳的胜负结果存放在二维数组中，然后比较每次出拳的得分。注意索引递增的环绕处理。</t>
@@ -3022,52 +3000,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>将一个小写字符转换成大写输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2620</t>
+  </si>
+  <si>
+    <t>三个判断可以写成三个判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个简单的判断，判断输入的两个数的大小关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2617</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3865</t>
+  </si>
+  <si>
+    <t>先准备一个足够长的包含-的字符串，然后根据循环的行号修改指定位置上的-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3771</t>
+  </si>
+  <si>
+    <t>遍历区间中每个数，然后比较每一位上数字的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3924</t>
+  </si>
+  <si>
+    <t>本题的难点是如何计算哪一行输出的内容不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3756</t>
+  </si>
+  <si>
+    <t>本题需要进行进制转换，10to5，10to7但是不需要得到最终的值，只需要坚持过程中是否得到0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个n、m的矩阵相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhttps://www.luogu.com.cn/problem/B2106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个二维矩阵沿着中心对角线反转，注意矩阵长宽不相等的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换矩阵中指定的行，注意矩阵行数从1开始计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵外围元素之和，需要考虑1行或者1列的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2140</t>
+  </si>
+  <si>
+    <t>统计给定区间内，每个数的二进制表示1和0的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制矩形，矩形是否填充➡️最后一个输入的值决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按题意要求改变矩阵中的内容，注意如何改变横竖坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/P5704</t>
-  </si>
-  <si>
-    <t>将一个小写字符转换成大写输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2620</t>
-  </si>
-  <si>
-    <t>三个判断可以写成三个判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个简单的判断，判断输入的两个数的大小关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用二维数组模拟地面上的每一个坐标点位，相应点位每被地毯覆盖一次数组成员就+1。类似于B3751，不同之处是：本题第一行之后的每行输入是一个子区间的左上角和右下角坐标。该子区间内每个坐标上的值都需要加1。等所有的输入都处理完毕之后，将矩阵输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻方。根据题目描述将数字填入二维数组，然后依次将二维数组成员输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/B3865</t>
-  </si>
-  <si>
-    <t>先准备一个足够长的包含-的字符串，然后根据循环的行号修改指定位置上的-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3771</t>
-  </si>
-  <si>
-    <t>遍历区间中每个数，然后比较每一位上数字的大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3924</t>
-  </si>
-  <si>
-    <t>本题的难点是如何计算哪一行输出的内容不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3756</t>
-  </si>
-  <si>
-    <t>本题需要进行进制转换，10to5，10to7但是不需要得到最终的值，只需要坚持过程中是否得到0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3764,7 +3830,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3773,7 +3839,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3782,7 +3848,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3791,7 +3857,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -3800,7 +3866,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3809,7 +3875,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3827,7 +3893,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -3836,7 +3902,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -3854,7 +3920,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -3872,7 +3938,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -3890,7 +3956,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -3971,20 +4037,20 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B29" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -4046,18 +4112,18 @@
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -4099,10 +4165,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -4135,18 +4201,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4159,8 +4225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0151667-4496-0547-B4D1-2F823C37E5ED}">
   <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4180,1261 +4246,1262 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="3" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B31" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B32" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B33" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B34" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B36" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B37" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B38" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B39" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B40" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B41" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B42" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B43" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B48" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B49" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B51" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B53" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B54" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B55" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B56" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B57" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B59" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B60" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B63" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B64" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B65" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B66" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B67" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B69" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B71" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B72" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B73" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B77" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B78" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B79" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B80" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B81" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B82" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B83" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B84" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B85" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B86" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B87" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B88" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="B89" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B90" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B91" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B92" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B93" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B95" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B96" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="23" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B97" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B98" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="B99" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B100" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="B101" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B102" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B103" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C103" s="19"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B104" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B105" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="B106" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B108" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B109" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="B110" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B111" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="B112" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B113" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B114" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="B115" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="B116" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B117" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B118" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B119" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B120" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B121" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B122" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B123" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B124" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="B125" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B126" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B127" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B128" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B130" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B131" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B132" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
+        <v>652</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>656</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="21">
+      <c r="A146" t="s">
+        <v>658</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="B144" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>661</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
         <v>663</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B148" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="21">
-      <c r="A146" t="s">
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
         <v>665</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
         <v>668</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
+    <row r="151" spans="1:3">
+      <c r="A151" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B151" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>672</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
+      <c r="C151" s="19"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
         <v>675</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>676</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>677</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>683</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -5486,6 +5553,7 @@
     <hyperlink ref="A101" r:id="rId44" xr:uid="{4715FC9B-F3BC-7E4B-8A4A-4F22BCC6F9A5}"/>
     <hyperlink ref="A123" r:id="rId45" xr:uid="{87023612-1F2C-3F45-96BA-F0F3CE4461CC}"/>
     <hyperlink ref="A127" r:id="rId46" xr:uid="{5EA679C1-7926-4248-9723-FCBCE9E72E4D}"/>
+    <hyperlink ref="A151" r:id="rId47" xr:uid="{2677301A-D4F9-0D49-9319-0A01DB413F3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5515,98 +5583,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -5642,15 +5710,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5683,50 +5751,50 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5765,95 +5833,95 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5888,103 +5956,103 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B5" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B8" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6016,10 +6084,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6030,10 +6098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4AF0D-8DA7-0F4B-A794-90B82802641C}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6068,109 +6136,183 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>170</v>
+      <c r="A4" s="3" t="s">
+        <v>698</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>176</v>
+      <c r="A6" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>187</v>
+      <c r="A8" s="3" t="s">
+        <v>702</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>195</v>
+      <c r="A12" s="3" t="s">
+        <v>703</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="323">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>285</v>
+      <c r="A15" s="3" t="s">
+        <v>704</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B16" t="s">
+        <v>683</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>684</v>
+      </c>
+      <c r="B17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="B18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B20" t="s">
+        <v>691</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="B21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" xr:uid="{BE502155-4C2A-2C4D-B2A9-C7583297DCB4}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{6445BBA6-2B50-C648-827C-EA40AA0A9380}"/>
+    <hyperlink ref="A19" r:id="rId3" xr:uid="{A75CA0B8-152C-5642-84BA-CB71D99CE857}"/>
+    <hyperlink ref="A20" r:id="rId4" xr:uid="{7FE827EE-E848-1B41-B5D0-D6FF8B005E72}"/>
+    <hyperlink ref="A21" r:id="rId5" xr:uid="{FAEDFE32-070B-5648-9A5C-5DC3F910EB09}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{CB8438FD-91A8-D548-BB7B-CDC53D03865C}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{0E395FA6-9D6A-2C4C-ACD9-5DE5E213FED0}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{61D08F86-0A65-0E4B-8E5D-7D61C2B6EECD}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{68BE8A54-7931-1647-BB2B-536E16F9E634}"/>
+    <hyperlink ref="A15" r:id="rId10" xr:uid="{A7138323-BE81-4043-AEA5-7A45C8601CA8}"/>
+    <hyperlink ref="A22" r:id="rId11" xr:uid="{3F417652-55EC-DB40-BAE9-71BAA7E16B61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6198,7 +6340,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -6208,6 +6350,34 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869BDF83-E7AF-E94E-A128-BB74C284A76E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151142BC-A2CA-E24D-BC88-399550A822FB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -6231,7 +6401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641AD868-E677-BD4A-9E53-A747C638319C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6286,7 +6456,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>165</v>
@@ -6304,26 +6474,26 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6390,7 +6560,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -6398,7 +6568,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -6414,7 +6584,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -6534,58 +6704,58 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B28" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B29" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="C29">
         <f>FACT(20)</f>
@@ -6703,7 +6873,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
         <v>111</v>
@@ -6777,18 +6947,18 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -6814,10 +6984,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63A915-3057-CC46-9D28-73B5505B3E97}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6836,7 +7006,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -6844,15 +7014,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -6860,7 +7030,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -6879,12 +7049,12 @@
         <v>28</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -6892,15 +7062,15 @@
     </row>
     <row r="10" spans="1:2" ht="119">
       <c r="A10" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -6908,7 +7078,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
         <v>147</v>
@@ -6916,82 +7086,90 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B18" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B20" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B24" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>681</v>
+      </c>
+      <c r="B25" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>689</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>690</v>
       </c>
     </row>
@@ -7102,58 +7280,58 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51">
       <c r="A13" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="B14" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B16" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="8:8">
@@ -7285,7 +7463,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>96</v>
@@ -7303,7 +7481,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s">
         <v>100</v>
@@ -7311,7 +7489,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>101</v>
@@ -7329,34 +7507,34 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237EF5D-81C4-2C45-AD30-61864B0F5534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A3D50-D8D8-AD4B-ACD1-480DF2577DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="19860" firstSheet="1" activeTab="1" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
+    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="20460" firstSheet="4" activeTab="22" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
-    <sheet name="二维数组" sheetId="4" r:id="rId2"/>
-    <sheet name="简单数组" sheetId="13" r:id="rId3"/>
-    <sheet name="复杂循环练习" sheetId="5" r:id="rId4"/>
-    <sheet name="选择" sheetId="6" r:id="rId5"/>
-    <sheet name="位值和进制" sheetId="7" r:id="rId6"/>
-    <sheet name="数论" sheetId="8" r:id="rId7"/>
-    <sheet name="斐波那契" sheetId="9" r:id="rId8"/>
-    <sheet name="IO、简单数据类型" sheetId="10" r:id="rId9"/>
+    <sheet name="IO、简单数据类型" sheetId="10" r:id="rId2"/>
+    <sheet name="二维数组" sheetId="4" r:id="rId3"/>
+    <sheet name="简单数组" sheetId="13" r:id="rId4"/>
+    <sheet name="复杂循环练习" sheetId="5" r:id="rId5"/>
+    <sheet name="选择" sheetId="6" r:id="rId6"/>
+    <sheet name="位值和进制" sheetId="7" r:id="rId7"/>
+    <sheet name="数论" sheetId="8" r:id="rId8"/>
+    <sheet name="斐波那契" sheetId="9" r:id="rId9"/>
     <sheet name="组合数学" sheetId="11" r:id="rId10"/>
     <sheet name="高精度运算" sheetId="12" r:id="rId11"/>
     <sheet name="前缀和" sheetId="14" r:id="rId12"/>
@@ -34,8 +34,13 @@
     <sheet name="递推" sheetId="22" r:id="rId19"/>
     <sheet name="8皇后" sheetId="23" r:id="rId20"/>
     <sheet name="矩阵操作" sheetId="24" r:id="rId21"/>
-    <sheet name="题单" sheetId="2" r:id="rId22"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId23"/>
+    <sheet name="位操作" sheetId="26" r:id="rId22"/>
+    <sheet name="贪心" sheetId="29" r:id="rId23"/>
+    <sheet name="题单" sheetId="2" r:id="rId24"/>
+    <sheet name="Sheet4" sheetId="28" r:id="rId25"/>
+    <sheet name="Sheet2" sheetId="27" r:id="rId26"/>
+    <sheet name="Sheet1" sheetId="25" r:id="rId27"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="P3741_2.in" localSheetId="12">字符处理!$C$10:$C$11</definedName>
@@ -72,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="855">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -848,9 +853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5015</t>
-  </si>
-  <si>
     <r>
       <t>统计一行输入中除去空格的字符数，</t>
     </r>
@@ -1063,9 +1065,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5737</t>
-  </si>
-  <si>
     <t>闰年判断。需要注意输入中有可能不包含闰年，这样第二行就是一个空行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1105,9 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5742</t>
-  </si>
-  <si>
     <t>本题本质上是对于c++类使用的练习。定义构造函数和public成员函数并使用它们。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1131,9 +1127,6 @@
   <si>
     <t>递归求解每天的桃子个数，b(n)=(b(n-1)+1)*2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P5744</t>
   </si>
   <si>
     <t>练习结构体定义和使用</t>
@@ -1296,16 +1289,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1271</t>
-  </si>
-  <si>
     <t>计数排序（数据量很大，但是数据的范围有限）。使用数组模拟票箱，投票完毕后依次轻点每个票箱中的票数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1177</t>
-  </si>
-  <si>
     <t>本题不能够使用冒泡、插入、旋转。因为输入的数据量比较大。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1317,23 +1304,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1059</t>
-  </si>
-  <si>
     <t>本题数据取值范围不大，可以使用计数排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1093</t>
-  </si>
-  <si>
     <t>使用sort函数的compare参数，如何编写compare函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1781</t>
-  </si>
-  <si>
     <t>本题不需要排序。票数是字符串，比较字符串长度，长度相等时依次比较每位上数字大小。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1370,21 +1348,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P2676</t>
-  </si>
-  <si>
     <t>首先将奶牛身高排序，然后从最后一个元素开始递加直到达到指定的高度，输出加的次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1116</t>
-  </si>
-  <si>
     <t>计算冒泡排序中数据交换的次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1068</t>
   </si>
   <si>
     <t>首先按成绩从大到小排序，成绩相同时id升序排列。依次输入满足条件的名单。</t>
@@ -1797,10 +1766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc042_b本题应该在讲解排序时使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/P5660</t>
   </si>
   <si>
@@ -1873,9 +1838,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF112A</t>
-  </si>
-  <si>
     <t>现将输入统一转换成大写，然后比较</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2092,9 +2054,6 @@
   <si>
     <t>检测三个输入字符串的长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/AT_codefestival_2015_qualA_a</t>
   </si>
   <si>
     <t>将最后一个字符改成5</t>
@@ -2508,13 +2467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF118A</t>
-  </si>
-  <si>
-    <t>遇到辅音先输出. 遇到元音直接跳过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/CF868A</t>
   </si>
   <si>
@@ -2522,9 +2474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P6882</t>
-  </si>
-  <si>
     <t>检测每个输入token中的每一个字符，不含数字字符且第一个字符大写的token满足要求。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2544,37 +2493,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF987A</t>
-  </si>
-  <si>
     <t>记录每一个石头出现的情况，将为出现的石头打印出来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF131A</t>
-  </si>
-  <si>
     <t>大小写字符判断和转换</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P7583</t>
-  </si>
-  <si>
-    <t>只输出字符串中指定的字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/AT_abc020_b</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF837A</t>
-  </si>
-  <si>
-    <t>统计输入的一组token中大写字母出现的最多次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在字符串中查看hello这五个字符是否按顺序出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2609,9 +2538,6 @@
   <si>
     <t>与 CF58A 类似，相同的解法</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P8355</t>
   </si>
   <si>
     <t>由于可以多次交换字符，所以本题实际上时统计（和）的个数</t>
@@ -2661,16 +2587,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1000</t>
-  </si>
-  <si>
     <t>按要求打印出题目描述的图形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF43B</t>
-  </si>
-  <si>
     <t>先统计第一个字符串中各个字母的数量，然后遍历第二个字符串看已有的字符是否满足第二个字符串的需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2710,23 +2630,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P6382</t>
-  </si>
-  <si>
-    <t>首先检查输入的前三个字符，如果是外地车牌则直接输出5个1，否则倒着找寻最后一个数字字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/CF520A</t>
-  </si>
-  <si>
     <t>统计输入字符串中是否包含所有26个字母，不区分大小写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3663</t>
-  </si>
-  <si>
     <t>统计输入字符串中luguo出现的次数，注意输入字符串长度可能不足5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2736,9 +2643,6 @@
   <si>
     <t>根据题意，第二个字符中的字符不可能小于第一个字符串中的字符，如果检测发现，则输出-1，否则输出第二个字符串</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P9712</t>
   </si>
   <si>
     <t>给输入字符串加上前缀，注意：原字符串中的部分符号需要特殊处理</t>
@@ -2983,157 +2887,944 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>统计26个字母在字符串中出现的次数，本题可结合为操作一起做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1179</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5705</t>
+  </si>
+  <si>
+    <t>虽然是浮点数反转，可以将其作为字符串处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个小写字符转换成大写输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2620</t>
+  </si>
+  <si>
+    <t>三个判断可以写成三个判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个简单的判断，判断输入的两个数的大小关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2617</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3865</t>
+  </si>
+  <si>
+    <t>先准备一个足够长的包含-的字符串，然后根据循环的行号修改指定位置上的-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3771</t>
+  </si>
+  <si>
+    <t>遍历区间中每个数，然后比较每一位上数字的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3924</t>
+  </si>
+  <si>
+    <t>本题的难点是如何计算哪一行输出的内容不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3756</t>
+  </si>
+  <si>
+    <t>本题需要进行进制转换，10to5，10to7但是不需要得到最终的值，只需要坚持过程中是否得到0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个n、m的矩阵相加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhttps://www.luogu.com.cn/problem/B2106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个二维矩阵沿着中心对角线反转，注意矩阵长宽不相等的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2099</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换矩阵中指定的行，注意矩阵行数从1开始计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵外围元素之和，需要考虑1行或者1列的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2140</t>
+  </si>
+  <si>
+    <t>统计给定区间内，每个数的二进制表示1和0的数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制矩形，矩形是否填充➡️最后一个输入的值决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按题意要求改变矩阵中的内容，注意如何改变横竖坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3751</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3397</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用二维数组模拟地面上的每一个坐标点位，相应点位每被地毯覆盖一次数组成员就+1。类似于B3751，不同之处是：本题第一行之后的每行输入是一个子区间的左上角和右下角坐标。该子区间内每个坐标上的值都需要加1。等所有的输入都处理完毕之后，将矩阵输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻方。根据题目描述将数字填入二维数组，然后依次将二维数组成员输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5731</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前10个数和后10个数分别排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc066_a</t>
+  </si>
+  <si>
+    <t>总和减去最大的成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc058_a</t>
+  </si>
+  <si>
+    <t>检测相邻的输入之间的差是否相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc027_a</t>
+  </si>
+  <si>
+    <t>输入为长方形三个边长，输出缺失的边长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF621A</t>
+  </si>
+  <si>
+    <t>输入时边累加，边将最小的奇数记录下来，如果奇数的个数是奇数个时，则总和减去该最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将输入排序输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何记录较大的两个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将输入数据简单排序输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找第二大的数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3661</t>
+  </si>
+  <si>
+    <t>使用两个数组分别保存输入的奇数和偶数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF864A</t>
+  </si>
+  <si>
+    <t>输出“YES”的条件是：输入只有两种不同的数值，并且这两种数值的数量相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要使用结构体描述数据对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用一个结构体记录每个程序运行时的ram和返回的ram，首先对运行时ram进行排序，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与CF1629A类似，使用结构体记录每条龙的属性，按龙的伤害值对龙进行排序，然后依次检测能否战胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序后输出中间一个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1017A</t>
+  </si>
+  <si>
+    <t>第一组输入是John的成绩，先求出总和；然后和后续输入成绩比较；一旦有超过John总分的成绩出现，John的排名后退一位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc019_1</t>
+  </si>
+  <si>
+    <t>判断输入三个数的大小关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF919A</t>
+  </si>
+  <si>
+    <t>浮点数输出精度，记录输入中最小的浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF870A</t>
+  </si>
+  <si>
+    <t>本题使用计数排序，利用位图记录某一个数字在两组数据中出现的次数。有两种情况：1、数据在两组数据中均出现；2、两组数据中没有相同的数字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF29A</t>
+  </si>
+  <si>
+    <t>使用两个数组分别保存x和d，将每一组x、d和它们后面的组合比较，看是否有满足题目要求的组合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF914A</t>
+  </si>
+  <si>
+    <t>检测完全平方数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF155A</t>
+  </si>
+  <si>
+    <t>统计一组输入中，最小值和最大值更新的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF22A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求第二小的数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc073_c</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF10A</t>
+  </si>
+  <si>
+    <t>将两组输入之间的区间按题目描述分成三段，然后计数间隔内的功耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF787A</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3741</t>
+  </si>
+  <si>
+    <t>判断两组输入的大小关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义函数判断三个输入是否可以组成三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种方法是：将10个余数排序，然后检测排序后的结果是否有相邻两个相同的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_chokudai_S001_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题应该在讲解排序时使用，字符串排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF405A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_joi2009yo_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF984A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5737</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF6A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF987A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_joi2022_yo1b_a</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2027</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2041</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2045</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2051</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2066</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2065</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2001</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3845</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3638</t>
+  </si>
+  <si>
+    <t>每个点需要用一个数据结构来表示，两个点之间的距离需要定义成一个函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3834</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3838</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2076</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3835</t>
+  </si>
+  <si>
+    <t>判断输入是否是闰年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3735</t>
+  </si>
+  <si>
+    <t>总结数列变化规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义一个sum函数求前n个自然数之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3677</t>
+  </si>
+  <si>
+    <t>累乘并判断结果的奇偶性和正负性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3897</t>
+  </si>
+  <si>
+    <t>分阶计算总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3827</t>
+  </si>
+  <si>
+    <t>统计每个高考题各项指标和，以指标和为第一关键字，高考题编号为第二关键字排序。输出前两项的高考题编号即可。首先比较平均值是否相等，如果相等比较索引，否则比较大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3702</t>
+  </si>
+  <si>
+    <t>定义一个结构体描述每一个点位的目标点位，输入时顺序初始化该二维数组，然后根据起点坐标模拟走完地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2029</t>
+  </si>
+  <si>
+    <t>浮点运算向上取整ceil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2013</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2010</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2015</t>
+  </si>
+  <si>
+    <t>先求出最小值，这个值便是套票的数量，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3657</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5744</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1629A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF230A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定义数据结构记录输入数值和它的序号（从1开始），先针对数值大小排序，然后求最大的五个数的和，并记录它们的序号，再对序号排序
+每个数需要记录两个属性：
+数值
+输入队列中的序号
+本题有两个需要排序的对象：
+8个数；将8个数按降序排序后，前五个数的和便满足总和最大的要求。
+最大的5个数在原序列中的序号。这里有两种处理方式：
+将前5个较大数的序号记录在一个单独的数组中排序；
+对按数值升序已经排序好的数组前5个成员重新按序号的升序进行排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1059</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1093</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1781</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF386A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc009_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1044</t>
+  </si>
+  <si>
+    <t>假 设 i 个 元 素 一共 有 h [i]种 出 管 方 式 ,假设第k个小球是最后 一个出管的，比k 早入管且早出管有k-1 个，比k后入管早出管的有n-k个。乘法问题，最后一个出管的方式有h[k-1]*h[n-k]. 总出管方式h[1]+h[2]+h[3]…h[n]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1028</t>
+  </si>
+  <si>
+    <t>递推加上剪枝。假设当前数列尾部的数值为l，则后面可以添加的数是1～l/2。以k起始的满足要求的数列种类有f[k]，因此以l结尾的数列其可扩展的种类就是f[1]累加到f[l/2]。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1464</t>
+  </si>
+  <si>
+    <t>递归加剪枝，将20以内所有的计算结果先保存下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt += cnt*n；注意数据的类型long long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3839</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7869</t>
+  </si>
+  <si>
+    <t>注意输入字符串换行后行首字符可能是\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1615</t>
+  </si>
+  <si>
+    <t>本题的难点是如何从冗长的描述中看懂题意：解析字符串计算出时间间隔，然后乘以单位时间内的量输出总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1739</t>
+  </si>
+  <si>
+    <t>{出现则计数加一，}出现则计数减一，一旦计数为负责终止。计数不为0则说明不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8506</t>
+  </si>
+  <si>
+    <t>字符串第一个非空字符必须是#，#之后必须跟着空字符，且不能只是空字符，注意cin和getline如何组合使用。std::cin在读取行数后留下换行符导致std::getline立即返回空行，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9459</t>
+  </si>
+  <si>
+    <t>判断每次循环4个输入单词的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2437</t>
+  </si>
+  <si>
+    <t>变形的斐波那契数列，起点不是1，大数加法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题DFS会超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS 遍历每一种组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS 遍历每一种求和的组合，也可以使用bitmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用位图模拟每一种可能的组合，本题需要判断质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1990</t>
+  </si>
+  <si>
+    <r>
+      <t>当这面墙的最后一列被铺满时,状态结尾的方案数为F[N-1]。
+当这面墙的最后两列被铺满时,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这种状态结尾的方案数为F[N-2]。
+以L型砖结尾的方案数是2*G[N-2]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+所以，F[N]的转移方程就是：
+F[N]=F[N-1]+F[N-2]+2*G[N-2]（别忘了前面讲过G[N-2]的情况有两种）
+而G[N]的转移方程就是：G[N]=F[N-1]+G[N-1]。
+初始化：F[0]=1,G[0]=0;F[1]=G[1]=1;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3612</t>
+  </si>
+  <si>
+    <t>由于N的值可能很大，所以不可能通过构造字符串的方式解。逆向推导目标字符在原字符串中的索引。每个新的字符串有两部分构造，后半部分的字符串其实是前半部分右移一位。按这个思路倒推。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1259</t>
+  </si>
+  <si>
+    <t>不需要构造字符串，移动其中的字符，不断的打印输出即可。输入值分为两个区间进行处理，n大于4时输出是有规律的，可以通过一个循环完成。n等于4时的六行输出是固定的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1010</t>
+  </si>
+  <si>
+    <t>本题中2比较特殊不需要以指数形式输出，1可以直接输出；因此这两个指数作为递归终结的条件。从高位开始依次将幂指数按题目要求转换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1228</t>
+  </si>
+  <si>
+    <t>初看这个问题，似乎无从下手，于是我们可以先考虑最简单的情况，既n = 2时
+0 0 0 1 这时，无论公主在哪个格子，我们都可以用一块毯子填满
+继续考虑n = 4的情况
+我们已经知道了解决2 * 2的格子中有一个障碍的情况如何解决，因此我们可以尝试构造这种情况
+首先，显然可以将4 * 4的盘面划分成4个2 * 2的小盘面，其中一块已经存在一个障碍了
+而我们只需在正中间的2 * 2方格中放入一块地毯，就可以使所有小盘面都有一个障碍
+于是，n = 4的情况就解决了
+我们可以将n = 4时的解法可以推广到一般情况，既当n = 2 k时，我们均可以将问题划分为4个n = 2 k – 1的子问题，然后分治解决即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1498</t>
+  </si>
+  <si>
+    <t>用分治很简单. 每次向下复制一下,向右复制一下,再向上复制一下.
+   /\
+  /__\
+ /\  /\
+/__\/__\
+向下和向右:(顺便把原本的清掉)
+   /\      /\
+  /__\    /__\
+ /\  /\  /\  /\
+/__\/__\/__\/__\
+再向上:
+       /\
+      /__\
+     /\  /\
+    /__\/__\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8355</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF131A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7583</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF837A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计输入的一组token中大写字母出现的最多次数 （getchar）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P6882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P6382</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">只输出字符串中指定的字符 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（switch case）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">首先检查输入的前三个字符，如果是外地车牌则直接输出5个1，否则倒着找寻最后一个数字字符 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（Switch case）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF520A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3663</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9712</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF43B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/AT_joi2022_yo1a_c</t>
-  </si>
-  <si>
-    <t>统计26个字母在字符串中出现的次数，本题可结合为操作一起做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1179</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P5705</t>
-  </si>
-  <si>
-    <t>虽然是浮点数反转，可以将其作为字符串处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将一个小写字符转换成大写输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2620</t>
-  </si>
-  <si>
-    <t>三个判断可以写成三个判断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个简单的判断，判断输入的两个数的大小关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2617</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3865</t>
-  </si>
-  <si>
-    <t>先准备一个足够长的包含-的字符串，然后根据循环的行号修改指定位置上的-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3771</t>
-  </si>
-  <si>
-    <t>遍历区间中每个数，然后比较每一位上数字的大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3924</t>
-  </si>
-  <si>
-    <t>本题的难点是如何计算哪一行输出的内容不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3756</t>
-  </si>
-  <si>
-    <t>本题需要进行进制转换，10to5，10to7但是不需要得到最终的值，只需要坚持过程中是否得到0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个n、m的矩阵相加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xhttps://www.luogu.com.cn/problem/B2106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将一个二维矩阵沿着中心对角线反转，注意矩阵长宽不相等的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交换矩阵中指定的行，注意矩阵行数从1开始计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矩阵外围元素之和，需要考虑1行或者1列的情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2140</t>
-  </si>
-  <si>
-    <t>统计给定区间内，每个数的二进制表示1和0的数目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绘制矩形，矩形是否填充➡️最后一个输入的值决定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按题意要求改变矩阵中的内容，注意如何改变横竖坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P5704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2104</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3751</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P3397</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用二维数组模拟地面上的每一个坐标点位，相应点位每被地毯覆盖一次数组成员就+1。类似于B3751，不同之处是：本题第一行之后的每行输入是一个子区间的左上角和右下角坐标。该子区间内每个坐标上的值都需要加1。等所有的输入都处理完毕之后，将矩阵输出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P2615</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻方。根据题目描述将数字填入二维数组，然后依次将二维数组成员输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P5731</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1328</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF118A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">遇到辅音先输出. 遇到元音直接跳过 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（Switch case）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_codefestival_2015_qualA_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF112A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法不是对所有问题都能得到整体最优解，关键是贪心策略的选择，选择的贪心策略 必须具备无后效性，即某个状态以前的过程不会影响以后的状态，只与当前状态有关。首先需 要证明贪心策略是正确的，才可以考虑使用贪心算法解决该问题。在很多情况下，贪心的合理 性并不是显然的，但如果能找到一个反例，就可以证明这样的贪心不正确。</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2240</t>
+  </si>
+  <si>
+    <t>如果能拿走相同重量的金币，当然是优先拿走单位价格最贵的 金币。所以正确的做法是将金币的单价从高往低排序，然后按照顺序将整堆金币都放人包里。 如果整堆放不进背包，就分割这一堆金币直到刚好能装下为止。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1223</t>
+  </si>
+  <si>
+    <t>按接水的时间升序排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1803</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1)一个比赛被另一个比赛包含:这两个比赛 比赛2
+冲 突 了 ，要 选 择 比 赛 1 ，因 为 比 赛 1 先 结 束 ，这 样可能后续比赛被占用时间的可能就少一些。
+2 ) 一 个 比 赛 和 另 一 个 比 赛 相 交 :还 是 选 择 比赛 1 ，理 由 是 一 样 的 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1090</t>
+  </si>
+  <si>
+    <t>每次合并最少的两个果堆，本题的技巧是如何保存每次合并后的果堆，使用一个额外的数组保存合并后的结果。每次合并时分别从两个数组头部挑选最小的两个数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前和前一个盒子里糖果的总数超出限制，则减少当前盒子里的糖果</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3817</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1106</t>
+  </si>
+  <si>
+    <t>即按高位到低位的顺序搜索，若各位数字递增，则删除最后一个数字，否则删除第一个递减区间的首字符，这样删一位便形成了一个新数字串。然后回到数字串首，按上述规则再删下一个数字。重复以上过程s次为之，剩下的数字串便是问题的解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1478</t>
+  </si>
+  <si>
+    <t>按体力消耗值升序排序，然后判断能否够得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若a[i]&gt;a[i-1],计数器sum+=a[i]-a[i-1];
+我们考虑第一列的四块格子，最少需要
+4
+4次操作给消除掉
+在考虑第二列的
+3
+3个格子时，发现都可以在第一列的
+4
+4次操作中一起消除掉
+第三列的格子也都可以一起消除掉
+考虑第四列，我们可以发现，第四列下面的两个格子在前面的操作中可以一起消除，但是上面的三个是至少再进行三次操作才能消除的
+而第五列下面的两个格子在第一列的操作中可以消除，上面的一个格子可以在第四列的操作中删除
+考虑第六列，上面的
+2
+2个格子是前面操作消除不了的，需要
+2
+2次操作
+那么答案就是
+4
++
+3
++
+2
+=
+9
+4+3+2=9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3141,7 +3832,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3304,6 +3995,21 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3404,7 +4110,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3480,6 +4186,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3496,6 +4211,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4940300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FF761C-967A-6A40-B6EA-6518953231E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9067800" y="3098800"/>
+          <a:ext cx="6921500" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3799,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA01CD-1AE7-9542-B6B1-CA2C7C3DAE22}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3830,7 +4611,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3839,7 +4620,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -3848,7 +4629,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3857,7 +4638,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -3866,7 +4647,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -3875,7 +4656,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -3893,7 +4674,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -3902,7 +4683,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -3920,7 +4701,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
@@ -3938,7 +4719,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -3956,7 +4737,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -4037,20 +4818,33 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="B29" t="s">
-        <v>641</v>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>752</v>
+      </c>
+      <c r="B31" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -4077,12 +4871,13 @@
     <hyperlink ref="A27" r:id="rId19" xr:uid="{15F69765-8937-FC40-92AB-DF13041445A3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F9A184-90B1-1E40-9D6D-A4C3678DCDD0}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -4091,44 +4886,53 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.83203125" customWidth="1"/>
+    <col min="2" max="2" width="67.83203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26">
+    <row r="1" spans="1:2" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="17">
       <c r="A2" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>556</v>
-      </c>
-      <c r="B4" t="s">
-        <v>557</v>
+        <v>541</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="51">
+      <c r="A5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4165,15 +4969,16 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
       <c r="B3" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4209,24 +5014,25 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0151667-4496-0547-B4D1-2F823C37E5ED}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView topLeftCell="A29" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4246,7 +5052,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
         <v>193</v>
@@ -4255,7 +5061,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
         <v>194</v>
@@ -4264,7 +5070,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
         <v>195</v>
@@ -4272,1236 +5078,1280 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B5" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B6" t="s">
         <v>197</v>
-      </c>
-      <c r="B6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>216</v>
+      </c>
+      <c r="B9" t="s">
         <v>217</v>
-      </c>
-      <c r="B9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>220</v>
-      </c>
       <c r="C10" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="3" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
         <v>223</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="15" t="s">
         <v>224</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
         <v>231</v>
-      </c>
-      <c r="B16" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="B31" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B32" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B33" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="B34" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B37" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B38" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="B39" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>418</v>
+      <c r="A41" s="3" t="s">
+        <v>837</v>
       </c>
       <c r="B41" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="B42" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="B43" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B44" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="B45" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B46" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="B47" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="B48" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B49" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B50" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="B51" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B58" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B59" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="B61" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="B65" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="B66" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="B67" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>477</v>
+      <c r="A68" s="3" t="s">
+        <v>836</v>
       </c>
       <c r="B68" t="s">
-        <v>478</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B71" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="B72" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B73" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="B75" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B77" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B78" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B79" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B80" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B81" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B82" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B85" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B86" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B87" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="B88" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B90" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B91" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="B92" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B93" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="B94" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B95" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="23" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B97" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="B98" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B99" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="B100" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B101" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="B102" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="B103" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="C103" s="19"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="B104" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="B105" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B106" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B107" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B108" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="B109" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B110" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="B111" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B112" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="B113" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="B114" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="B115" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>585</v>
-      </c>
-      <c r="B116" t="s">
-        <v>586</v>
+        <v>570</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>571</v>
       </c>
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B117" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B118" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>593</v>
+      <c r="A119" s="3" t="s">
+        <v>834</v>
       </c>
       <c r="B119" t="s">
-        <v>594</v>
+        <v>835</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="B120" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>597</v>
+      <c r="A121" s="3" t="s">
+        <v>824</v>
       </c>
       <c r="B121" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="B122" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B123" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>605</v>
+      <c r="A124" s="3" t="s">
+        <v>820</v>
       </c>
       <c r="B124" t="s">
-        <v>606</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>607</v>
+      <c r="A125" s="3" t="s">
+        <v>821</v>
       </c>
       <c r="B125" t="s">
-        <v>608</v>
+        <v>826</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>610</v>
+      <c r="A126" s="3" t="s">
+        <v>822</v>
       </c>
       <c r="B126" t="s">
-        <v>611</v>
+        <v>823</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B127" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B128" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>593</v>
+      </c>
+      <c r="B130" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>595</v>
+      </c>
+      <c r="B131" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="B132" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>599</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>601</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>603</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>607</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>611</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B141" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B130" t="s">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B142" s="4" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="C142" s="19"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
         <v>619</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B143" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B144" s="4" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>622</v>
-      </c>
-      <c r="B132" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>624</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>626</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>628</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>630</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>632</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>634</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>638</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>644</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>646</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>648</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>650</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>652</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>653</v>
-      </c>
+      <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>665</v>
+      <c r="A149" s="3" t="s">
+        <v>832</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="C151" s="19"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>676</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>788</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>790</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>792</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>794</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>796</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -5554,17 +6404,34 @@
     <hyperlink ref="A123" r:id="rId45" xr:uid="{87023612-1F2C-3F45-96BA-F0F3CE4461CC}"/>
     <hyperlink ref="A127" r:id="rId46" xr:uid="{5EA679C1-7926-4248-9723-FCBCE9E72E4D}"/>
     <hyperlink ref="A151" r:id="rId47" xr:uid="{2677301A-D4F9-0D49-9319-0A01DB413F3A}"/>
+    <hyperlink ref="A6" r:id="rId48" xr:uid="{70292B60-36D3-654A-B29C-583460180548}"/>
+    <hyperlink ref="A132" r:id="rId49" xr:uid="{2617F842-D3F6-CB44-B7E4-4A7BF677AEA0}"/>
+    <hyperlink ref="A124" r:id="rId50" xr:uid="{34A55783-B22A-E349-B3EF-5C8573F078B7}"/>
+    <hyperlink ref="A125" r:id="rId51" xr:uid="{38F6CB26-EF85-614C-AA38-A4EF2D82F152}"/>
+    <hyperlink ref="A126" r:id="rId52" xr:uid="{516657E7-8DB2-7048-BC4B-BFCAC6EECE48}"/>
+    <hyperlink ref="A121" r:id="rId53" xr:uid="{A414F3D3-D6ED-454F-9994-9CD2AB6BC710}"/>
+    <hyperlink ref="A140" r:id="rId54" xr:uid="{FF3DBD14-9F83-D047-856A-50BFC5A34A55}"/>
+    <hyperlink ref="A141" r:id="rId55" xr:uid="{14973D66-02A6-564A-93F0-896AC158033D}"/>
+    <hyperlink ref="A142" r:id="rId56" xr:uid="{3A931FAA-6015-4141-9ABA-B2A07E6C073E}"/>
+    <hyperlink ref="A144" r:id="rId57" xr:uid="{1183FAEA-A4FD-A24B-AB3B-06583D012DF4}"/>
+    <hyperlink ref="A137" r:id="rId58" xr:uid="{3BB61862-B0CD-AF4A-AD78-309C235CAF90}"/>
+    <hyperlink ref="A149" r:id="rId59" xr:uid="{D4A5A54F-694A-7D42-BEBB-05F760F2AE02}"/>
+    <hyperlink ref="A136" r:id="rId60" xr:uid="{CEC18FE6-DDB5-4A4E-B073-66E0745E8E3A}"/>
+    <hyperlink ref="A119" r:id="rId61" xr:uid="{CA71C550-47F3-9F43-9683-EC8EF144D9F8}"/>
+    <hyperlink ref="A68" r:id="rId62" xr:uid="{0B19F2A3-D04F-3346-AC51-E633CFE391DC}"/>
+    <hyperlink ref="A41" r:id="rId63" xr:uid="{F95D9120-CD7B-6D43-A1F8-C4B19BB7F92C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA0E1B1-B423-EA4D-8298-450E69DA726B}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5573,7 +6440,7 @@
     <col min="2" max="2" width="131.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26">
+    <row r="1" spans="1:3" ht="26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5581,117 +6448,188 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B2" t="s">
         <v>238</v>
       </c>
-      <c r="B2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>242</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
         <v>244</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>246</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>248</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>250</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>262</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>767</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>603</v>
+        <v>259</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>731</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>671</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>729</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>672</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>742</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>756</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>758</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{EE903267-E92F-F244-8EFD-A340B30D30DC}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{752524A7-119F-FC4D-9B1F-585C15E64541}"/>
+    <hyperlink ref="A13" r:id="rId3" xr:uid="{94286840-952E-D64C-8BA0-CDF5C3B8D289}"/>
+    <hyperlink ref="A16" r:id="rId4" xr:uid="{BF2E8CA9-49F5-F743-88ED-FBD84B1B12BD}"/>
+    <hyperlink ref="A12" r:id="rId5" xr:uid="{605F9C83-1315-2B47-B4B9-95F2431F69C3}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{DA43E823-1851-3B49-9475-30027DE93AE5}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{5146BA5B-625C-8D4F-BF62-B016061FDCE8}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{BD8A2780-02A9-A041-9105-A33B04FE949F}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{6F2DD025-6920-AF4D-936A-175033188064}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{D04E7454-8BCE-C443-906D-DE21A1A03F54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCE7EFE-1487-9648-941B-06802B008ADA}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5710,20 +6648,41 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
-        <v>339</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B5" t="s">
+        <v>802</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{73D39471-691E-194F-A5AD-D90C0F355797}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{0CE80475-2FBE-9E46-9C49-FD0338C5DFE8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5751,50 +6710,50 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5806,131 +6765,265 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143E21FE-BDEE-B944-B7FE-94C0CE756BDE}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.6640625" customWidth="1"/>
+    <col min="2" max="2" width="59" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26">
+    <row r="1" spans="1:3" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="34">
+      <c r="A2" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="34">
+      <c r="A4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:3" ht="34">
+      <c r="A7" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="34">
+      <c r="A8" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B8" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:3" ht="34">
+      <c r="A10" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3" ht="34">
       <c r="A11" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>307</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" t="s">
-        <v>321</v>
-      </c>
-      <c r="B12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>309</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="3" t="s">
-        <v>398</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
+      <c r="A17" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="34">
+      <c r="A20" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" ht="17">
+      <c r="A21" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="51">
+      <c r="A22" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17">
+      <c r="A23" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="34">
+      <c r="A24" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="238">
+      <c r="A25" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>772</v>
+      </c>
+      <c r="C25" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" xr:uid="{B36FE11F-1B08-9B4A-83CF-675503AC64E6}"/>
-    <hyperlink ref="A13" r:id="rId2" xr:uid="{24F376B5-C184-C74D-A5CA-8E7D5E1DFE71}"/>
+    <hyperlink ref="A23" r:id="rId2" xr:uid="{2185DADB-380D-6748-83E8-5BA38DD1C04B}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{8E59EB52-92E6-074A-9103-F43A05B54F00}"/>
+    <hyperlink ref="A15" r:id="rId4" xr:uid="{977A2D4C-9116-FB4A-962B-19945DA0DDF5}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{24F376B5-C184-C74D-A5CA-8E7D5E1DFE71}"/>
+    <hyperlink ref="A17" r:id="rId6" xr:uid="{A92C44D6-686C-B44C-8851-A2E0E5890448}"/>
+    <hyperlink ref="A14" r:id="rId7" xr:uid="{47DDA702-2375-E748-93B5-51CC8AD329F3}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{B2DF1579-95F0-544E-AD24-7BA95515EAE9}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{561CEA7D-04BD-BD4E-B579-8A5CA4B9DB6E}"/>
+    <hyperlink ref="A3" r:id="rId10" xr:uid="{9D2A6418-EF2C-B448-AE2D-DC3302F0706C}"/>
+    <hyperlink ref="A8" r:id="rId11" xr:uid="{B97E3E10-3EE3-2A40-A612-A55E91A2BE06}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{34485189-B177-854C-A547-84416A625F8D}"/>
+    <hyperlink ref="A19" r:id="rId13" xr:uid="{39A8DCB1-21F5-8647-92DC-C01BDAF7BA0B}"/>
+    <hyperlink ref="A25" r:id="rId14" xr:uid="{D4C2ACCF-A289-AA4F-832C-75AA7A3B7045}"/>
+    <hyperlink ref="A20" r:id="rId15" xr:uid="{8CD50F3A-51AE-D643-9FFA-AC3C5A3E305A}"/>
+    <hyperlink ref="A5" r:id="rId16" xr:uid="{4521B58A-F8AF-8947-A620-84108617A66A}"/>
+    <hyperlink ref="A6" r:id="rId17" xr:uid="{C299942B-A757-D742-873E-D59BEAEA721D}"/>
+    <hyperlink ref="A7" r:id="rId18" xr:uid="{3D7E2058-783F-2146-BE6E-2F98BF2443ED}"/>
+    <hyperlink ref="A10" r:id="rId19" xr:uid="{FBE26428-7309-8F49-98DE-F05804DCFAB5}"/>
+    <hyperlink ref="A16" r:id="rId20" xr:uid="{D7C257F8-89A8-7C4E-BC95-59E2782A1B7D}"/>
+    <hyperlink ref="A18" r:id="rId21" xr:uid="{607DB015-1250-114C-85AC-FDA66521F727}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5956,122 +7049,124 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF85487-6C8C-7148-99CF-80B5EEC63389}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="169" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26">
@@ -6084,31 +7179,114 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>783</v>
+      </c>
+      <c r="B4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B5" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="170">
+      <c r="A7" t="s">
+        <v>806</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>810</v>
+      </c>
+      <c r="B9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>812</v>
+      </c>
+      <c r="B10" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="136">
+      <c r="A11" t="s">
+        <v>814</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="306">
+      <c r="A12" t="s">
+        <v>816</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>817</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{D22DAB22-A9DB-8944-AF39-FB3CC89F7C8A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4AF0D-8DA7-0F4B-A794-90B82802641C}">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9394822-9041-ED4F-B88F-BE1CE8C48764}">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="158" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="2" max="2" width="109.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="26">
@@ -6120,200 +7298,159 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>168</v>
+      <c r="A3" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>698</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>699</v>
-      </c>
-      <c r="C4" s="19"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" t="s">
-        <v>171</v>
-      </c>
+      <c r="A5" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="B6" t="s">
-        <v>701</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" t="s">
-        <v>175</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
+      <c r="A9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
+        <v>641</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" t="s">
-        <v>189</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="323">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.6">
+      <c r="A12" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B14" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>278</v>
+        <v>740</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="B15" t="s">
-        <v>279</v>
+      <c r="A15" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>694</v>
+      <c r="A16" t="s">
+        <v>760</v>
       </c>
       <c r="B16" t="s">
-        <v>683</v>
-      </c>
-      <c r="C16" s="19"/>
+        <v>761</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>684</v>
-      </c>
-      <c r="B17" t="s">
-        <v>685</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B18" t="s">
-        <v>687</v>
+      <c r="A18" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="B19" t="s">
-        <v>688</v>
-      </c>
-      <c r="C19" s="19"/>
+      <c r="A19" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="B20" t="s">
-        <v>691</v>
-      </c>
-      <c r="C20" s="19"/>
+      <c r="A20" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>697</v>
+        <v>766</v>
       </c>
       <c r="B21" t="s">
-        <v>692</v>
+        <v>765</v>
       </c>
       <c r="C21" s="19"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>676</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" xr:uid="{BE502155-4C2A-2C4D-B2A9-C7583297DCB4}"/>
-    <hyperlink ref="A16" r:id="rId2" xr:uid="{6445BBA6-2B50-C648-827C-EA40AA0A9380}"/>
-    <hyperlink ref="A19" r:id="rId3" xr:uid="{A75CA0B8-152C-5642-84BA-CB71D99CE857}"/>
-    <hyperlink ref="A20" r:id="rId4" xr:uid="{7FE827EE-E848-1B41-B5D0-D6FF8B005E72}"/>
-    <hyperlink ref="A21" r:id="rId5" xr:uid="{FAEDFE32-070B-5648-9A5C-5DC3F910EB09}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{CB8438FD-91A8-D548-BB7B-CDC53D03865C}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{0E395FA6-9D6A-2C4C-ACD9-5DE5E213FED0}"/>
-    <hyperlink ref="A8" r:id="rId8" xr:uid="{61D08F86-0A65-0E4B-8E5D-7D61C2B6EECD}"/>
-    <hyperlink ref="A12" r:id="rId9" xr:uid="{68BE8A54-7931-1647-BB2B-536E16F9E634}"/>
-    <hyperlink ref="A15" r:id="rId10" xr:uid="{A7138323-BE81-4043-AEA5-7A45C8601CA8}"/>
-    <hyperlink ref="A22" r:id="rId11" xr:uid="{3F417652-55EC-DB40-BAE9-71BAA7E16B61}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{17BF7391-5F28-9142-B12B-D36BF465A010}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{CA6051E5-38F4-BD41-BFEF-A8D4F1FC23B5}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{880D7C05-7172-7C43-9151-23B86514B2D7}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{74550920-E95E-8A49-9B97-3CCAF0C53D41}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{ABE49137-87FA-904F-8E38-2AF065A39F11}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{9B131F35-6642-E442-A98A-ECF32676CC1F}"/>
+    <hyperlink ref="A4" r:id="rId7" xr:uid="{B9D12592-8AAE-714E-9159-F06592743519}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{74D2DA0A-0E2C-D149-A860-A460F1AA9F62}"/>
+    <hyperlink ref="A13" r:id="rId9" xr:uid="{AD5D5584-286D-B749-B998-5CBD12F0DDE2}"/>
+    <hyperlink ref="A21" r:id="rId10" xr:uid="{FFBA4F6D-8049-7847-88D6-421322CAB4A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6340,12 +7477,13 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -6374,10 +7512,153 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F93576-1DC9-7C47-86F8-E43F2EF4BEC3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CCD587-70EE-2C43-AA06-EF48DCA404E1}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="51">
+      <c r="A2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="85">
+      <c r="A4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>845</v>
+      </c>
+      <c r="B5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>848</v>
+      </c>
+      <c r="B6" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="409.6">
+      <c r="A9" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>854</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{AAC29290-551B-234A-8968-C31BAEEA2B67}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151142BC-A2CA-E24D-BC88-399550A822FB}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -6398,11 +7679,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641AD868-E677-BD4A-9E53-A747C638319C}">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343C796B-01B8-5448-8E14-C6EF630E3FDF}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6414,12 +7696,279 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A926C88C-09D8-E244-BFFA-870667A63ACC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40610928-C00F-DB41-9C40-4E9CE4C6DA1B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641AD868-E677-BD4A-9E53-A747C638319C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4AF0D-8DA7-0F4B-A794-90B82802641C}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="158" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B4" t="s">
+        <v>666</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="B6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="323">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.6">
+      <c r="A14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="B16" t="s">
+        <v>650</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B18" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B19" t="s">
+        <v>655</v>
+      </c>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="B20" t="s">
+        <v>658</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="B21" t="s">
+        <v>659</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>758</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" xr:uid="{BE502155-4C2A-2C4D-B2A9-C7583297DCB4}"/>
+    <hyperlink ref="A16" r:id="rId2" xr:uid="{6445BBA6-2B50-C648-827C-EA40AA0A9380}"/>
+    <hyperlink ref="A19" r:id="rId3" xr:uid="{A75CA0B8-152C-5642-84BA-CB71D99CE857}"/>
+    <hyperlink ref="A20" r:id="rId4" xr:uid="{7FE827EE-E848-1B41-B5D0-D6FF8B005E72}"/>
+    <hyperlink ref="A21" r:id="rId5" xr:uid="{FAEDFE32-070B-5648-9A5C-5DC3F910EB09}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{CB8438FD-91A8-D548-BB7B-CDC53D03865C}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{0E395FA6-9D6A-2C4C-ACD9-5DE5E213FED0}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{61D08F86-0A65-0E4B-8E5D-7D61C2B6EECD}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{68BE8A54-7931-1647-BB2B-536E16F9E634}"/>
+    <hyperlink ref="A15" r:id="rId10" xr:uid="{A7138323-BE81-4043-AEA5-7A45C8601CA8}"/>
+    <hyperlink ref="A22" r:id="rId11" xr:uid="{3F417652-55EC-DB40-BAE9-71BAA7E16B61}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC9767-80D6-2E42-9A70-05C484BC7B37}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6456,7 +8005,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>165</v>
@@ -6494,6 +8043,14 @@
       </c>
       <c r="B8" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>686</v>
+      </c>
+      <c r="B9" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -6505,15 +8062,16 @@
     <hyperlink ref="A4" r:id="rId4" xr:uid="{A1EF1DE8-86E8-C44D-A7C5-68D17F75E6D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E60185-02EE-8848-A02E-E90D2526078F}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6560,7 +8118,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -6568,7 +8126,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -6584,7 +8142,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -6712,54 +8270,123 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119">
       <c r="A27" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
       <c r="B28" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="B29" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="C29">
         <f>FACT(20)</f>
         <v>2.43290200817664E+18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>694</v>
+      </c>
+      <c r="B30" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>698</v>
+      </c>
+      <c r="B31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>702</v>
+      </c>
+      <c r="B32" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>706</v>
+      </c>
+      <c r="B33" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>711</v>
+      </c>
+      <c r="B34" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>749</v>
+      </c>
+      <c r="B36" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>754</v>
+      </c>
+      <c r="B37" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B38" t="s">
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -6772,17 +8399,19 @@
     <hyperlink ref="A6" r:id="rId5" xr:uid="{CA72CFB3-847F-1548-952D-DC82292EB45F}"/>
     <hyperlink ref="A5" r:id="rId6" xr:uid="{4B859C59-60F2-E74E-8C7E-01CC4BD10979}"/>
     <hyperlink ref="A8" r:id="rId7" xr:uid="{7DF2C10D-8FF0-CE4E-8D4E-DFBC16612E2F}"/>
+    <hyperlink ref="A38" r:id="rId8" xr:uid="{7D66466E-F9E9-8A4B-96AC-8E130BBA9A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDE49E5-74A2-2542-85FA-0F5DD1837FBD}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6873,7 +8502,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B10" t="s">
         <v>111</v>
@@ -6947,18 +8576,102 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>204</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>673</v>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>674</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>676</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>678</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>680</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>688</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>696</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>714</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>747</v>
+      </c>
+      <c r="B32" t="s">
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -6979,10 +8692,11 @@
     <hyperlink ref="A10" r:id="rId13" xr:uid="{9D6B3776-E34D-BE49-8D17-EFD16426586B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63A915-3057-CC46-9D28-73B5505B3E97}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -7006,7 +8720,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -7014,15 +8728,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -7030,7 +8744,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -7049,12 +8763,12 @@
         <v>28</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -7062,15 +8776,15 @@
     </row>
     <row r="10" spans="1:2" ht="119">
       <c r="A10" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -7078,7 +8792,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>147</v>
@@ -7086,91 +8800,91 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B18" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="B20" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="B24" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="B25" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="B26" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -7189,15 +8903,16 @@
     <hyperlink ref="A5" r:id="rId11" xr:uid="{71A9CDFF-88BD-7C47-8F2B-4B07932303AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBEC56-A184-4A4B-8567-C8F06A47DCEE}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7280,61 +8995,84 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>239</v>
+      </c>
+      <c r="B10" t="s">
         <v>240</v>
-      </c>
-      <c r="B10" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51">
       <c r="A13" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B14" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="B15" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="B16" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="26" spans="8:8">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B17" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="H26">
         <f>26*8</f>
         <v>208</v>
@@ -7349,15 +9087,16 @@
     <hyperlink ref="A6" r:id="rId4" xr:uid="{986C4E47-717C-014D-8230-DACD09767CF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280A7DF4-3F35-9F4D-8962-272441DFE4FB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7430,125 +9169,20 @@
         <v>94</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>798</v>
+      </c>
+      <c r="B9" t="s">
+        <v>799</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{D74DD31C-4AD5-D84F-BEF1-4CFDF107490B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9394822-9041-ED4F-B88F-BE1CE8C48764}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="19"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>674</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{17BF7391-5F28-9142-B12B-D36BF465A010}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{CA6051E5-38F4-BD41-BFEF-A8D4F1FC23B5}"/>
-    <hyperlink ref="A9" r:id="rId3" xr:uid="{880D7C05-7172-7C43-9151-23B86514B2D7}"/>
-    <hyperlink ref="A8" r:id="rId4" xr:uid="{74550920-E95E-8A49-9B97-3CCAF0C53D41}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{ABE49137-87FA-904F-8E38-2AF065A39F11}"/>
-    <hyperlink ref="A2" r:id="rId6" xr:uid="{9B131F35-6642-E442-A98A-ECF32676CC1F}"/>
-    <hyperlink ref="A4" r:id="rId7" xr:uid="{B9D12592-8AAE-714E-9159-F06592743519}"/>
-    <hyperlink ref="A5" r:id="rId8" xr:uid="{74D2DA0A-0E2C-D149-A860-A460F1AA9F62}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A3D50-D8D8-AD4B-ACD1-480DF2577DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CBE488-03C3-BE4F-86EE-D3B29F23B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1340" windowWidth="38400" windowHeight="20460" firstSheet="4" activeTab="22" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
+    <workbookView xWindow="-38400" yWindow="-1300" windowWidth="38400" windowHeight="20460" activeTab="17" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="矩阵操作" sheetId="24" r:id="rId21"/>
     <sheet name="位操作" sheetId="26" r:id="rId22"/>
     <sheet name="贪心" sheetId="29" r:id="rId23"/>
-    <sheet name="题单" sheetId="2" r:id="rId24"/>
+    <sheet name="二分查找" sheetId="2" r:id="rId24"/>
     <sheet name="Sheet4" sheetId="28" r:id="rId25"/>
     <sheet name="Sheet2" sheetId="27" r:id="rId26"/>
     <sheet name="Sheet1" sheetId="25" r:id="rId27"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="874">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,9 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2125</t>
-  </si>
-  <si>
     <t>二维数组分别记录成绩和姓名，记录下分数最高的索引号，然后根据该索引号输出姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,9 +151,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5710</t>
-  </si>
-  <si>
     <t>判断一个数对4种判断条件的满足情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -514,9 +508,6 @@
   <si>
     <t>整除向上取整的技巧</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1055</t>
   </si>
   <si>
     <t>ISBN chech sum，字符计算，字符串输入</t>
@@ -735,9 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5728</t>
-  </si>
-  <si>
     <t>二维数组记录各科成绩和总成绩，每接收一个输入，就和已经录入的成绩比较</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,9 +744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/record/139125105</t>
-  </si>
-  <si>
     <t>首先利用2维数组保存两两之和，然后比较是否有相等的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,14 +777,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5732</t>
-  </si>
-  <si>
     <t>输出杨辉三角</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1789</t>
   </si>
   <si>
     <r>
@@ -817,9 +796,6 @@
       <t>数组的边界需要扩展</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1319</t>
   </si>
   <si>
     <t>二维数组转化成一维数组，0和1之间如何乒乓。</t>
@@ -2458,9 +2434,6 @@
   <si>
     <t>统计并检测y a h o出现的次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/CF898A</t>
   </si>
   <si>
     <t>判断最后一个位数值大小</t>
@@ -2870,9 +2843,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3866</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/AT_abc044_b</t>
   </si>
   <si>
@@ -2891,9 +2861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1179</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/P5705</t>
   </si>
   <si>
@@ -3049,9 +3016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc058_a</t>
-  </si>
-  <si>
     <t>检测相邻的输入之间的差是否相等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3266,17 +3230,8 @@
     <t>https://www.luogu.com.cn/problem/B2041</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2045</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/B2029</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2051</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2066</t>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/B2065</t>
@@ -3825,6 +3780,171 @@
 =
 9
 4+3+2=9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1208</t>
+  </si>
+  <si>
+    <t>将牛奶单价按升序排列，然后从最小开始选取，直到满足采购要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1094</t>
+  </si>
+  <si>
+    <t>将礼物按大小排序，利用首尾两个指针，如果首尾两个指针指向的礼物价值之和不大于上限，则将它们分成一组；否则只选大的；如果首尾指针相等，则说明还剩一个单独成组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4995</t>
+  </si>
+  <si>
+    <t>每两次跳之间高差最大即可。先将数据排序，然后首尾乒乓着求差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4447</t>
+  </si>
+  <si>
+    <t>本题需要使用二分查找。首先将输入排序，然后依次将数据添加到可以添加到队列中去（当有多个队列可以插入时，选取最后一个，这样可以保证q也是升序排列的，便于后续的二分查找），找寻该队列需要使用二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2249</t>
+  </si>
+  <si>
+    <t>典型的二分查找</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF898A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3866</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1179</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求区间内字符2出现的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc058_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>先将输入排序，统计一个值a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及a[i]+c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的个数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3702</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1319</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1088</t>
+  </si>
+  <si>
+    <t>求当前排列后的第m个排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1873</t>
+  </si>
+  <si>
+    <t>在0和最高值之间二分查找一个合适的高度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4011,7 +4131,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4066,6 +4186,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4110,7 +4236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4193,6 +4319,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4611,7 +4740,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4620,7 +4749,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4629,7 +4758,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4638,7 +4767,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4647,7 +4776,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4656,7 +4785,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -4674,7 +4803,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -4683,168 +4812,168 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="19"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="B29" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="B31" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -4899,34 +5028,34 @@
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -4961,18 +5090,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -5006,18 +5135,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5052,1306 +5181,1306 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="3" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B31" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B33" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B37" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
       <c r="B41" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B42" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B45" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B46" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B47" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B50" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B52" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B54" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B55" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B63" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B64" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B67" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="B68" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B70" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B71" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B73" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B77" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B80" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B81" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B82" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B83" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B84" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B85" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B86" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B87" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B89" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B90" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B91" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B92" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B93" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B94" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B95" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B96" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="23" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B97" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B98" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B99" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B100" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B101" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B102" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B103" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C103" s="19"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B105" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B106" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B107" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B108" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B109" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B110" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B111" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B112" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="B113" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B114" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B115" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B117" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="B118" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="B119" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B120" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
       <c r="B121" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B122" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B123" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
       <c r="B124" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
       <c r="B125" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
       <c r="B126" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B127" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B128" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="B130" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="B131" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="B132" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C151" s="19"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
@@ -6450,159 +6579,159 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -6648,31 +6777,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="B4" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
       <c r="B5" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -6710,50 +6839,50 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6793,207 +6922,207 @@
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" s="3" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="3" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="3" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="3" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="3" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="3" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="3" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="3" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="3" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="3" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="3" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="3" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="3" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" s="3" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="3" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="3" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="34">
       <c r="A24" s="3" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="238">
       <c r="A25" s="3" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="C25" s="19"/>
     </row>
@@ -7029,10 +7158,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F432DCD-ABFD-C042-9225-6CB311C2023F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7049,103 +7178,119 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>870</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>872</v>
+      </c>
+      <c r="B15" t="s">
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -7179,90 +7324,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="B3" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
       <c r="B4" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="B5" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="170">
       <c r="A7" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="B8" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="B9" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="B10" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="136">
       <c r="A11" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="306">
       <c r="A12" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -7299,139 +7444,139 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="B16" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="B21" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -7477,7 +7622,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7539,15 +7684,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -7559,10 +7704,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CCD587-70EE-2C43-AA06-EF48DCA404E1}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7580,71 +7725,103 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
       <c r="B3" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="B5" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
       <c r="B6" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="B7" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="B8" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="3" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>854</v>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>840</v>
+      </c>
+      <c r="B10" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>842</v>
+      </c>
+      <c r="B11" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>844</v>
+      </c>
+      <c r="B12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>846</v>
+      </c>
+      <c r="B13" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -7660,13 +7837,17 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151142BC-A2CA-E24D-BC88-399550A822FB}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26">
       <c r="A1" s="1" t="s">
@@ -7676,8 +7857,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B3" t="s">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{3F6505C3-923C-6F44-B005-70128A958033}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7740,8 +7940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4AF0D-8DA7-0F4B-A794-90B82802641C}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7760,187 +7960,188 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>168</v>
+      <c r="A3" s="3" t="s">
+        <v>864</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B4" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B6" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>174</v>
+      <c r="A7" s="3" t="s">
+        <v>869</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>184</v>
+      <c r="A9" s="3" t="s">
+        <v>865</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>186</v>
+      <c r="A10" s="3" t="s">
+        <v>867</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>188</v>
+      <c r="A11" s="3" t="s">
+        <v>868</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="323">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B16" t="s">
-        <v>650</v>
-      </c>
-      <c r="C16" s="19"/>
+        <v>639</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B17" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="B18" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B19" t="s">
-        <v>655</v>
-      </c>
-      <c r="C19" s="19"/>
+        <v>644</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="B20" t="s">
-        <v>658</v>
-      </c>
-      <c r="C20" s="19"/>
+        <v>647</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="B21" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>643</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>758</v>
+      <c r="A23" s="3" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>
@@ -7957,6 +8158,13 @@
     <hyperlink ref="A12" r:id="rId9" xr:uid="{68BE8A54-7931-1647-BB2B-536E16F9E634}"/>
     <hyperlink ref="A15" r:id="rId10" xr:uid="{A7138323-BE81-4043-AEA5-7A45C8601CA8}"/>
     <hyperlink ref="A22" r:id="rId11" xr:uid="{3F417652-55EC-DB40-BAE9-71BAA7E16B61}"/>
+    <hyperlink ref="A2" r:id="rId12" xr:uid="{BBFB6620-430F-CB47-8B77-B48E4843D484}"/>
+    <hyperlink ref="A3" r:id="rId13" xr:uid="{7E0E83C7-7B4B-9847-B16A-EC7E831B9838}"/>
+    <hyperlink ref="A7" r:id="rId14" xr:uid="{3CC880DA-26D5-5148-BA40-A4DE25BF0AD7}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{A2CEDB65-4C4E-304D-BC8D-422F1DE7C245}"/>
+    <hyperlink ref="A23" r:id="rId16" xr:uid="{100BC3A4-DDBB-294F-8DFC-D3D012F338C9}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{5B793CDD-88FE-E346-B515-0A9514B9C262}"/>
+    <hyperlink ref="A11" r:id="rId18" xr:uid="{03B25D8C-1C9E-2748-A950-A36145FE72F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7987,70 +8195,70 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="B9" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -8091,229 +8299,229 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" t="s">
         <v>104</v>
-      </c>
-      <c r="B15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119">
       <c r="A27" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="B28" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B29" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C29">
         <f>FACT(20)</f>
@@ -8322,71 +8530,71 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B30" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="B31" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="B32" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="B33" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="B34" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="B36" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="B37" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="B38" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -8410,8 +8618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDE49E5-74A2-2542-85FA-0F5DD1837FBD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8430,248 +8638,249 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>115</v>
+      <c r="A13" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>676</v>
+      <c r="A22" s="3" t="s">
+        <v>855</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>735</v>
+      <c r="A29" s="3" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>737</v>
+      <c r="A30" s="3" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>738</v>
+      <c r="A31" s="3" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
       <c r="B32" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -8690,6 +8899,12 @@
     <hyperlink ref="A8" r:id="rId11" xr:uid="{D29D3CCE-9765-5E4A-A766-651AD85A43E0}"/>
     <hyperlink ref="A12" r:id="rId12" xr:uid="{D278C126-3553-C946-A98D-A0C08E884B65}"/>
     <hyperlink ref="A10" r:id="rId13" xr:uid="{9D6B3776-E34D-BE49-8D17-EFD16426586B}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{8A949881-A9F0-424E-9E60-6F00D4E5A2CE}"/>
+    <hyperlink ref="A13" r:id="rId15" xr:uid="{DB5883D9-FBE1-C64C-9522-818A243AF98E}"/>
+    <hyperlink ref="A31" r:id="rId16" xr:uid="{8815B285-A616-844D-811C-4EBB93831D26}"/>
+    <hyperlink ref="A29" r:id="rId17" xr:uid="{B4C3D1FC-D9E6-D945-A577-8DB5E2B80D72}"/>
+    <hyperlink ref="A3" r:id="rId18" xr:uid="{7DE8C29E-3E70-6A40-A515-609B99BFE439}"/>
+    <hyperlink ref="A30" r:id="rId19" xr:uid="{BC678C75-4531-5B41-A7A1-DB903BD9BBB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8698,10 +8913,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63A915-3057-CC46-9D28-73B5505B3E97}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8710,7 +8925,7 @@
     <col min="2" max="2" width="102.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26">
+    <row r="1" spans="1:3" ht="26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8718,173 +8933,179 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:3" ht="85">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="85">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="B8" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="119">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="119">
       <c r="A10" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>144</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>576</v>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="B18" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>568</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B20" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="B22" t="s">
+        <v>853</v>
+      </c>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>633</v>
+      </c>
+      <c r="B24" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>644</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>637</v>
+      </c>
+      <c r="B25" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>648</v>
-      </c>
-      <c r="B25" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>656</v>
-      </c>
       <c r="B26" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -8901,6 +9122,10 @@
     <hyperlink ref="A4" r:id="rId9" xr:uid="{215A4B67-A1A0-8F44-847D-53622E8B1B18}"/>
     <hyperlink ref="A3" r:id="rId10" xr:uid="{22FCF019-A053-F645-A6D1-DC1320032232}"/>
     <hyperlink ref="A5" r:id="rId11" xr:uid="{71A9CDFF-88BD-7C47-8F2B-4B07932303AE}"/>
+    <hyperlink ref="A18" r:id="rId12" xr:uid="{11D63C64-CEEE-564A-B6DF-1C5F7BF2737C}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{5A454A86-8C7A-A34F-8C48-C294237F61D8}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{30C9CE01-6BC3-414A-8E8B-CBC36BED9541}"/>
+    <hyperlink ref="A23" r:id="rId15" xr:uid="{DB6BF5B6-16CD-0343-869E-0991D33BBECB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8931,145 +9156,145 @@
     </row>
     <row r="2" spans="1:2" ht="20">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B16" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="B17" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9115,66 +9340,66 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="B9" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CBE488-03C3-BE4F-86EE-D3B29F23B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667EDEA-F511-AF46-AEB4-F29CFC061FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1300" windowWidth="38400" windowHeight="20460" activeTab="17" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
+    <workbookView xWindow="-38400" yWindow="-1320" windowWidth="38400" windowHeight="20460" firstSheet="5" activeTab="23" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="892">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,9 +565,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P2669</t>
-  </si>
-  <si>
     <t>二重循环累加获得金币数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,9 +655,6 @@
   <si>
     <t>需要注意输出的是两位字符，输出直角三角形时前方需要补空格</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P5726</t>
   </si>
   <si>
     <t>去除两个极值之后，求平均值</t>
@@ -2586,13 +2580,6 @@
   </si>
   <si>
     <t>先统计加法字符串中1、2、3的个数，然后依次输出1 2 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/CF546A</t>
-  </si>
-  <si>
-    <t>n从1开始循环累加到w所得和减去n</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3256,9 +3243,6 @@
     <t>https://www.luogu.com.cn/problem/B3838</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2076</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/B3835</t>
   </si>
   <si>
@@ -3275,9 +3259,6 @@
   <si>
     <t>定义一个sum函数求前n个自然数之和</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3677</t>
   </si>
   <si>
     <t>累乘并判断结果的奇偶性和正负性</t>
@@ -3945,6 +3926,110 @@
   </si>
   <si>
     <t>在0和最高值之间二分查找一个合适的高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1824</t>
+  </si>
+  <si>
+    <t>先将栅栏按升序排列，然后二分查找最小的最大值（总是在右侧）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1024</t>
+  </si>
+  <si>
+    <t>在1的间隔上查找解，注意浮点数相等的比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先将分数线排序，然后二分查找小于实际分数的最大值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF546A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n从1开始循环累加到w所得和减去n,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本题的翻译有误，输入一行三个整数**k，n, w**, 含义如题面。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3677</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2669</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2678</t>
+  </si>
+  <si>
+    <t>二分查找一个合适的最大距离。在该距离下，需要移除的石头数目满足题目要求。如果移除的石头过多则说明距离太大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2440</t>
+  </si>
+  <si>
+    <t>可以截取的最短长度是1，最长长度是所有木材中最大的长度。在这个区间中二分查找合适的长度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3853</t>
+  </si>
+  <si>
+    <t>在公路的总长度间查找可以选择的最小间隔长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1182</t>
+  </si>
+  <si>
+    <t>二次查找分段长度，左值是输入的最大值，右值是maxa*n/m。然后在此区间二分查找，看看满足分组的最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分法查找合适的利率，注意浮点数大小的判定，根据选定利率计算所还的总金额，然后判断利率是否合适。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3743</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题右边界的取值有点意思，</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4711,8 +4796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA01CD-1AE7-9542-B6B1-CA2C7C3DAE22}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4740,7 +4825,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4749,7 +4834,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4758,7 +4843,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4767,7 +4852,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4776,7 +4861,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4785,7 +4870,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -4803,7 +4888,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -4812,7 +4897,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -4830,7 +4915,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -4848,7 +4933,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -4866,7 +4951,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -4947,33 +5032,35 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>604</v>
+      <c r="A29" s="3" t="s">
+        <v>874</v>
       </c>
       <c r="B29" t="s">
-        <v>605</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>731</v>
-      </c>
+      <c r="A30" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>737</v>
+      <c r="A31" s="3" t="s">
+        <v>877</v>
       </c>
       <c r="B31" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -4998,6 +5085,9 @@
     <hyperlink ref="A15" r:id="rId17" xr:uid="{A04E0528-F55C-E041-9791-09F5264E80B8}"/>
     <hyperlink ref="A17" r:id="rId18" xr:uid="{2E5CCE2B-CD4B-CA41-9593-556F90D7E652}"/>
     <hyperlink ref="A27" r:id="rId19" xr:uid="{15F69765-8937-FC40-92AB-DF13041445A3}"/>
+    <hyperlink ref="A29" r:id="rId20" xr:uid="{88728ADE-AAEF-AF4D-9BB3-497EC6D65EB2}"/>
+    <hyperlink ref="A30" r:id="rId21" xr:uid="{34867040-64F3-8749-96DD-64A84466E20D}"/>
+    <hyperlink ref="A31" r:id="rId22" xr:uid="{9F182FAE-7B65-1C4F-980F-3966A989A424}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5036,26 +5126,26 @@
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -5098,10 +5188,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -5135,18 +5225,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5181,1306 +5271,1306 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" t="s">
         <v>345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="B13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>371</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B34" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B37" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B41" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B42" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B46" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B47" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B48" t="s">
         <v>409</v>
-      </c>
-      <c r="B48" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B50" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B51" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B52" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B53" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B56" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B59" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B62" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>442</v>
+      </c>
+      <c r="B63" t="s">
         <v>444</v>
-      </c>
-      <c r="B63" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B64" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B65" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B67" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B68" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B69" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B70" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B73" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B75" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B77" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B78" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B79" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B80" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B81" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B86" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B87" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B88" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B89" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B91" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B92" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B93" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B94" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B95" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B96" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="23" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B98" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>513</v>
+      </c>
+      <c r="B99" t="s">
         <v>515</v>
-      </c>
-      <c r="B99" t="s">
-        <v>517</v>
       </c>
       <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B100" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B101" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B102" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C103" s="19"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B104" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B105" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B106" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B107" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B108" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B109" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B110" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B111" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B112" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B113" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B114" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B115" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B117" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B119" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B120" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B121" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B122" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B123" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B124" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B125" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B126" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B127" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B128" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B130" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>584</v>
+      </c>
+      <c r="B131" t="s">
         <v>586</v>
-      </c>
-      <c r="B131" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B132" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C151" s="19"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -6579,159 +6669,159 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -6777,31 +6867,31 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B4" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B5" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>
@@ -6839,50 +6929,50 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6902,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143E21FE-BDEE-B944-B7FE-94C0CE756BDE}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6922,207 +7012,210 @@
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="3" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="3" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="3" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="3" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="3" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="3" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="3" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="3" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>672</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="3" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" s="3" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>697</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="34">
       <c r="A24" s="3" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>705</v>
-      </c>
+        <v>701</v>
+      </c>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="238">
       <c r="A25" s="3" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C25" s="19"/>
     </row>
@@ -7158,10 +7251,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F432DCD-ABFD-C042-9225-6CB311C2023F}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7178,119 +7271,135 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" t="s">
         <v>318</v>
-      </c>
-      <c r="B8" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>335</v>
-      </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="B15" t="s">
-        <v>873</v>
+        <v>867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>868</v>
+      </c>
+      <c r="B16" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>870</v>
+      </c>
+      <c r="B17" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -7324,90 +7433,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B3" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B4" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B5" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="170">
       <c r="A7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B8" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B9" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B10" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="136">
       <c r="A11" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="306">
       <c r="A12" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -7444,7 +7553,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>94</v>
@@ -7462,7 +7571,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
         <v>98</v>
@@ -7470,7 +7579,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>99</v>
@@ -7488,95 +7597,95 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B16" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B21" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -7622,7 +7731,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7684,15 +7793,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -7706,7 +7815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10CCD587-70EE-2C43-AA06-EF48DCA404E1}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7725,103 +7834,103 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B3" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B5" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B6" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B7" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B8" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="3" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B10" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B11" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B12" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B13" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
   </sheetData>
@@ -7837,16 +7946,16 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151142BC-A2CA-E24D-BC88-399550A822FB}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26">
@@ -7859,24 +7968,83 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B2" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B3" t="s">
-        <v>860</v>
+        <v>854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="B4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>880</v>
+      </c>
+      <c r="B5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>882</v>
+      </c>
+      <c r="B6" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>884</v>
+      </c>
+      <c r="B7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>886</v>
+      </c>
+      <c r="B8" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B9" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B10" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{3F6505C3-923C-6F44-B005-70128A958033}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{F87B0BDC-B7FE-7A40-BB5F-A52068584D90}"/>
+    <hyperlink ref="A9" r:id="rId3" xr:uid="{60D752E4-E064-544C-8438-25429CC2DF11}"/>
+    <hyperlink ref="A10" r:id="rId4" xr:uid="{ADF04758-3104-EA45-99CF-2F5DAF5EC94A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7940,7 +8108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4AF0D-8DA7-0F4B-A794-90B82802641C}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -7961,7 +8129,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -7970,178 +8138,178 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B4" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="323">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6">
       <c r="A14" t="s">
+        <v>262</v>
+      </c>
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B16" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B17" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B18" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B19" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B20" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B21" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -8195,16 +8363,16 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -8213,52 +8381,52 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B9" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -8278,8 +8446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E60185-02EE-8848-A02E-E90D2526078F}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8326,7 +8494,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -8334,7 +8502,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -8350,7 +8518,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8413,115 +8581,115 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="4" t="s">
-        <v>153</v>
+      <c r="A17" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" t="s">
         <v>151</v>
-      </c>
-      <c r="B19" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
         <v>146</v>
-      </c>
-      <c r="B20" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="s">
         <v>171</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119">
       <c r="A27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B29" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C29">
         <f>FACT(20)</f>
@@ -8530,71 +8698,71 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B30" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B31" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B32" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B33" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B34" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B36" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B37" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="3" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B38" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -8608,6 +8776,8 @@
     <hyperlink ref="A5" r:id="rId6" xr:uid="{4B859C59-60F2-E74E-8C7E-01CC4BD10979}"/>
     <hyperlink ref="A8" r:id="rId7" xr:uid="{7DF2C10D-8FF0-CE4E-8D4E-DFBC16612E2F}"/>
     <hyperlink ref="A38" r:id="rId8" xr:uid="{7D66466E-F9E9-8A4B-96AC-8E130BBA9A1C}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{53E5AD5C-334D-7447-83C4-E9B09CD5132B}"/>
+    <hyperlink ref="A17" r:id="rId10" xr:uid="{00D415FC-2B72-0243-B814-C4157EF0ECD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8647,7 +8817,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -8656,7 +8826,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -8665,7 +8835,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
@@ -8674,7 +8844,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>105</v>
@@ -8683,7 +8853,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
         <v>106</v>
@@ -8692,7 +8862,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
         <v>107</v>
@@ -8701,7 +8871,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s">
         <v>108</v>
@@ -8710,7 +8880,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
         <v>109</v>
@@ -8728,7 +8898,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>112</v>
@@ -8736,7 +8906,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="B13" t="s">
         <v>113</v>
@@ -8744,7 +8914,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>114</v>
@@ -8777,7 +8947,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -8785,102 +8955,102 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B32" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -8935,7 +9105,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -8943,15 +9113,15 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
         <v>226</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -8959,7 +9129,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -8978,12 +9148,12 @@
         <v>26</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -8991,15 +9161,15 @@
     </row>
     <row r="10" spans="1:3" ht="119">
       <c r="A10" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -9007,105 +9177,105 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B16" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B18" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B20" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B22" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B25" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B26" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -9188,7 +9358,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" t="s">
         <v>117</v>
@@ -9196,105 +9366,105 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
         <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
         <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="51">
       <c r="A13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B14" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B17" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9396,10 +9566,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B9" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2667EDEA-F511-AF46-AEB4-F29CFC061FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B59D9B-BDA4-DC43-AD61-3006232EE7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1320" windowWidth="38400" windowHeight="20460" firstSheet="5" activeTab="23" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19860" activeTab="5" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="935">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,54 +347,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>模拟法：只要n大于k，则s+k，n+1-k。最后输出s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算数组相邻元素差的绝对值，并判断差的极值是否在【1，n-1】之内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环除以2直到商为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2095</t>
+  </si>
+  <si>
+    <t>首先记录输入数据中的极大和极小值，然后从总和中去除这两个值，最后计算其余样本和均值的差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1427</t>
+  </si>
+  <si>
+    <t>数组反向输出，注意输入数据以0表示结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组方向输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9502</t>
+  </si>
+  <si>
+    <t>求2的幂指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/P1150</t>
-  </si>
-  <si>
-    <t>模拟法：只要n大于k，则s+k，n+1-k。最后输出s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算数组相邻元素差的绝对值，并判断差的极值是否在【1，n-1】之内</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P8711</t>
-  </si>
-  <si>
-    <t>循环除以2直到商为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2095</t>
-  </si>
-  <si>
-    <t>首先记录输入数据中的极大和极小值，然后从总和中去除这两个值，最后计算其余样本和均值的差</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1427</t>
-  </si>
-  <si>
-    <t>数组反向输出，注意输入数据以0表示结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组方向输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P9502</t>
-  </si>
-  <si>
-    <t>求2的幂指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1150</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5717</t>
-  </si>
-  <si>
     <t>判断三角形属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,9 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5719</t>
-  </si>
-  <si>
     <t>将区间中的数分成两类求平均</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,9 +618,6 @@
   <si>
     <t>数组中极大值和极小值的差</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1420</t>
   </si>
   <si>
     <t>记录输入中最长连续数值的个数</t>
@@ -731,9 +716,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P2550</t>
-  </si>
-  <si>
     <t>使用一个数组记录中奖号码，一个数组记录每组彩票中奖情况，最后输出中奖情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -753,14 +735,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P2911</t>
-  </si>
-  <si>
     <t>打表，使用数组记录每个和的个数..输出最大值的索引号。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1161</t>
   </si>
   <si>
     <t>利用数组模拟所有的灯，注意数组类型</t>
@@ -1110,14 +1086,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P2670</t>
-  </si>
-  <si>
     <t>利用二维字符数组模拟棋盘接收输入，然后判断每个非‘*’的格子周围有多少个‘*’，然后将本隔内容更新为‘*’的个数。注意讲解使用二维数组模拟棋盘的方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1563</t>
   </si>
   <si>
     <t>需要考虑4种情况：1、面朝里左转；2、面朝里右转；3、面朝外左转；4、面朝外右传。其中1、4序号减少；2、3序号增加。需要注意加减时的环绕。</t>
@@ -1211,9 +1181,6 @@
 1 1 1
 2-43-sdf-ewr0-j-9re-j0g-9e0-9as-d09jf-9asdjf0q-w-ejr0q-59jdsnf-9z-x9v0-sd9fn--q</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1065</t>
   </si>
   <si>
     <t>这是一道模拟题，主要需要考虑以下几个约束条件：
@@ -2263,12 +2230,6 @@
     <t>https://www.luogu.com.cn/problem/CF68A</t>
   </si>
   <si>
-    <t xml:space="preserve">一个数 modp 为本身，那么它一定小于 p。所以我们可以把题目理解为：
-求 ≥a ， ≤b 且 &lt;p1,p2,p3,p4 的整数一共有多少个。
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>判断字符串中相邻两个字符的组合情况，如果当前是.则不需要考虑下一个字符，如果是-则需要考虑下一个字符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2569,9 +2530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF129A</t>
-  </si>
-  <si>
     <t>统计奇偶数的个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2607,9 +2565,6 @@
   <si>
     <t>给输入字符串加上前缀，注意：原字符串中的部分符号需要特殊处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P7106</t>
   </si>
   <si>
     <t>16进制转换成10进制</t>
@@ -2887,9 +2842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3924</t>
-  </si>
-  <si>
     <t>本题的难点是如何计算哪一行输出的内容不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3037,9 +2989,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3661</t>
-  </si>
-  <si>
     <t>使用两个数组分别保存输入的奇数和偶数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3067,9 +3016,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF1017A</t>
-  </si>
-  <si>
     <t>第一组输入是John的成绩，先求出总和；然后和后续输入成绩比较；一旦有超过John总分的成绩出现，John的排名后退一位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3095,9 +3041,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF29A</t>
-  </si>
-  <si>
     <t>使用两个数组分别保存x和d，将每一组x、d和它们后面的组合比较，看是否有满足题目要求的组合。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3124,12 +3067,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc073_c</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/CF10A</t>
-  </si>
-  <si>
     <t>将两组输入之间的区间按题目描述分成三段，然后计数间隔内的功耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3221,9 +3158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2065</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/B2001</t>
   </si>
   <si>
@@ -3250,9 +3184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3735</t>
-  </si>
-  <si>
     <t>总结数列变化规律</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3263,9 +3194,6 @@
   <si>
     <t>累乘并判断结果的奇偶性和正负性</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3897</t>
   </si>
   <si>
     <t>分阶计算总和</t>
@@ -4030,6 +3958,253 @@
   </si>
   <si>
     <t>本题右边界的取值有点意思，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1784</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1219</t>
+  </si>
+  <si>
+    <t>8皇后，DFS。注意列、两个对角线占有情况如何记录：主队对角线i+j、副对角线n+i-j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1443</t>
+  </si>
+  <si>
+    <t>BFS 需要注意每一个访问到的节点的更新位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1135</t>
+  </si>
+  <si>
+    <t>BFS 搜索每一个可能达到的楼层，注意无法到达的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2895</t>
+  </si>
+  <si>
+    <t>BFS 搜索每一种可能的走法。首先根据输入将地图中每块区域最早被烧焦的区域记录下来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2911</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5015</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1605</t>
+  </si>
+  <si>
+    <t>DFS 遍历每一种可能的路径，注意经过的格子需要标注否则会出现死循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果t的k位是1，则不需要任何操作累加0；如果k位是0，则需要将该位置1，后面的位全部清零，这样保证加上的数是最小的。注意本题使用cin和cout会TLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3908</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目要求的最小值肯定是0，因此x是输入的所有数一起异或。a XOR a = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题的输出只有0 1 2这三个值，需要判断数位是否发生变化，以及是否同时发生不同方向的变化。如果只是发生一种变化则输出1，同时发生两种变化则输出2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc014_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果m的第i位是1，则将输入的第i个数累加，最后输出累加和。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换高低16bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分三种情况讨论：1、奇数、偶数。偶数又需要考虑是不是2的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc073_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1688A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题需要使用map容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9496</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF276D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题暴力枚举肯定过不了。比较l和r从最高位开始第一额不一样的位，所求的结果就是从该位开始全部为1的一个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1696A</t>
+  </si>
+  <si>
+    <t>按位或将可能使原来的数增大（甚至同时大于参与运算的数），而按位与的结果可能同时小于参与运算的两个数。因此z的值会不断的减小，或者说初始值是最大的。本题中的按位与纯粹是干扰项，结果是z和每个a按位或的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1722G</t>
+  </si>
+  <si>
+    <t>所有的数异或的结果是0.一种最简单的做法：输入前n-1个，最后一个是0和前n-1个异或和的异或，但是这样可能会有重复的结果，一种改进是将倒数第二和第三个数用很大的数替换(1&lt;&lt;22.  1&lt;&lt;23)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1787E</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1952</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1659B</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8019</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF49B</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF110A</t>
+  </si>
+  <si>
+    <t>本题翻译有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF29A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1017A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个数 modp 为本身，那么它一定小于 p。所以我们可以把题目理解为：
+求 ≥a ， ≤b 且 &lt;p1,p2,p3,p4 的整数一共有多少个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2065</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF129A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1101</t>
+  </si>
+  <si>
+    <t>没遇到一个y就沿8个不同的方向深度查找看是否是符合要求的单词，如果找到符合要求的单词则递归返回的过程中将每一个单词染色。最后根据染色的结果输出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2404</t>
+  </si>
+  <si>
+    <t>每次递归从剩余的数值中分拆出一个值，这个值不能小于前一个值，并且剩余的数值不能小于这个分拆的值，否则递归结束输出分拆结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFS.遍历每一个格子，一旦发现W将与之相连的W全部清理掉，并将计数增加1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5719</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF10A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5717</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4216,7 +4391,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4277,6 +4452,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -4321,7 +4502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4407,6 +4588,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4796,8 +4983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA01CD-1AE7-9542-B6B1-CA2C7C3DAE22}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4825,7 +5012,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -4834,7 +5021,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4843,7 +5030,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -4852,7 +5039,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -4861,7 +5048,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -4870,7 +5057,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -4888,7 +5075,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -4897,7 +5084,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -4915,7 +5102,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -4933,7 +5120,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -4951,7 +5138,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -4975,35 +5162,37 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="B22" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5011,56 +5200,56 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>122</v>
+      <c r="A25" s="3" t="s">
+        <v>931</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="B29" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="B31" t="s">
-        <v>732</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -5088,6 +5277,9 @@
     <hyperlink ref="A29" r:id="rId20" xr:uid="{88728ADE-AAEF-AF4D-9BB3-497EC6D65EB2}"/>
     <hyperlink ref="A30" r:id="rId21" xr:uid="{34867040-64F3-8749-96DD-64A84466E20D}"/>
     <hyperlink ref="A31" r:id="rId22" xr:uid="{9F182FAE-7B65-1C4F-980F-3966A989A424}"/>
+    <hyperlink ref="A20" r:id="rId23" xr:uid="{17141926-D32C-1C4E-93FD-0BCC7C5EAFA4}"/>
+    <hyperlink ref="A22" r:id="rId24" xr:uid="{D223E3B5-19CF-2B48-AD7C-97E560603FD7}"/>
+    <hyperlink ref="A25" r:id="rId25" xr:uid="{738C4B2E-37AD-974D-8C70-BC6B0ACFE4FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5118,34 +5310,34 @@
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -5180,18 +5372,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -5225,18 +5417,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -5248,10 +5440,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0151667-4496-0547-B4D1-2F823C37E5ED}">
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A151" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5271,1306 +5463,1319 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B8" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>208</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B14" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B31" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B32" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B38" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B39" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="B41" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B42" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B43" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B44" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B45" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B46" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B47" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B50" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B55" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B58" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B59" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B61" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B65" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B66" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B67" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="B68" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B69" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B77" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B78" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B79" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B80" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B81" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B82" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="B83" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B84" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B85" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B87" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B89" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B90" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B91" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B92" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B93" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B94" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B95" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B96" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="23" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B97" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B98" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B99" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B100" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="B101" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B102" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B103" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C103" s="19"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B104" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B105" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B106" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B107" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B108" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B109" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B110" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B111" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B112" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="B113" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B114" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B115" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="B117" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B118" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="B119" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B120" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="B121" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B122" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B123" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="B124" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="B125" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="B126" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B127" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B128" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B130" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B131" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="B132" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="C151" s="19"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>776</v>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>910</v>
+      </c>
+      <c r="B159" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -6669,159 +6874,159 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>731</v>
+        <v>709</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -6845,16 +7050,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCE7EFE-1487-9648-941B-06802B008ADA}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66" customWidth="1"/>
+    <col min="2" max="2" width="84.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26">
@@ -6867,31 +7072,108 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="B4" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="B5" t="s">
-        <v>781</v>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>870</v>
+      </c>
+      <c r="B7" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>872</v>
+      </c>
+      <c r="B9" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>874</v>
+      </c>
+      <c r="B10" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>876</v>
+      </c>
+      <c r="B11" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>883</v>
+      </c>
+      <c r="B12" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>924</v>
+      </c>
+      <c r="B13" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>926</v>
+      </c>
+      <c r="B14" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>928</v>
+      </c>
+      <c r="B15" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -6909,8 +7191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7594F28E-573B-064D-8709-05516E3000C3}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6929,50 +7211,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7012,210 +7299,210 @@
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" s="3" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="3" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="3" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="3" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="3" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="3" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="3" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="3" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="3" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="3" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="3" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="3" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="3" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" s="3" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="3" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="3" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="34">
       <c r="A24" s="3" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="238">
       <c r="A25" s="3" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="C25" s="19"/>
     </row>
@@ -7271,135 +7558,135 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B11" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="B15" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="B16" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="B17" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -7433,90 +7720,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="B4" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="B5" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B6" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="170">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="B8" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="B9" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="B10" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="136">
       <c r="A11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="306">
       <c r="A12" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
     </row>
   </sheetData>
@@ -7553,139 +7840,139 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>95</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="B21" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -7731,7 +8018,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -7772,15 +8059,16 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F93576-1DC9-7C47-86F8-E43F2EF4BEC3}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26">
@@ -7792,20 +8080,120 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>694</v>
+      <c r="A2" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B2" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>784</v>
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="B5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B7" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B9" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B10" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>901</v>
+      </c>
+      <c r="B11" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>903</v>
+      </c>
+      <c r="B12" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{21A866F2-D64F-E647-A122-94EFE1936D79}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{7B7A71FF-E614-4D46-861A-3E5EB9961CFB}"/>
+    <hyperlink ref="A7" r:id="rId3" xr:uid="{264FF47E-2F8D-244F-93A1-970825D92718}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{538EBFDC-8CF2-C44A-9FAC-5BFACFDA318D}"/>
+    <hyperlink ref="A2" r:id="rId5" xr:uid="{6A68976E-C0AD-484E-82AC-DB2223C48EC5}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{73513EB8-5E45-674E-AA96-35DB20897BA3}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{F89CE722-C8D6-BC4F-9E0A-167921DE2B32}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{DD24AA8F-EA51-9C4C-9A92-102C986F4616}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -7834,103 +8222,103 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="B3" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="B5" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="B6" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="B7" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="B8" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="3" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="B10" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="B11" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="B12" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="B13" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -7948,7 +8336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151142BC-A2CA-E24D-BC88-399550A822FB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -7968,74 +8356,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="B2" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="B3" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
       <c r="B4" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
       <c r="B5" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="B6" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="B8" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
       <c r="B9" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
       <c r="B10" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
     </row>
   </sheetData>
@@ -8108,8 +8496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4AF0D-8DA7-0F4B-A794-90B82802641C}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8129,7 +8517,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -8138,178 +8526,179 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
       <c r="B4" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="B6" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="323">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B16" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="B17" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B18" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="B19" t="s">
-        <v>640</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="B20" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="B21" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -8344,7 +8733,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8363,70 +8752,73 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="B6" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B7" t="s">
         <v>166</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="B8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" t="s">
-        <v>175</v>
-      </c>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>670</v>
+      <c r="A9" s="3" t="s">
+        <v>881</v>
       </c>
       <c r="B9" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -8436,6 +8828,10 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{8BC0279E-32E7-904A-8601-84EEC7B3D912}"/>
     <hyperlink ref="A5" r:id="rId3" xr:uid="{D31BBC35-CA13-2042-BBEB-22C9C8BE39A2}"/>
     <hyperlink ref="A4" r:id="rId4" xr:uid="{A1EF1DE8-86E8-C44D-A7C5-68D17F75E6D3}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{C11210D6-9375-4F48-8AF5-11AFA157172B}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{67A8D3FD-2AEB-0E4F-BDAF-A431B0E20735}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{43D72B92-5CC5-C141-A018-7525ECA1D144}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{AE7FE048-1387-DD4A-A2D6-1DED45195A0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8447,7 +8843,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8494,15 +8890,16 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -8518,7 +8915,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8558,211 +8955,216 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>145</v>
+      <c r="A20" s="3" t="s">
+        <v>923</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>252</v>
+      <c r="A25" s="3" t="s">
+        <v>919</v>
       </c>
       <c r="B25" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>254</v>
+      <c r="A26" s="3" t="s">
+        <v>932</v>
       </c>
       <c r="B26" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119">
-      <c r="A27" t="s">
-        <v>271</v>
+      <c r="A27" s="3" t="s">
+        <v>915</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>598</v>
+      <c r="A28" s="3" t="s">
+        <v>922</v>
       </c>
       <c r="B28" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>631</v>
+      <c r="A29" s="3" t="s">
+        <v>914</v>
       </c>
       <c r="B29" t="s">
-        <v>632</v>
-      </c>
-      <c r="C29">
+        <v>617</v>
+      </c>
+      <c r="C29" s="19">
         <f>FACT(20)</f>
         <v>2.43290200817664E+18</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>678</v>
+      <c r="A30" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="B30" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="B31" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>686</v>
+      <c r="A32" s="3" t="s">
+        <v>912</v>
       </c>
       <c r="B32" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>669</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="B33" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>695</v>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>933</v>
       </c>
       <c r="B34" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>729</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>921</v>
       </c>
       <c r="B36" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>733</v>
+        <v>708</v>
+      </c>
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>916</v>
       </c>
       <c r="B37" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="B38" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -8778,6 +9180,18 @@
     <hyperlink ref="A38" r:id="rId8" xr:uid="{7D66466E-F9E9-8A4B-96AC-8E130BBA9A1C}"/>
     <hyperlink ref="A16" r:id="rId9" xr:uid="{53E5AD5C-334D-7447-83C4-E9B09CD5132B}"/>
     <hyperlink ref="A17" r:id="rId10" xr:uid="{00D415FC-2B72-0243-B814-C4157EF0ECD8}"/>
+    <hyperlink ref="A32" r:id="rId11" xr:uid="{0E8E27BD-02A2-A341-9A16-951CDCACC19E}"/>
+    <hyperlink ref="A30" r:id="rId12" xr:uid="{DB8D7CC1-7940-1846-9915-259F028730CB}"/>
+    <hyperlink ref="A29" r:id="rId13" xr:uid="{3B0721B6-40B1-3A4F-8374-AAC175CDCE53}"/>
+    <hyperlink ref="A27" r:id="rId14" xr:uid="{5044AA14-B045-AA4D-A069-C4A9A94B0ACF}"/>
+    <hyperlink ref="A37" r:id="rId15" xr:uid="{4A45914A-BD50-F345-90BA-12BE8284C2F2}"/>
+    <hyperlink ref="A25" r:id="rId16" xr:uid="{7FF0BBD0-AEBE-B348-BB63-904732075097}"/>
+    <hyperlink ref="A35" r:id="rId17" xr:uid="{5FE50075-4E78-AE42-91C5-51204FEE03FB}"/>
+    <hyperlink ref="A36" r:id="rId18" xr:uid="{C5FF36E4-E859-194A-85ED-4D00C1BB630E}"/>
+    <hyperlink ref="A28" r:id="rId19" xr:uid="{DC7F0D0E-E74E-D74F-A984-9C9A3CDF1D6B}"/>
+    <hyperlink ref="A20" r:id="rId20" xr:uid="{AB184C71-6039-BF48-A30D-ABBE80FF4612}"/>
+    <hyperlink ref="A26" r:id="rId21" xr:uid="{3842D68C-C31A-8E4E-BC60-6B9F4F3189E7}"/>
+    <hyperlink ref="A34" r:id="rId22" xr:uid="{E87D99F1-70E7-0F49-981A-D9300B10AA62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8788,8 +9202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDE49E5-74A2-2542-85FA-0F5DD1837FBD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8817,7 +9231,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -8826,7 +9240,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -8835,119 +9249,120 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" t="s">
-        <v>119</v>
-      </c>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -8955,102 +9370,102 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="B32" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -9075,6 +9490,7 @@
     <hyperlink ref="A29" r:id="rId17" xr:uid="{B4C3D1FC-D9E6-D945-A577-8DB5E2B80D72}"/>
     <hyperlink ref="A3" r:id="rId18" xr:uid="{7DE8C29E-3E70-6A40-A515-609B99BFE439}"/>
     <hyperlink ref="A30" r:id="rId19" xr:uid="{BC678C75-4531-5B41-A7A1-DB903BD9BBB0}"/>
+    <hyperlink ref="A16" r:id="rId20" xr:uid="{C53162F5-D0EC-424F-9D21-D80AB2EE0B5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9083,15 +9499,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63A915-3057-CC46-9D28-73B5505B3E97}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="102.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9105,7 +9521,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -9113,15 +9529,15 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -9129,7 +9545,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -9148,12 +9564,12 @@
         <v>26</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -9161,15 +9577,15 @@
     </row>
     <row r="10" spans="1:3" ht="119">
       <c r="A10" s="6" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -9177,105 +9593,110 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="B18" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>609</v>
+      <c r="A20" s="3" t="s">
+        <v>918</v>
       </c>
       <c r="B20" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="B22" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B24" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
       <c r="B26" t="s">
-        <v>642</v>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>909</v>
       </c>
     </row>
   </sheetData>
@@ -9296,6 +9717,7 @@
     <hyperlink ref="A21" r:id="rId13" xr:uid="{5A454A86-8C7A-A34F-8C48-C294237F61D8}"/>
     <hyperlink ref="A22" r:id="rId14" xr:uid="{30C9CE01-6BC3-414A-8E8B-CBC36BED9541}"/>
     <hyperlink ref="A23" r:id="rId15" xr:uid="{DB6BF5B6-16CD-0343-869E-0991D33BBECB}"/>
+    <hyperlink ref="A20" r:id="rId16" xr:uid="{A67F46A6-C52A-7C4E-AD13-9B6AE088BD01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9306,14 +9728,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBEC56-A184-4A4B-8567-C8F06A47DCEE}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="164.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26">
@@ -9342,129 +9764,129 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="51">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="34">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>519</v>
+        <v>917</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B15" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B16" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="B17" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9534,42 +9956,42 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="B9" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B59D9B-BDA4-DC43-AD61-3006232EE7A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94FBF80-0503-8744-B2B6-A08167A7D055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19860" activeTab="5" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19860" activeTab="7" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="992">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,9 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3844</t>
-  </si>
-  <si>
     <t>每行输出n个大写字符，需要注意环绕，以及首字母递增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,9 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2058</t>
-  </si>
-  <si>
     <t>累加金银铜和总奖牌数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,9 +551,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5723</t>
-  </si>
-  <si>
     <t>筛质数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -624,9 +615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1075</t>
-  </si>
-  <si>
     <t>从1开始试每个可能的因数，直到找到最大的质因数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,18 +623,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5725</t>
-  </si>
-  <si>
     <t>需要注意输出的是两位字符，输出直角三角形时前方需要补空格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>去除两个极值之后，求平均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P4956</t>
   </si>
   <si>
     <t>每周筹的钱是固定的7x+21k，K从1取值，检测能够满足要求的x和k的组合</t>
@@ -1004,9 +986,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5736</t>
-  </si>
-  <si>
     <t>首先记录下所有的输入数据，然后依次判断每个数是否是质数，如果是就输出它。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1054,9 +1033,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1304</t>
-  </si>
-  <si>
     <t>首先筛选出n以内的所有质数，然后从3开始试着找和为n的第一对质数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1077,9 +1053,6 @@
   <si>
     <t>练习结构体定义和使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1042</t>
   </si>
   <si>
     <t>接收输入的方式比较多：可以单个字符接收，也可以按字符串接收。然后比较字符是W还是L。需要注意：如果刚好一局结束，下一句没有统计需要输出0:0</t>
@@ -1303,9 +1276,6 @@
   <si>
     <t>需要将输入的坐标按高度排序，然后依次计算每两个坐标点的距离。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1104</t>
   </si>
   <si>
     <t>本题需要一个额外的idx成员记录每个人出现的顺序，先比较生日，然后比较idx</t>
@@ -2245,9 +2215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc057_c</t>
-  </si>
-  <si>
     <t>因数分解，求因数位长</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2274,9 +2241,6 @@
   <si>
     <t>遍历字符串，找到一个A，统计前后的Q的个数，将两个数相乘就是这个A组成的QAQ的个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/CF271A</t>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/CF12A</t>
@@ -2825,9 +2789,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2617</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/B3865</t>
   </si>
   <si>
@@ -3161,9 +3122,6 @@
     <t>https://www.luogu.com.cn/problem/B2001</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3845</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/B3638</t>
   </si>
   <si>
@@ -3171,9 +3129,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3834</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/B3838</t>
   </si>
   <si>
@@ -3192,10 +3147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>累乘并判断结果的奇偶性和正负性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分阶计算总和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3221,13 +3172,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2013</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/B2010</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B2015</t>
   </si>
   <si>
     <t>先求出最小值，这个值便是套票的数量，</t>
@@ -4207,12 +4152,331 @@
     <t>https://www.luogu.com.cn/problem/P5717</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2617</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题如果使用循环法解，无法AC。需要考虑奇数乘法的性质。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc070_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF271A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断每一位均不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5725</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3844</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P4956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2058</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将拆出来的每一位排序，然后组成一个最大的数和一个最小的数。由于输入的三位数每一位都不相同，因此每次得到的结果依然是三位都不相同的数。最大和最小的数十位上肯定相同，因此每次相减之后十位上肯定是9，而个位和百位之和肯定是9，不会有0出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to_string将每个数转换成字符串，然后检测每一个字符是否增大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3750</t>
+  </si>
+  <si>
+    <t>由于本题的数据量比较小，可以采用暴力枚举的解法，检测区间内每一个数是否符合要求。
+如果数据量比较大的话，就不能暴力枚举了，要采用构造枚举的办法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_arc044_a</t>
+  </si>
+  <si>
+    <t>本题解法是模拟法。首先定义一个bool型变量p，然后依据题目定义判断输入n的性质，根据判断结果给p赋不同的值（true，false）。
+最后根据p的值选择输出的内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1217</t>
+  </si>
+  <si>
+    <t>本题的算法采用枚举，但是并不是暴力枚举，因为如果暴力枚举的话最多可能要检测1亿个数是否是回文质数。
+首先利用数论的知识，可以知道该回文质数的位数一定是奇数（1、3、5、7）。1质数可以直接输出，超过1位的质数就需要使用循环构造相应长度的回文数，然后检测该数是否是质数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3834</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因数分解的种类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/SP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛分素数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF26A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF937A</t>
+  </si>
+  <si>
+    <t>计数排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2128</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检测三位数中有多少回文质数 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc057_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解质因数,N!的阶乘非常大，因此先将阶乘中大每个数分解质因数，分解的过程中统计每个质数出现的次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2563</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题统计将一个数拆成素数和的方法。解法的核心不是判断素数和素数筛法。可以使用DFS剪枝的方法统计一个数的组合方法；也可以按照背包的方法来解决本题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2085</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛出前30000个质数，第30000个质数的值是320363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为得到最大的乘积，两个数应该最大可能的接近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2134</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8845</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题无法通过检测素数和筛查素数来解，因为进行异或计数的两个素数有可能很大。可以利用异或大性质来解本题，两个数异或大值为1，说明最后一位不同。也就是说一个是偶数，另一个是奇偶，偶质数只可能是2，因此另一个数便只能是3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计数据的种类，0不在统计之列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2138</t>
+  </si>
+  <si>
+    <t>筛选出输入范围之内所有的质数，然后检测输入区间内每个数的最大质因数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先将输入n以内的所有质数筛出，然后检测其中满足要求的素数对。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断输入的奇偶性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先筛选中n以内的素数，然后统计一共有多少素数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从筛出的质数中选出n*n个，排成回形，然后选出x行第y个输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题需要注意的是：x，y的大小关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1579</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将一个数拆成3个质数和，注意需要满足前两个质数要尽量的小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS 构造满足要求的质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS构造满足要求的质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8054</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题不需要也不可能通过分解质因数来完成，只需要利用这么一个性质：每一个比3大的质数都对2的平方大。假设比3大的奇数分解的质因数的个数为n，2的（n+1）次方必然小于这个奇数。也就是一个辗转除以2直到无法整除，这时检测剩下的数是否大于3，如果大于3则输出1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>唯一分解定理。一个数的质因数分解是唯一的。从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始辗转除每一个可以整除的数，每次遇到的一定是一个质数。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3383</t>
+  </si>
+  <si>
+    <t>100000000这个数量级是可以使用埃氏筛法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打表法，首先计数出所有的幸运数并将它们填入表中，然后将每两个幸运数之间填充较大的那个幸运数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从2开始，首先检测当前的数是否是质因数，如果不是则检测下一个数。对每个质因数，辗转相除并统计整除的次数，如果整除的次数是奇数，则在结果中累乘上当前这个质数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4390,6 +4654,28 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -4502,7 +4788,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4594,6 +4880,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4981,10 +5276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AA01CD-1AE7-9542-B6B1-CA2C7C3DAE22}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5012,7 +5307,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -5021,7 +5316,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -5030,7 +5325,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -5039,7 +5334,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -5048,7 +5343,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -5057,7 +5352,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -5075,7 +5370,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -5084,7 +5379,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -5102,7 +5397,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -5120,7 +5415,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
@@ -5138,61 +5433,61 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>930</v>
+        <v>912</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5200,57 +5495,49 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>931</v>
+        <v>913</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
       <c r="B29" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B31" t="s">
-        <v>710</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5276,10 +5563,9 @@
     <hyperlink ref="A27" r:id="rId19" xr:uid="{15F69765-8937-FC40-92AB-DF13041445A3}"/>
     <hyperlink ref="A29" r:id="rId20" xr:uid="{88728ADE-AAEF-AF4D-9BB3-497EC6D65EB2}"/>
     <hyperlink ref="A30" r:id="rId21" xr:uid="{34867040-64F3-8749-96DD-64A84466E20D}"/>
-    <hyperlink ref="A31" r:id="rId22" xr:uid="{9F182FAE-7B65-1C4F-980F-3966A989A424}"/>
-    <hyperlink ref="A20" r:id="rId23" xr:uid="{17141926-D32C-1C4E-93FD-0BCC7C5EAFA4}"/>
-    <hyperlink ref="A22" r:id="rId24" xr:uid="{D223E3B5-19CF-2B48-AD7C-97E560603FD7}"/>
-    <hyperlink ref="A25" r:id="rId25" xr:uid="{738C4B2E-37AD-974D-8C70-BC6B0ACFE4FD}"/>
+    <hyperlink ref="A20" r:id="rId22" xr:uid="{17141926-D32C-1C4E-93FD-0BCC7C5EAFA4}"/>
+    <hyperlink ref="A22" r:id="rId23" xr:uid="{D223E3B5-19CF-2B48-AD7C-97E560603FD7}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{738C4B2E-37AD-974D-8C70-BC6B0ACFE4FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5310,34 +5596,34 @@
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -5372,18 +5658,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -5417,18 +5703,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -5442,8 +5728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0151667-4496-0547-B4D1-2F823C37E5ED}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView topLeftCell="A33" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5463,1319 +5749,1321 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="20" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>774</v>
+        <v>756</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C26" s="19"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B31" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B32" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B34" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="B41" t="s">
-        <v>384</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B44" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B45" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B46" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B51" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B57" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C58" s="8"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="B60" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B61" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C61" s="8"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B62" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B63" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B65" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B66" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B67" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="B68" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B71" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B72" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B73" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="3" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B78" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B79" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B80" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="B81" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B82" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B83" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="C83" s="19"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B84" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C84" s="19"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B85" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C85" s="19"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B86" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C86" s="19"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B87" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B88" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B89" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="C89" s="19"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B90" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C90" s="19"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="C91" s="19"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B92" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B93" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C93" s="19"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B94" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C94" s="19"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B95" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C95" s="19"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B96" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="23" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B97" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C97" s="19"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B98" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C98" s="19"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B99" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C99" s="19"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B100" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C100" s="19"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B101" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="C101" s="19"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B102" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C102" s="19"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B103" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C103" s="19"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B104" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B105" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="B106" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B107" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="B108" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B109" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="B110" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="B111" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="B112" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B113" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B114" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B115" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="B117" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B118" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="B119" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B120" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>780</v>
+        <v>762</v>
       </c>
       <c r="B121" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B122" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="B123" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>776</v>
+        <v>758</v>
       </c>
       <c r="B124" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>777</v>
+        <v>759</v>
       </c>
       <c r="B125" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>778</v>
+        <v>760</v>
       </c>
       <c r="B126" t="s">
-        <v>779</v>
+        <v>761</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B127" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B128" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B130" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B131" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>775</v>
+        <v>757</v>
       </c>
       <c r="B132" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="C151" s="19"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>750</v>
+        <v>732</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>751</v>
+        <v>733</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>753</v>
+        <v>735</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>910</v>
+        <v>892</v>
       </c>
       <c r="B159" t="s">
-        <v>911</v>
+        <v>893</v>
       </c>
     </row>
   </sheetData>
@@ -6874,159 +7162,159 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>712</v>
+        <v>696</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>713</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>715</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -7050,10 +7338,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCE7EFE-1487-9648-941B-06802B008ADA}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7072,108 +7360,124 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="B4" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>759</v>
+        <v>741</v>
       </c>
       <c r="B5" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="B7" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
       <c r="B9" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="B10" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="B11" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="B12" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>924</v>
+        <v>906</v>
       </c>
       <c r="B13" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>926</v>
+        <v>908</v>
       </c>
       <c r="B14" t="s">
-        <v>927</v>
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>928</v>
+        <v>910</v>
       </c>
       <c r="B15" t="s">
-        <v>929</v>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B16" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B17" t="s">
+        <v>982</v>
       </c>
     </row>
   </sheetData>
@@ -7181,6 +7485,8 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{73D39471-691E-194F-A5AD-D90C0F355797}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{0CE80475-2FBE-9E46-9C49-FD0338C5DFE8}"/>
+    <hyperlink ref="A16" r:id="rId3" xr:uid="{42A3CB7C-D621-034C-8929-D06E7B7126E8}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{6F29246F-39E6-0E43-8E9D-B9AAEC6B91A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7211,55 +7517,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>906</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7277,10 +7583,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143E21FE-BDEE-B944-B7FE-94C0CE756BDE}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7299,212 +7605,228 @@
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" s="3" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="3" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="3" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="3" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="3" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="3" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="3" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="3" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
-      <c r="A12" t="s">
-        <v>288</v>
+      <c r="A12" s="3" t="s">
+        <v>925</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="3" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="3" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="3" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="3" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="3" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="3" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" s="3" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="3" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="3" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="34">
       <c r="A24" s="3" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="238">
       <c r="A25" s="3" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
       <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:3" ht="17">
+      <c r="A26" t="s">
+        <v>945</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17">
+      <c r="A27" t="s">
+        <v>945</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>966</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7530,6 +7852,7 @@
     <hyperlink ref="A10" r:id="rId19" xr:uid="{FBE26428-7309-8F49-98DE-F05804DCFAB5}"/>
     <hyperlink ref="A16" r:id="rId20" xr:uid="{D7C257F8-89A8-7C4E-BC95-59E2782A1B7D}"/>
     <hyperlink ref="A18" r:id="rId21" xr:uid="{607DB015-1250-114C-85AC-FDA66521F727}"/>
+    <hyperlink ref="A12" r:id="rId22" xr:uid="{E0C64655-BDA0-B44A-AFCC-017603635A7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7558,135 +7881,135 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C10" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="B15" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="B16" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="B17" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -7700,7 +8023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF85487-6C8C-7148-99CF-80B5EEC63389}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -7720,90 +8043,90 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="B3" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
       <c r="B4" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="B5" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>760</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="170">
       <c r="A7" t="s">
-        <v>762</v>
+        <v>744</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>763</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>764</v>
+        <v>746</v>
       </c>
       <c r="B8" t="s">
-        <v>765</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="B9" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>768</v>
+        <v>750</v>
       </c>
       <c r="B10" t="s">
-        <v>769</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="136">
       <c r="A11" t="s">
-        <v>770</v>
+        <v>752</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="306">
       <c r="A12" t="s">
-        <v>772</v>
+        <v>754</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>773</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -7821,7 +8144,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7840,139 +8163,143 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>612</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>697</v>
+      <c r="A12" s="3" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>699</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>716</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s">
-        <v>717</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>718</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>720</v>
+      <c r="A19" s="3" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>697</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="B21" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -7989,6 +8316,10 @@
     <hyperlink ref="A5" r:id="rId8" xr:uid="{74D2DA0A-0E2C-D149-A860-A460F1AA9F62}"/>
     <hyperlink ref="A13" r:id="rId9" xr:uid="{AD5D5584-286D-B749-B998-5CBD12F0DDE2}"/>
     <hyperlink ref="A21" r:id="rId10" xr:uid="{FFBA4F6D-8049-7847-88D6-421322CAB4A5}"/>
+    <hyperlink ref="A10" r:id="rId11" xr:uid="{1087F17D-FF0A-A54C-8404-B9472056E4FE}"/>
+    <hyperlink ref="A17" r:id="rId12" xr:uid="{D78FD4A0-82D7-874F-B96E-12A443525EAF}"/>
+    <hyperlink ref="A12" r:id="rId13" xr:uid="{E67881AE-A809-9C43-BF48-D30FDFC8F1CB}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{A7802F30-6ECE-864F-9969-F20DEE3CEF20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -8018,7 +8349,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -8081,105 +8412,105 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>895</v>
+        <v>877</v>
       </c>
       <c r="B2" t="s">
-        <v>897</v>
+        <v>879</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="12" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B3" t="s">
-        <v>761</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="B4" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>898</v>
+        <v>880</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
       <c r="B7" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
       <c r="B8" t="s">
-        <v>893</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="B9" t="s">
-        <v>894</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>899</v>
+        <v>881</v>
       </c>
       <c r="B10" t="s">
-        <v>900</v>
+        <v>882</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>901</v>
+        <v>883</v>
       </c>
       <c r="B11" t="s">
-        <v>902</v>
+        <v>884</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
       <c r="B12" t="s">
-        <v>904</v>
+        <v>886</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>905</v>
+        <v>887</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>907</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>908</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -8222,103 +8553,103 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="B3" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="B5" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="B6" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="B7" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="B8" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="3" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="B10" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="B11" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="B12" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="B13" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
@@ -8356,74 +8687,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="B2" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="B3" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="B4" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="B5" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
       <c r="B6" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
       <c r="B7" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>863</v>
+        <v>845</v>
       </c>
       <c r="B8" t="s">
-        <v>864</v>
+        <v>846</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
       <c r="B9" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
       <c r="B10" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
   </sheetData>
@@ -8449,6 +8780,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8462,6 +8794,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8475,6 +8808,7 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -8517,7 +8851,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -8526,179 +8860,179 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B4" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="323">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.6">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B16" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B17" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B18" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B20" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B21" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -8733,7 +9067,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8752,74 +9086,75 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="C9" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8843,7 +9178,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8890,7 +9225,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
@@ -8899,197 +9234,205 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
       </c>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>928</v>
+      </c>
+      <c r="B10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>923</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>923</v>
+        <v>905</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>148</v>
+      <c r="A21" s="3" t="s">
+        <v>927</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>242</v>
+      <c r="A24" s="3" t="s">
+        <v>924</v>
       </c>
       <c r="B24" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="B25" t="s">
-        <v>244</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>932</v>
+        <v>914</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="119">
       <c r="A27" s="3" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>922</v>
+        <v>904</v>
       </c>
       <c r="B28" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="B29" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="C29" s="19">
         <f>FACT(20)</f>
@@ -9098,74 +9441,76 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="B30" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="B31" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>912</v>
+        <v>894</v>
       </c>
       <c r="B32" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="B33" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
       <c r="B34" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="B36" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="C36" s="28"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="B37" t="s">
-        <v>711</v>
-      </c>
+        <v>695</v>
+      </c>
+      <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
       <c r="B38" t="s">
-        <v>741</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="C38" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9186,12 +9531,17 @@
     <hyperlink ref="A27" r:id="rId14" xr:uid="{5044AA14-B045-AA4D-A069-C4A9A94B0ACF}"/>
     <hyperlink ref="A37" r:id="rId15" xr:uid="{4A45914A-BD50-F345-90BA-12BE8284C2F2}"/>
     <hyperlink ref="A25" r:id="rId16" xr:uid="{7FF0BBD0-AEBE-B348-BB63-904732075097}"/>
-    <hyperlink ref="A35" r:id="rId17" xr:uid="{5FE50075-4E78-AE42-91C5-51204FEE03FB}"/>
-    <hyperlink ref="A36" r:id="rId18" xr:uid="{C5FF36E4-E859-194A-85ED-4D00C1BB630E}"/>
-    <hyperlink ref="A28" r:id="rId19" xr:uid="{DC7F0D0E-E74E-D74F-A984-9C9A3CDF1D6B}"/>
-    <hyperlink ref="A20" r:id="rId20" xr:uid="{AB184C71-6039-BF48-A30D-ABBE80FF4612}"/>
-    <hyperlink ref="A26" r:id="rId21" xr:uid="{3842D68C-C31A-8E4E-BC60-6B9F4F3189E7}"/>
-    <hyperlink ref="A34" r:id="rId22" xr:uid="{E87D99F1-70E7-0F49-981A-D9300B10AA62}"/>
+    <hyperlink ref="A36" r:id="rId17" xr:uid="{C5FF36E4-E859-194A-85ED-4D00C1BB630E}"/>
+    <hyperlink ref="A28" r:id="rId18" xr:uid="{DC7F0D0E-E74E-D74F-A984-9C9A3CDF1D6B}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{AB184C71-6039-BF48-A30D-ABBE80FF4612}"/>
+    <hyperlink ref="A26" r:id="rId20" xr:uid="{3842D68C-C31A-8E4E-BC60-6B9F4F3189E7}"/>
+    <hyperlink ref="A34" r:id="rId21" xr:uid="{E87D99F1-70E7-0F49-981A-D9300B10AA62}"/>
+    <hyperlink ref="A19" r:id="rId22" xr:uid="{53221206-6BFC-2449-89EB-147981462660}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{A281755B-9ABB-F441-A67B-9F916D6BC541}"/>
+    <hyperlink ref="A7" r:id="rId24" xr:uid="{851EF6FB-E208-D84D-BECC-E572AFA1172C}"/>
+    <hyperlink ref="A21" r:id="rId25" xr:uid="{E088C17B-EEF8-0B44-9B9A-E1FA354F79AD}"/>
+    <hyperlink ref="A10" r:id="rId26" xr:uid="{41067460-3B22-FC46-87BB-8A89236802C8}"/>
+    <hyperlink ref="A35" r:id="rId27" xr:uid="{5FE50075-4E78-AE42-91C5-51204FEE03FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9202,8 +9552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDE49E5-74A2-2542-85FA-0F5DD1837FBD}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9231,7 +9581,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -9240,7 +9590,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -9249,120 +9599,120 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>934</v>
+        <v>916</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -9370,102 +9720,102 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
       <c r="B32" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -9499,10 +9849,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A63A915-3057-CC46-9D28-73B5505B3E97}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9521,7 +9871,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -9529,15 +9879,15 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -9545,7 +9895,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -9564,12 +9914,12 @@
         <v>26</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
@@ -9577,127 +9927,150 @@
     </row>
     <row r="10" spans="1:3" ht="119">
       <c r="A10" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B15" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>431</v>
+      <c r="A16" s="3" t="s">
+        <v>920</v>
       </c>
       <c r="B16" t="s">
-        <v>432</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>521</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B17" t="s">
+        <v>922</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="B18" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
       <c r="B20" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>822</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="B21" t="s">
+        <v>929</v>
+      </c>
+      <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="B22" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>825</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="B23" t="s">
+        <v>930</v>
+      </c>
+      <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B24" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="B26" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>909</v>
-      </c>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B28" t="s">
+        <v>919</v>
+      </c>
+      <c r="C28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9718,6 +10091,9 @@
     <hyperlink ref="A22" r:id="rId14" xr:uid="{30C9CE01-6BC3-414A-8E8B-CBC36BED9541}"/>
     <hyperlink ref="A23" r:id="rId15" xr:uid="{DB6BF5B6-16CD-0343-869E-0991D33BBECB}"/>
     <hyperlink ref="A20" r:id="rId16" xr:uid="{A67F46A6-C52A-7C4E-AD13-9B6AE088BD01}"/>
+    <hyperlink ref="A28" r:id="rId17" xr:uid="{9F182FAE-7B65-1C4F-980F-3966A989A424}"/>
+    <hyperlink ref="A16" r:id="rId18" xr:uid="{84C2F984-5D18-E947-81F8-90C092809291}"/>
+    <hyperlink ref="A17" r:id="rId19" xr:uid="{7979D264-280C-F14B-AF06-D7F3BF8EE9C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9726,10 +10102,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBEC56-A184-4A4B-8567-C8F06A47DCEE}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9738,7 +10114,7 @@
     <col min="2" max="2" width="164.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26">
+    <row r="1" spans="1:3" ht="26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9746,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20">
+    <row r="2" spans="1:3" ht="20">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -9754,7 +10130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
@@ -9762,137 +10138,357 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>125</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>953</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>123</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>221</v>
+        <v>139</v>
+      </c>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>955</v>
       </c>
       <c r="B10" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>235</v>
+        <v>215</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>940</v>
       </c>
       <c r="B11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>228</v>
+      </c>
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="34">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>512</v>
+        <v>899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>956</v>
       </c>
       <c r="B14" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="B16" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>701</v>
+      <c r="A19" s="3" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>704</v>
+      <c r="A20" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="B20" t="s">
+        <v>938</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="34">
+      <c r="A21" s="31" t="s">
+        <v>931</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="34">
+      <c r="A22" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="34">
+      <c r="A23" s="31" t="s">
+        <v>935</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="17">
+      <c r="A24" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>957</v>
+      </c>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="17">
+      <c r="A25" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="26" spans="1:8">
+      <c r="A26" s="3" t="s">
+        <v>944</v>
+      </c>
       <c r="H26">
         <f>26*8</f>
         <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="B29" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B30" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B31" t="s">
+        <v>961</v>
+      </c>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="B33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>967</v>
+      </c>
+      <c r="B34" t="s">
+        <v>968</v>
+      </c>
+      <c r="C34" s="19"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B35" t="s">
+        <v>970</v>
+      </c>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B36" t="s">
+        <v>971</v>
+      </c>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B37" t="s">
+        <v>972</v>
+      </c>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B38" t="s">
+        <v>973</v>
+      </c>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B39" t="s">
+        <v>975</v>
+      </c>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B40" t="s">
+        <v>979</v>
+      </c>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B41" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B42" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21">
+      <c r="A43" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>986</v>
+      </c>
+      <c r="B44" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="B45" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B46" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -9902,6 +10498,37 @@
     <hyperlink ref="A5" r:id="rId2" xr:uid="{1D637122-F70F-7141-B128-70F0B3584147}"/>
     <hyperlink ref="A8" r:id="rId3" xr:uid="{6B521759-0B15-CF44-8F0D-CB111DF11959}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{986C4E47-717C-014D-8230-DACD09767CF1}"/>
+    <hyperlink ref="A21" r:id="rId5" xr:uid="{3795A34E-664E-0342-BCE2-3034212B144B}"/>
+    <hyperlink ref="A22" r:id="rId6" xr:uid="{3B3566C1-A99A-8945-AECB-1FC371C2703B}"/>
+    <hyperlink ref="A23" r:id="rId7" xr:uid="{272828CD-9152-6D49-A8CF-908567BED8BC}"/>
+    <hyperlink ref="A20" r:id="rId8" xr:uid="{852B44E2-0AF4-7340-842F-2DABC0802BAF}"/>
+    <hyperlink ref="A19" r:id="rId9" xr:uid="{1991BC63-EAD1-C74D-A47F-8426E2BF3B3A}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{1B623ED8-58F8-0C4B-B89E-E79E7C9AFD5D}"/>
+    <hyperlink ref="A24" r:id="rId11" xr:uid="{1D2FBBB9-14A6-2246-B8A2-9C20AE5DB2AD}"/>
+    <hyperlink ref="A25" r:id="rId12" xr:uid="{B62330A4-FF3C-CF47-9976-AE072BA09DB7}"/>
+    <hyperlink ref="A26" r:id="rId13" xr:uid="{48161DCD-9EC8-1748-9C32-0890EC646E6C}"/>
+    <hyperlink ref="A27" r:id="rId14" xr:uid="{E2B06C99-B19B-E94C-9633-AA0E01C54EBC}"/>
+    <hyperlink ref="A28" r:id="rId15" xr:uid="{A15DFB22-67A3-564E-8922-B6741BF28B4E}"/>
+    <hyperlink ref="A29" r:id="rId16" xr:uid="{3CF3BABB-517C-2341-8419-4B7B70A7CD90}"/>
+    <hyperlink ref="A7" r:id="rId17" xr:uid="{681F10E1-4231-7E4B-A5E4-042382D74918}"/>
+    <hyperlink ref="A9" r:id="rId18" xr:uid="{F9282CB0-FD66-9348-8A8C-F6B656258499}"/>
+    <hyperlink ref="A10" r:id="rId19" xr:uid="{A8F2A3A0-03F9-0D42-A5B1-3370FC6A3046}"/>
+    <hyperlink ref="A14" r:id="rId20" xr:uid="{37C40B39-C733-0A43-BD35-3BA568F4C304}"/>
+    <hyperlink ref="A30" r:id="rId21" xr:uid="{E641D5D9-8DF0-304C-A98E-B5A505EDC19A}"/>
+    <hyperlink ref="A31" r:id="rId22" xr:uid="{3DC21297-FC46-8341-887B-EC0632AE9742}"/>
+    <hyperlink ref="A32" r:id="rId23" xr:uid="{5B8E2CF7-B83E-BE4C-8449-CC430126DB7F}"/>
+    <hyperlink ref="A33" r:id="rId24" xr:uid="{2DB45C9C-218D-444D-91F8-69B655786A56}"/>
+    <hyperlink ref="A35" r:id="rId25" xr:uid="{A08791C9-FCDF-6E42-B414-FA1F84D16A20}"/>
+    <hyperlink ref="A39" r:id="rId26" xr:uid="{5D89CD30-5AB1-9B42-AA4F-F22752EFB14A}"/>
+    <hyperlink ref="A37" r:id="rId27" xr:uid="{4FB60426-8B75-5741-B719-EE92898CBE55}"/>
+    <hyperlink ref="A38" r:id="rId28" xr:uid="{B75A6E48-8E9E-4C40-85CA-AABD5DFD5AAF}"/>
+    <hyperlink ref="A36" r:id="rId29" xr:uid="{8A4747C8-6D93-2A4E-A1ED-599F8FF7F1D6}"/>
+    <hyperlink ref="A40" r:id="rId30" xr:uid="{ADC15D6E-9AC1-1143-86C3-0386DE9CBF63}"/>
+    <hyperlink ref="A41" r:id="rId31" xr:uid="{73F9466E-DFD8-4144-8B17-4EA15D77EAB7}"/>
+    <hyperlink ref="A42" r:id="rId32" xr:uid="{97719B5B-ED9E-3540-A1EB-FCDC5D55826E}"/>
+    <hyperlink ref="A43" r:id="rId33" xr:uid="{BC93E026-824F-D54E-B6A3-7368D98C95D4}"/>
+    <hyperlink ref="A45" r:id="rId34" xr:uid="{73C5F154-2D22-8B42-93D1-D0EF3E4E9411}"/>
+    <hyperlink ref="A46" r:id="rId35" xr:uid="{18A96CAD-E96C-AA48-A1C2-DB92CC545D60}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9956,42 +10583,42 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="B9" t="s">
-        <v>755</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94FBF80-0503-8744-B2B6-A08167A7D055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28938FB9-4AC9-4B4F-882F-8D0D290935A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19860" activeTab="7" xr2:uid="{C787D1D4-0789-E44D-AA91-0A55E8051BB6}"/>
   </bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="1028">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2255,9 +2255,6 @@
   <si>
     <t>使用一个表记录目前钥匙的情况，每遇到一扇门就检测手中是否有钥匙</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc086_b</t>
   </si>
   <si>
     <t>将两个数拼接，然后进行因数分解。先转成字符串然后转成整数</t>
@@ -3006,9 +3003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF914A</t>
-  </si>
-  <si>
     <t>检测完全平方数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3030,9 +3024,6 @@
   <si>
     <t>将两组输入之间的区间按题目描述分成三段，然后计数间隔内的功耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/CF787A</t>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/B3741</t>
@@ -4419,10 +4410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本题不需要也不可能通过分解质因数来完成，只需要利用这么一个性质：每一个比3大的质数都对2的平方大。假设比3大的奇数分解的质因数的个数为n，2的（n+1）次方必然小于这个奇数。也就是一个辗转除以2直到无法整除，这时检测剩下的数是否大于3，如果大于3则输出1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>唯一分解定理。一个数的质因数分解是唯一的。从</t>
     </r>
@@ -4449,26 +4436,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>100000000这个数量级是可以使用埃氏筛法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3929</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打表法，首先计数出所有的幸运数并将它们填入表中，然后将每两个幸运数之间填充较大的那个幸运数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8754</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从2开始，首先检测当前的数是否是质因数，如果不是则检测下一个数。对每个质因数，辗转相除并统计整除的次数，如果整除的次数是奇数，则在结果中累乘上当前这个质数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1162</t>
+  </si>
+  <si>
+    <t>本题如果通过DFS检测一个点是否被包围将会TLE。反过来处理，将包围圈外围的点全部填色（使用不同的数值填充），然后检验哪些点是没有被染色。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1825</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS 找到的第一额方案就是最近的方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc086_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF914A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF787A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.luogu.com.cn/problem/P3383</t>
-  </si>
-  <si>
-    <t>100000000这个数量级是可以使用埃氏筛法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/B3929</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打表法，首先计数出所有的幸运数并将它们填入表中，然后将每两个幸运数之间填充较大的那个幸运数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P8754</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从2开始，首先检测当前的数是否是质因数，如果不是则检测下一个数。对每个质因数，辗转相除并统计整除的次数，如果整除的次数是奇数，则在结果中累乘上当前这个质数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将输入的每一个数分解质因数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本题不需要也不可能通过分解质因数来完成，只需要利用这么一个性质：每一个比3大的质数都比2的平方大。假设比3大的奇数分解的质因数的个数为n，2的（n+1）次方必然小于这个奇数。也就是一个辗转除以2直到无法整除，这时检测剩下的数是否大于3，如果大于3则输出1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7071</t>
+  </si>
+  <si>
+    <t>如果是奇数直接输出-1，对于偶数从第二位开始依次检测该位是否为1，如果是则记下该位的位值，然后降序排序后输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出所有因数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于知道是两个质数的乘积，因此从2开始遍历即可，第一可以除尽的数就是较小的质数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3871</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解质因数，统计因数的个数，根据个数的多少选择每个质因数之后应该输出什么内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3957</t>
+  </si>
+  <si>
+    <t>检测数组中每个元素和它后面的元素之和是否满足要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3736</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个数的gcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF1629B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于2的倍数最多，因此最优的办法是将所有的奇数转换成偶数，计算所需转换的最小的次数，看看提供的操作次数是否满足要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意可能不存在满足输入的一对数。首先检测P和Q的最大公约数是否是P。然后便利P的倍数和Q的分数，看两者的最大公约数是否是P。满足要求的一对数分别是P的倍数，Q的约数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3634</t>
+  </si>
+  <si>
+    <t>求两个数的最大公约数和最小公倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/CF1617B </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需找出一组满足要求的组合即可。首先从1开始搜索c，接着是b，b必须是c的倍数，a=n-c-b，检测a和b的gcd是否等于c。如果等于则输出a、b、c。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用两个性质：
+1、两个数的GCD也是这两个数之差的GCD；
+2、如果两个数的GCD是一个奇数，则说明这两个数中至少有一个是奇数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P10183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF13A</t>
+  </si>
+  <si>
+    <t>本题有两个知识点：
+1、进制转换；
+2、GCD
+先进行进制转换，转换过程中将每一位上的数字累加；然后求该累加和与n-2的GCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8682</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等差数列中的增量k是各项差的最大公约数，利用这个性质求得k，然后用最大值减去最小值除以看，再加1便能得到结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分子分母做通分。如果输入都是1的话则直接输出1/1。分母是6，分子是7减去y，w中最大的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这k个数其实就是：x*1,x*2......x*k</t>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1372</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5476,7 +5623,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -5500,7 +5647,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B25" t="s">
         <v>117</v>
@@ -5526,16 +5673,16 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B29" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C30" s="8"/>
     </row>
@@ -5620,10 +5767,10 @@
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -5666,10 +5813,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" t="s">
         <v>577</v>
-      </c>
-      <c r="B3" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -5783,7 +5930,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B6" t="s">
         <v>173</v>
@@ -6085,7 +6232,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B41" t="s">
         <v>374</v>
@@ -6313,7 +6460,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B68" t="s">
         <v>432</v>
@@ -6642,428 +6789,428 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>515</v>
+      </c>
+      <c r="B107" t="s">
         <v>516</v>
-      </c>
-      <c r="B107" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
+        <v>517</v>
+      </c>
+      <c r="B108" t="s">
         <v>518</v>
-      </c>
-      <c r="B108" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>519</v>
+      </c>
+      <c r="B109" t="s">
         <v>520</v>
-      </c>
-      <c r="B109" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>521</v>
+      </c>
+      <c r="B110" t="s">
         <v>522</v>
-      </c>
-      <c r="B110" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>525</v>
+      </c>
+      <c r="B111" t="s">
         <v>526</v>
-      </c>
-      <c r="B111" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>527</v>
+      </c>
+      <c r="B112" t="s">
         <v>528</v>
-      </c>
-      <c r="B112" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>529</v>
+      </c>
+      <c r="B113" t="s">
         <v>530</v>
-      </c>
-      <c r="B113" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>531</v>
+      </c>
+      <c r="B114" t="s">
         <v>532</v>
-      </c>
-      <c r="B114" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
+        <v>533</v>
+      </c>
+      <c r="B115" t="s">
         <v>534</v>
-      </c>
-      <c r="B115" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>535</v>
+      </c>
+      <c r="B116" s="27" t="s">
         <v>536</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>537</v>
       </c>
       <c r="C116" s="19"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>537</v>
+      </c>
+      <c r="B117" t="s">
         <v>538</v>
-      </c>
-      <c r="B117" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>539</v>
+      </c>
+      <c r="B118" t="s">
         <v>540</v>
-      </c>
-      <c r="B118" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B119" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>542</v>
+      </c>
+      <c r="B120" t="s">
         <v>543</v>
-      </c>
-      <c r="B120" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B121" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>545</v>
+      </c>
+      <c r="B122" t="s">
         <v>546</v>
-      </c>
-      <c r="B122" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B123" t="s">
         <v>548</v>
-      </c>
-      <c r="B123" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B124" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C124" s="19"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="3" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B125" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B126" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B127" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>553</v>
+      </c>
+      <c r="B128" t="s">
         <v>554</v>
-      </c>
-      <c r="B128" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>555</v>
+      </c>
+      <c r="B129" s="24" t="s">
         <v>556</v>
-      </c>
-      <c r="B129" s="24" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>557</v>
+      </c>
+      <c r="B130" t="s">
         <v>558</v>
-      </c>
-      <c r="B130" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B131" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B132" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>563</v>
+      </c>
+      <c r="B133" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>565</v>
+      </c>
+      <c r="B134" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>567</v>
+      </c>
+      <c r="B135" s="4" t="s">
         <v>568</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>571</v>
+      </c>
+      <c r="B138" s="4" t="s">
         <v>572</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>574</v>
+      </c>
+      <c r="B139" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="3" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C142" s="19"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
+        <v>580</v>
+      </c>
+      <c r="B143" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C144" s="19"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>584</v>
+      </c>
+      <c r="B145" s="4" t="s">
         <v>585</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
+        <v>586</v>
+      </c>
+      <c r="B146" s="5" t="s">
         <v>587</v>
-      </c>
-      <c r="B146" s="5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>588</v>
+      </c>
+      <c r="B147" s="4" t="s">
         <v>589</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>590</v>
+      </c>
+      <c r="B148" s="4" t="s">
         <v>591</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>593</v>
+      </c>
+      <c r="B150" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C151" s="19"/>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>599</v>
+      </c>
+      <c r="B152" s="4" t="s">
         <v>600</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B159" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -7170,7 +7317,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B3" t="s">
         <v>216</v>
@@ -7221,7 +7368,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>227</v>
@@ -7237,7 +7384,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>233</v>
@@ -7246,75 +7393,75 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -7338,10 +7485,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCE7EFE-1487-9648-941B-06802B008ADA}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7373,31 +7520,31 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B4" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B7" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7405,79 +7552,95 @@
         <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B9" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B11" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B12" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="B13" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B14" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B15" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B16" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B17" t="s">
-        <v>982</v>
+        <v>979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>987</v>
+      </c>
+      <c r="B18" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B19" t="s">
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -7487,6 +7650,7 @@
     <hyperlink ref="A5" r:id="rId2" xr:uid="{0CE80475-2FBE-9E46-9C49-FD0338C5DFE8}"/>
     <hyperlink ref="A16" r:id="rId3" xr:uid="{42A3CB7C-D621-034C-8929-D06E7B7126E8}"/>
     <hyperlink ref="A17" r:id="rId4" xr:uid="{6F29246F-39E6-0E43-8E9D-B9AAEC6B91A0}"/>
+    <hyperlink ref="A19" r:id="rId5" xr:uid="{E4B15F95-E358-EE4C-B497-7EFFC3953019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -7565,7 +7729,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -7605,7 +7769,7 @@
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>259</v>
@@ -7614,7 +7778,7 @@
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>260</v>
@@ -7631,7 +7795,7 @@
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="3" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>263</v>
@@ -7640,7 +7804,7 @@
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="3" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>264</v>
@@ -7649,7 +7813,7 @@
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="3" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>265</v>
@@ -7657,7 +7821,7 @@
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>274</v>
@@ -7666,7 +7830,7 @@
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>275</v>
@@ -7675,7 +7839,7 @@
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="3" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B10" s="15" t="s">
         <v>276</v>
@@ -7692,7 +7856,7 @@
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>279</v>
@@ -7703,129 +7867,129 @@
         <v>357</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="3" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" s="3" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
+        <v>653</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>654</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="34">
       <c r="A24" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="238">
       <c r="A25" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:3" ht="17">
       <c r="A26" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17">
       <c r="A27" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -7982,34 +8146,34 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B15" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B17" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
   </sheetData>
@@ -8051,26 +8215,26 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B4" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8078,55 +8242,55 @@
         <v>287</v>
       </c>
       <c r="B6" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="170">
       <c r="A7" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B8" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B9" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B10" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="136">
       <c r="A11" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="306">
       <c r="A12" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -8234,72 +8398,72 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B16" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C21" s="19"/>
     </row>
@@ -8412,10 +8576,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B2" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8423,94 +8587,94 @@
         <v>287</v>
       </c>
       <c r="B3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B4" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B7" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B8" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="B9" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B10" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B11" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="B12" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -8553,103 +8717,103 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B6" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B8" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="3" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B10" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B11" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B12" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B13" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -8687,74 +8851,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B2" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B4" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B8" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B9" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B10" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -8851,7 +9015,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -8860,7 +9024,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B3" t="s">
         <v>152</v>
@@ -8869,10 +9033,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" t="s">
         <v>622</v>
-      </c>
-      <c r="B4" t="s">
-        <v>623</v>
       </c>
       <c r="C4" s="19"/>
     </row>
@@ -8886,15 +9050,15 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" t="s">
         <v>624</v>
-      </c>
-      <c r="B6" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B7" t="s">
         <v>156</v>
@@ -8902,7 +9066,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B8" t="s">
         <v>162</v>
@@ -8910,7 +9074,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B9" t="s">
         <v>163</v>
@@ -8919,7 +9083,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B10" t="s">
         <v>164</v>
@@ -8927,7 +9091,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B11" t="s">
         <v>165</v>
@@ -8935,7 +9099,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B12" t="s">
         <v>166</v>
@@ -8965,7 +9129,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B15" t="s">
         <v>246</v>
@@ -8973,66 +9137,66 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B16" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>607</v>
+      </c>
+      <c r="B17" t="s">
         <v>608</v>
-      </c>
-      <c r="B17" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B18" t="s">
         <v>610</v>
-      </c>
-      <c r="B18" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B21" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -9122,7 +9286,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B6" t="s">
         <v>155</v>
@@ -9131,7 +9295,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -9140,7 +9304,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="B8" t="s">
         <v>161</v>
@@ -9149,10 +9313,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C9" s="19"/>
     </row>
@@ -9243,7 +9407,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -9270,7 +9434,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -9320,7 +9484,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B16" t="s">
         <v>122</v>
@@ -9329,7 +9493,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B17" t="s">
         <v>142</v>
@@ -9346,7 +9510,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B19" t="s">
         <v>141</v>
@@ -9354,7 +9518,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
@@ -9363,7 +9527,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="B21" t="s">
         <v>143</v>
@@ -9388,7 +9552,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="B24" t="s">
         <v>234</v>
@@ -9396,7 +9560,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B25" t="s">
         <v>235</v>
@@ -9405,7 +9569,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B26" t="s">
         <v>236</v>
@@ -9413,7 +9577,7 @@
     </row>
     <row r="27" spans="1:3" ht="119">
       <c r="A27" s="3" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>252</v>
@@ -9421,18 +9585,18 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B28" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C29" s="19">
         <f>FACT(20)</f>
@@ -9441,74 +9605,74 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B30" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>651</v>
+      </c>
+      <c r="B31" t="s">
         <v>652</v>
-      </c>
-      <c r="B31" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B32" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B33" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B34" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="B36" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C36" s="28"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B37" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B38" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C38" s="19"/>
     </row>
@@ -9581,7 +9745,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -9670,7 +9834,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B13" t="s">
         <v>109</v>
@@ -9695,7 +9859,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B16" t="s">
         <v>114</v>
@@ -9728,94 +9892,94 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>630</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>631</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
+        <v>633</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>634</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
+        <v>635</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
+        <v>642</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
+        <v>649</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>650</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B32" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
   </sheetData>
@@ -9969,7 +10133,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B16" t="s">
         <v>422</v>
@@ -9978,97 +10142,97 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="B17" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B20" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B21" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B22" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B23" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>601</v>
+      </c>
+      <c r="B24" t="s">
         <v>602</v>
-      </c>
-      <c r="B24" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>604</v>
+      </c>
+      <c r="B25" t="s">
         <v>605</v>
-      </c>
-      <c r="B25" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>612</v>
+      </c>
+      <c r="B26" t="s">
         <v>613</v>
-      </c>
-      <c r="B26" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B28" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C28" s="8"/>
     </row>
@@ -10102,10 +10266,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDBEC56-A184-4A4B-8567-C8F06A47DCEE}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10164,7 +10328,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B7" t="s">
         <v>123</v>
@@ -10182,7 +10346,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
@@ -10191,7 +10355,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B10" t="s">
         <v>215</v>
@@ -10200,7 +10364,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B11" t="s">
         <v>228</v>
@@ -10220,107 +10384,110 @@
         <v>497</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B14" t="s">
         <v>502</v>
       </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B15" t="s">
         <v>514</v>
       </c>
-      <c r="B15" t="s">
-        <v>515</v>
-      </c>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>523</v>
+      </c>
+      <c r="B16" t="s">
         <v>524</v>
       </c>
-      <c r="B16" t="s">
-        <v>525</v>
-      </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>657</v>
+      <c r="A17" s="3" t="s">
+        <v>992</v>
       </c>
       <c r="B17" t="s">
-        <v>658</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>664</v>
+      <c r="A18" s="3" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B20" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:8" ht="34">
       <c r="A21" s="31" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="34">
       <c r="A22" s="31" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="34">
       <c r="A23" s="31" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="C23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="17">
       <c r="A24" s="3" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="17">
       <c r="A25" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H26">
         <f>26*8</f>
@@ -10329,166 +10496,299 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B29" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B30" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="B31" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B32" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="C32" s="19"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B33" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="B34" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C34" s="19"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="B35" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B36" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C36" s="19"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B37" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B38" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B39" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B40" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B41" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B42" t="s">
-        <v>984</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B43" s="33" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>986</v>
+      <c r="A44" s="3" t="s">
+        <v>994</v>
       </c>
       <c r="B44" t="s">
-        <v>987</v>
-      </c>
+        <v>982</v>
+      </c>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B45" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B46" t="s">
-        <v>991</v>
+        <v>986</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B47" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>998</v>
+      </c>
+      <c r="B48" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C49" s="19"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C50" s="19"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C51" s="19"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C53" s="19"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="51">
+      <c r="A58" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="68">
+      <c r="A59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="20">
+      <c r="A62" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -10529,6 +10829,22 @@
     <hyperlink ref="A43" r:id="rId33" xr:uid="{BC93E026-824F-D54E-B6A3-7368D98C95D4}"/>
     <hyperlink ref="A45" r:id="rId34" xr:uid="{73C5F154-2D22-8B42-93D1-D0EF3E4E9411}"/>
     <hyperlink ref="A46" r:id="rId35" xr:uid="{18A96CAD-E96C-AA48-A1C2-DB92CC545D60}"/>
+    <hyperlink ref="A15" r:id="rId36" xr:uid="{12EF4F50-3F52-EB49-984C-43302C618FC8}"/>
+    <hyperlink ref="A17" r:id="rId37" xr:uid="{470B0F0D-8F96-B243-A1DD-5FB863AA68A7}"/>
+    <hyperlink ref="A18" r:id="rId38" xr:uid="{D08A1B71-94C4-5643-82F7-7D82744B14F4}"/>
+    <hyperlink ref="A44" r:id="rId39" xr:uid="{7F05DE50-78C8-6B40-97AD-CEFE1139BD4E}"/>
+    <hyperlink ref="A47" r:id="rId40" xr:uid="{C9F33816-5044-E94F-AAB4-6CC862EFC3AB}"/>
+    <hyperlink ref="A49" r:id="rId41" xr:uid="{C3164D39-F5BF-334C-B14B-8270F3DCDCEB}"/>
+    <hyperlink ref="A50" r:id="rId42" xr:uid="{2FFF568C-AAA9-B640-87A1-7C0A4F50F0D6}"/>
+    <hyperlink ref="A51" r:id="rId43" xr:uid="{883095FC-0278-2047-BEC1-A42CC7E08FD5}"/>
+    <hyperlink ref="A53" r:id="rId44" xr:uid="{C17B7977-30E0-0449-AAEF-0B5058F3F2DD}"/>
+    <hyperlink ref="A54" r:id="rId45" xr:uid="{B9A925A4-53EC-F047-B6B4-90118CF57E65}"/>
+    <hyperlink ref="A55" r:id="rId46" xr:uid="{64DF1E0E-6391-3043-AD5A-24CB90ACB529}"/>
+    <hyperlink ref="A57" r:id="rId47" xr:uid="{DDC720EC-C511-C641-AFD6-3A92300D0BE4}"/>
+    <hyperlink ref="A58" r:id="rId48" xr:uid="{8219FC42-7B35-434C-BDB5-B904D63ECF7A}"/>
+    <hyperlink ref="A60" r:id="rId49" xr:uid="{7D30376A-1F9D-9143-B45F-DB66A92281F6}"/>
+    <hyperlink ref="A61" r:id="rId50" xr:uid="{88B4BB6F-0DC7-304E-87C4-432A08869D98}"/>
+    <hyperlink ref="A62" r:id="rId51" xr:uid="{44C714EE-6628-9845-B108-D55CD3BE3F1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10615,10 +10931,10 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B9" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1039">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -7794,6 +7794,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">时直接输出</t>
     </r>
@@ -7813,6 +7814,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，其余的数输出（</t>
     </r>
@@ -7832,6 +7834,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。只有一个</t>
     </r>
@@ -7851,6 +7854,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">时，一刀不用。偶数个人时，切</t>
     </r>
@@ -7870,6 +7874,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">刀；奇数个人时（</t>
     </r>
@@ -7889,6 +7894,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -7908,6 +7914,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">刀。</t>
     </r>
@@ -17024,6 +17031,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">反向思考：给定一个长度分割的次数最多。分割的方法是：最短</t>
     </r>
@@ -17043,6 +17051,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">、剩余两根相差</t>
     </r>
@@ -17062,6 +17071,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。这样就能够得出递推公式：</t>
     </r>
@@ -17081,8 +17091,266 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。注意数据类型的选择！！</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/CF103A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">对于每一道题目有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个选项因此会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ai-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">次错误。假设之前选了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">f[i-1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">次，第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">题选错总共选了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">f[i-1]+i*(ai-1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">次，第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">题最后选对一共选了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">f[i-1]+i*(ai-1)+i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">次</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/CF509A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首先初始化首行首列，然后依据题意填充矩阵，填充的过程中记录最大值。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/AT_tenka1_2012_qualA_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">简单递推斐波那起数列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/AT_abc006_2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">按题目描述递推，注意计算过程中需要模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">10007</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1176</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">两张表，一张描述障碍物的分布，一张统计步数。如果某格子上有障碍物，就不更新步数；如果没有障碍物则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">f[i][j]=f[i-1][j]+f[i][j-1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，到达左侧和上边的步数之和。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1644</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">从起点开始</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dfs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">，直到最后一点。</t>
     </r>
   </si>
   <si>
@@ -18574,7 +18842,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -18695,12 +18963,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -18799,6 +19061,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -19001,10 +19276,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -19033,19 +19304,19 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -19055,6 +19326,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -19145,9 +19420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>671400</xdr:colOff>
+      <xdr:colOff>670680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4939200</xdr:rowOff>
+      <xdr:rowOff>4938480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19161,7 +19436,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11461320" y="3098880"/>
-          <a:ext cx="8514000" cy="4913640"/>
+          <a:ext cx="8513280" cy="4912920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19504,7 +19779,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -19580,7 +19855,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>464</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -19705,7 +19980,7 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>475</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -19757,10 +20032,10 @@
       <c r="A10" s="0" t="s">
         <v>487</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="25" t="s">
         <v>489</v>
       </c>
     </row>
@@ -19779,7 +20054,7 @@
       <c r="B12" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="26" t="s">
         <v>494</v>
       </c>
     </row>
@@ -19926,7 +20201,7 @@
       <c r="A29" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>529</v>
       </c>
     </row>
@@ -19975,7 +20250,7 @@
       <c r="A35" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>541</v>
       </c>
       <c r="C35" s="4"/>
@@ -20303,7 +20578,7 @@
       <c r="A74" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="27" t="s">
         <v>617</v>
       </c>
     </row>
@@ -20493,7 +20768,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="29" t="s">
         <v>661</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -20655,7 +20930,7 @@
       <c r="A116" s="0" t="s">
         <v>699</v>
       </c>
-      <c r="B116" s="31" t="s">
+      <c r="B116" s="30" t="s">
         <v>700</v>
       </c>
       <c r="C116" s="4"/>
@@ -20761,7 +21036,7 @@
       <c r="A129" s="0" t="s">
         <v>725</v>
       </c>
-      <c r="B129" s="32" t="s">
+      <c r="B129" s="31" t="s">
         <v>726</v>
       </c>
     </row>
@@ -20793,7 +21068,7 @@
       <c r="A133" s="0" t="s">
         <v>733</v>
       </c>
-      <c r="B133" s="28" t="s">
+      <c r="B133" s="27" t="s">
         <v>734</v>
       </c>
     </row>
@@ -21243,7 +21518,7 @@
       <c r="A18" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>815</v>
       </c>
       <c r="C18" s="4"/>
@@ -21587,7 +21862,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -21743,7 +22018,7 @@
       <c r="A19" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>894</v>
       </c>
     </row>
@@ -21980,7 +22255,7 @@
       <c r="A14" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>931</v>
       </c>
     </row>
@@ -22024,10 +22299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22137,13 +22412,62 @@
       <c r="A13" s="0" t="s">
         <v>957</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="3" t="s">
         <v>958</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>959</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>961</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>963</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>965</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>967</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>969</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="https://www.luogu.com.cn/problem/P1164"/>
+    <hyperlink ref="A19" r:id="rId2" display="https://www.luogu.com.cn/problem/P1644"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22377,7 +22701,7 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>959</v>
+        <v>971</v>
       </c>
     </row>
   </sheetData>
@@ -22456,10 +22780,10 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>960</v>
+        <v>972</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>961</v>
+        <v>973</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22467,94 +22791,94 @@
         <v>823</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>962</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>963</v>
+        <v>975</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>964</v>
+        <v>976</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>966</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>967</v>
+        <v>979</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>968</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>969</v>
+        <v>981</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>970</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>971</v>
+        <v>983</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>972</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>973</v>
+        <v>985</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>974</v>
+        <v>986</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>975</v>
+        <v>987</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>976</v>
+        <v>988</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>977</v>
+        <v>989</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -22606,103 +22930,103 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>984</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>986</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>987</v>
+        <v>999</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1006</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1007</v>
+        <v>1019</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1008</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -22748,74 +23072,74 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1010</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1012</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1014</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1015</v>
+        <v>1027</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1016</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1018</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1020</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1021</v>
+        <v>1033</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1022</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1023</v>
+        <v>1035</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1024</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -23188,10 +23512,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23281,6 +23605,8 @@
       </c>
       <c r="C9" s="4"/>
     </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.luogu.com.cn/problem/P1428"/>
@@ -24820,7 +25146,7 @@
       <c r="A67" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="3" t="s">
         <v>440</v>
       </c>
     </row>
@@ -24958,7 +25284,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>451</v>
       </c>
       <c r="B7" s="3" t="s">

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B289BC5-C8E6-1542-A078-0E455A08D22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59E6401-0359-BE4A-AAF7-4FC3EDBC2974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1360" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1360" windowWidth="38400" windowHeight="19980" tabRatio="500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -6694,285 +6694,10 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B3634</t>
-  </si>
-  <si>
     <t>求两个数的最大公约数和最小公倍数</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.luogu.com.cn/problem/CF1617B </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>只需找出一组满足要求的组合即可。首先从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>开始搜索</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>，接着是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>必须是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>的倍数，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a=n-c-b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>，检测</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>gcd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>是否等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>。如果等于则输出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>。</t>
-    </r>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P10183</t>
@@ -7092,9 +6817,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/CF13A</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7941,9 +7663,6 @@
     <t>统计约数的个数</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2064</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7966,9 +7685,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1720</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7991,9 +7707,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2069</t>
-  </si>
-  <si>
     <t>分子是大兔子，分母是小兔子</t>
   </si>
   <si>
@@ -8003,9 +7716,6 @@
     <t>以字符的形式输出斐波那契数列，序列号是斐波那契数则输出大写否则输出小写</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc079_b</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -8042,9 +7752,6 @@
   </si>
   <si>
     <t>需要高精度运算，数楼梯</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1192</t>
   </si>
   <si>
     <t>加模运算的数楼梯</t>
@@ -15904,9 +15611,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1002</t>
-  </si>
-  <si>
     <t>棋盘上每一个坐标点位上的走法是上面和左面坐标位走法之和。</t>
   </si>
   <si>
@@ -16083,9 +15787,6 @@
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1464</t>
   </si>
   <si>
     <r>
@@ -16442,9 +16143,6 @@
       </rPr>
       <t>的值可能很大，所以不可能通过构造字符串的方式解。逆向推导目标字符在原字符串中的索引。每个新的字符串有两部分构造，后半部分的字符串其实是前半部分右移一位。按这个思路倒推。</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1259</t>
   </si>
   <si>
     <r>
@@ -17271,15 +16969,9 @@
     <t>首先初始化首行首列，然后依据题意填充矩阵，填充的过程中记录最大值。</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_tenka1_2012_qualA_1</t>
-  </si>
-  <si>
     <t>简单递推斐波那起数列</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc006_2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -17299,9 +16991,6 @@
       </rPr>
       <t>10007</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1176</t>
   </si>
   <si>
     <r>
@@ -18846,11 +18535,11 @@
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P2807</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1644</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -18926,11 +18615,11 @@
       </rPr>
       <t>假设当前层数是i，相较于第i-1层，增加的边长为j的三角形有两种放置形式，正放的数目为i-(j-1) , 倒放的数目为i-j-(j-1).</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1226</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -18943,11 +18632,11 @@
       </rPr>
       <t>快速幂</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/CF486A</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -18981,23 +18670,23 @@
       </rPr>
       <t>，这样就转化为简单的计算</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/CF1932A</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>一旦遇到连续的荆棘就无法跳过了，此时向前数，此前的金币都可以获得</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1936</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>利用斐波那契数列的一个特性(fn^2-fn+1*fn-1)^2=1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P7494</t>
@@ -19030,11 +18719,11 @@
       </rPr>
       <t>。但是本题天平秤量有限制，当n&gt;= 3 * m + 2时就不能简单地三分了，此时f[n]=f[n-2m]+1，但是这样递归效率比较低。可以先看能分出多少个2m，每两个m一组秤量，剩余的三分法递归测出。</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1595</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -19047,11 +18736,11 @@
       </rPr>
       <t>本题属于容错问题，放在组合问题中讲比较合适</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1515</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -19064,7 +18753,318 @@
       </rPr>
       <t>从起点到达每个旅店的都有一个方案数。每个旅店可能的前一站会有多个，到达这些旅店的方案数之和，就是到达当前旅店的方案数。这里需要判断当前旅店之前的哪些旅店可以在一天内到达。</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2064</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1192</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_tenka1_2012_qualA_1</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc006_2</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1720</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2069</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc079_b</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1002</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1176</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1464</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1259</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B3634</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>只需找出一组满足要求的组合即可。首先从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>开始搜索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>，接着是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>必须是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>的倍数，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a=n-c-b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>，检测</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gcd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>是否等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>。如果等于则输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/CF13A</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -19289,13 +19289,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -19319,8 +19312,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19387,6 +19387,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -19431,7 +19437,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19540,10 +19546,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20242,7 +20254,7 @@
       <c r="C30" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -20302,35 +20314,35 @@
         <v>167</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20363,22 +20375,22 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="22" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20412,19 +20424,19 @@
         <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20456,371 +20468,371 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="23" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="2" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B32" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B44" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C44" s="4"/>
     </row>
@@ -20829,152 +20841,152 @@
         <v>294</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="B58" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -20982,733 +20994,733 @@
         <v>296</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B78" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="29" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B122" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C151" s="4"/>
     </row>
@@ -21722,67 +21734,67 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="35" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
@@ -21858,7 +21870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -21879,94 +21891,94 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -21974,56 +21986,56 @@
         <v>250</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -22031,19 +22043,19 @@
         <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="35" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
@@ -22087,108 +22099,108 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="B7" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B8" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B9" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B10" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B11" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="B12" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B15" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -22204,27 +22216,27 @@
         <v>388</v>
       </c>
       <c r="B17" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="B19" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
@@ -22262,55 +22274,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -22320,7 +22332,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -22351,231 +22363,231 @@
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" s="2" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="2" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="7" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="2" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="2" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="2" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="2" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="2" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="2" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="2" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="2" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="2" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="2" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="2" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="2" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="2" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="2" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="2" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" s="2" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="2" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="2" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="34">
       <c r="A24" s="2" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="238">
       <c r="A25" s="2" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="17">
       <c r="A26" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17">
       <c r="A27" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
@@ -22628,139 +22640,139 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C10" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -22768,10 +22780,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -22781,7 +22793,7 @@
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25">
+    <row r="1" spans="1:3" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22789,192 +22801,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="35" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="170">
+      <c r="A7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>937</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>938</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="35" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>940</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="11" spans="1:3" ht="136">
+      <c r="A11" t="s">
         <v>942</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>823</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="1:3" ht="306">
+      <c r="A12" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="170">
-      <c r="A7" t="s">
+      <c r="B12" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="B7" s="14" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B13" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B14" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B15" s="33" t="s">
         <v>951</v>
       </c>
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="35" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="136">
-      <c r="A11" t="s">
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>953</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="35" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="306">
-      <c r="A12" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="35" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>955</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>957</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>959</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>961</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>963</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>965</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>967</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="35" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="35" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="35" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="35" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="35" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>1038</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="35" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="35" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="35" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>1052</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
     <hyperlink ref="A19" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
@@ -22982,6 +22997,12 @@
     <hyperlink ref="A21" r:id="rId4" xr:uid="{F2C2AA3A-558E-7245-8A34-D8556CA00308}"/>
     <hyperlink ref="A22" r:id="rId5" xr:uid="{1A271C19-F34C-DA44-86E3-3D6F1C7997A6}"/>
     <hyperlink ref="A24" r:id="rId6" xr:uid="{4A2555FE-E322-CC45-8EE9-AB9333304E49}"/>
+    <hyperlink ref="A16" r:id="rId7" xr:uid="{870F78CB-7887-814E-9F7F-A291F705FD8F}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{5E1CD374-04C1-B641-ACDC-FDF24A1BE3F9}"/>
+    <hyperlink ref="A2" r:id="rId9" xr:uid="{F9ECDED6-9D46-274E-9E6A-62107D6B3EF4}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{3A067067-51A6-4445-B1A9-FCF24682A05A}"/>
+    <hyperlink ref="A4" r:id="rId11" xr:uid="{80D4AB18-BE89-F043-9D38-9565DB455BC6}"/>
+    <hyperlink ref="A9" r:id="rId12" xr:uid="{DF162FE7-062D-6C4A-8D52-C562080ECE04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -23154,7 +23175,7 @@
       <c r="C21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -23200,11 +23221,11 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>970</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23234,7 +23255,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23265,109 +23286,109 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>972</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>973</v>
+        <v>959</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>974</v>
+        <v>960</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>975</v>
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>976</v>
+        <v>962</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>977</v>
+        <v>963</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>978</v>
+        <v>964</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>979</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>980</v>
+        <v>966</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>981</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>982</v>
+        <v>968</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>983</v>
+        <v>969</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>984</v>
+        <v>970</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>985</v>
+        <v>971</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>987</v>
+        <v>973</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>988</v>
+        <v>974</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>989</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>990</v>
+        <v>976</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>991</v>
+        <v>977</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>992</v>
+        <v>978</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>993</v>
+        <v>979</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>994</v>
+        <v>980</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
@@ -23408,107 +23429,107 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>995</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>996</v>
+        <v>982</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>997</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>998</v>
+        <v>984</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" t="s">
-        <v>1000</v>
+        <v>986</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1001</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1003</v>
+        <v>989</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1004</v>
+        <v>990</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1005</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1006</v>
+        <v>992</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1007</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1008</v>
+        <v>994</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1009</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="2" t="s">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1011</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1013</v>
+        <v>999</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1014</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1015</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1016</v>
+        <v>1002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1017</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1018</v>
+        <v>1004</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1019</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
@@ -23543,78 +23564,78 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1021</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>1022</v>
+        <v>1008</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1023</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>1024</v>
+        <v>1010</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1025</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1026</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1027</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1030</v>
+        <v>1016</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1031</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1032</v>
+        <v>1018</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1033</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>1034</v>
+        <v>1020</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1035</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1036</v>
+        <v>1022</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
@@ -23637,7 +23658,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23654,7 +23675,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23671,7 +23692,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23688,7 +23709,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23905,7 +23926,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -24027,7 +24048,7 @@
       <c r="C9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -24384,7 +24405,7 @@
       <c r="C38" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
@@ -24691,7 +24712,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
@@ -24946,7 +24967,7 @@
       <c r="C28" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
@@ -24977,8 +24998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -25444,105 +25465,108 @@
       <c r="B55" s="3" t="s">
         <v>416</v>
       </c>
+      <c r="C55" s="38"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
+      <c r="A56" s="35" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>418</v>
-      </c>
+      <c r="C56" s="38"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>420</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C57" s="38"/>
     </row>
     <row r="58" spans="1:3" ht="51">
       <c r="A58" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="68">
+      <c r="A59" s="35" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>421</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="68">
-      <c r="A59" t="s">
-        <v>423</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="20">
       <c r="A62" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B66" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
@@ -25598,6 +25622,8 @@
     <hyperlink ref="A64" r:id="rId52" xr:uid="{00000000-0004-0000-0700-000033000000}"/>
     <hyperlink ref="A65" r:id="rId53" xr:uid="{00000000-0004-0000-0700-000034000000}"/>
     <hyperlink ref="A67" r:id="rId54" xr:uid="{00000000-0004-0000-0700-000035000000}"/>
+    <hyperlink ref="A56" r:id="rId55" xr:uid="{19F3BD1D-26F9-E842-B23F-C490A5EE4A88}"/>
+    <hyperlink ref="A59" r:id="rId56" xr:uid="{C1EF1CBB-D6FD-874F-A085-EC31055A6490}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -25606,10 +25632,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -25619,7 +25645,7 @@
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25">
+    <row r="1" spans="1:3" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25627,83 +25653,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="35" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="35" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B6" t="s">
         <v>443</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="35" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B6" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" s="35" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
     <hyperlink ref="A10" r:id="rId2" xr:uid="{6A3B8C48-C3D5-884F-AE8D-EEC632FACE1D}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{DD7ABB4D-A1E0-8E46-AEDE-5B54241EFD90}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{D64987AC-C921-5E44-8A72-25CCCDC4C094}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{F16972E2-54E1-4F47-88DC-B2FDDB987408}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{C296CC5A-7251-E141-8C4F-5FC8364F9E23}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{1FA242FC-5559-9E4B-AC53-86A3795040FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B289BC5-C8E6-1542-A078-0E455A08D22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF270B5C-F858-6944-8D74-69FBC9830CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1360" windowWidth="38400" windowHeight="21100" tabRatio="500" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-1360" windowWidth="38400" windowHeight="19980" tabRatio="500" firstSheet="6" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -7941,9 +7941,6 @@
     <t>统计约数的个数</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2064</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7966,9 +7963,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1720</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -7991,9 +7985,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/B2069</t>
-  </si>
-  <si>
     <t>分子是大兔子，分母是小兔子</t>
   </si>
   <si>
@@ -8003,9 +7994,6 @@
     <t>以字符的形式输出斐波那契数列，序列号是斐波那契数则输出大写否则输出小写</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc079_b</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -8042,9 +8030,6 @@
   </si>
   <si>
     <t>需要高精度运算，数楼梯</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1192</t>
   </si>
   <si>
     <t>加模运算的数楼梯</t>
@@ -15904,9 +15889,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1002</t>
-  </si>
-  <si>
     <t>棋盘上每一个坐标点位上的走法是上面和左面坐标位走法之和。</t>
   </si>
   <si>
@@ -16083,9 +16065,6 @@
       </rPr>
       <t>。</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1464</t>
   </si>
   <si>
     <r>
@@ -16442,9 +16421,6 @@
       </rPr>
       <t>的值可能很大，所以不可能通过构造字符串的方式解。逆向推导目标字符在原字符串中的索引。每个新的字符串有两部分构造，后半部分的字符串其实是前半部分右移一位。按这个思路倒推。</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1259</t>
   </si>
   <si>
     <r>
@@ -17271,15 +17247,9 @@
     <t>首先初始化首行首列，然后依据题意填充矩阵，填充的过程中记录最大值。</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_tenka1_2012_qualA_1</t>
-  </si>
-  <si>
     <t>简单递推斐波那起数列</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/AT_abc006_2</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -17299,9 +17269,6 @@
       </rPr>
       <t>10007</t>
     </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P1176</t>
   </si>
   <si>
     <r>
@@ -18846,11 +18813,11 @@
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P2807</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1644</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -18926,11 +18893,11 @@
       </rPr>
       <t>假设当前层数是i，相较于第i-1层，增加的边长为j的三角形有两种放置形式，正放的数目为i-(j-1) , 倒放的数目为i-j-(j-1).</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1226</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -18943,11 +18910,11 @@
       </rPr>
       <t>快速幂</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/CF486A</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -18981,23 +18948,23 @@
       </rPr>
       <t>，这样就转化为简单的计算</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/CF1932A</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>一旦遇到连续的荆棘就无法跳过了，此时向前数，此前的金币都可以获得</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1936</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>利用斐波那契数列的一个特性(fn^2-fn+1*fn-1)^2=1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P7494</t>
@@ -19030,11 +18997,11 @@
       </rPr>
       <t>。但是本题天平秤量有限制，当n&gt;= 3 * m + 2时就不能简单地三分了，此时f[n]=f[n-2m]+1，但是这样递归效率比较低。可以先看能分出多少个2m，每两个m一组秤量，剩余的三分法递归测出。</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1595</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -19047,11 +19014,11 @@
       </rPr>
       <t>本题属于容错问题，放在组合问题中讲比较合适</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P1515</t>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -19064,14 +19031,58 @@
       </rPr>
       <t>从起点到达每个旅店的都有一个方案数。每个旅店可能的前一站会有多个，到达这些旅店的方案数之和，就是到达当前旅店的方案数。这里需要判断当前旅店之前的哪些旅店可以在一天内到达。</t>
     </r>
-    <phoneticPr fontId="30" type="noConversion"/>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2064</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1192</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_tenka1_2012_qualA_1</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc006_2</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1720</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/B2069</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/AT_abc079_b</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1002</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1176</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1464</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1259</t>
+    <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -19289,13 +19300,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
@@ -19320,7 +19324,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19387,6 +19391,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -19431,7 +19441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -19540,10 +19550,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20242,7 +20255,7 @@
       <c r="C30" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -20302,35 +20315,35 @@
         <v>167</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="34">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
       <c r="A5" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20363,22 +20376,22 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="22" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20412,19 +20425,19 @@
         <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -20456,371 +20469,371 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="23" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="136">
       <c r="A10" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="2" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="34">
       <c r="A13" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="102">
       <c r="A17" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B32" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B44" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C44" s="4"/>
     </row>
@@ -20829,152 +20842,152 @@
         <v>294</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B58" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -20982,733 +20995,733 @@
         <v>296</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C65" s="4"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B78" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C83" s="4"/>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C84" s="4"/>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C85" s="4"/>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C86" s="4"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C87" s="4"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C89" s="4"/>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C90" s="4"/>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C91" s="4"/>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C93" s="4"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="18">
       <c r="A97" s="29" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B116" s="30" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="B122" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C124" s="4"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B133" s="27" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
       <c r="A146" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C151" s="4"/>
     </row>
@@ -21722,67 +21735,67 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="35" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="B160" s="37" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
@@ -21858,7 +21871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -21879,94 +21892,94 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -21974,56 +21987,56 @@
         <v>250</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -22031,19 +22044,19 @@
         <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="35" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0D00-000001000000}"/>
@@ -22087,108 +22100,108 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B7" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B8" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B9" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B10" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B11" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B12" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B15" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -22204,27 +22217,27 @@
         <v>388</v>
       </c>
       <c r="B17" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B19" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
@@ -22262,55 +22275,55 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -22320,7 +22333,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -22351,231 +22364,231 @@
     </row>
     <row r="2" spans="1:3" ht="34">
       <c r="A2" s="2" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" ht="17">
       <c r="A3" s="2" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="34">
       <c r="A4" s="7" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="2" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="17">
       <c r="A6" s="2" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="34">
       <c r="A7" s="2" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="34">
       <c r="A8" s="2" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="2" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="2" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="34">
       <c r="A11" s="2" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="34">
       <c r="A12" s="2" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="2" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="17">
       <c r="A16" s="2" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17">
       <c r="A17" s="2" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="17">
       <c r="A18" s="2" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="17">
       <c r="A19" s="2" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="34">
       <c r="A20" s="2" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" ht="17">
       <c r="A21" s="2" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="51">
       <c r="A22" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17">
       <c r="A23" s="2" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="34">
       <c r="A24" s="2" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" ht="238">
       <c r="A25" s="2" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" ht="17">
       <c r="A26" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17">
       <c r="A27" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
@@ -22628,139 +22641,139 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="121">
       <c r="A2" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
       <c r="A10" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C10" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -22768,10 +22781,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -22781,7 +22794,7 @@
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25">
+    <row r="1" spans="1:3" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -22789,192 +22802,195 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="35" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="170">
+      <c r="A7" t="s">
         <v>938</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>940</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="35" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>942</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>823</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B10" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="170">
-      <c r="A7" t="s">
+    <row r="11" spans="1:3" ht="136">
+      <c r="A11" t="s">
         <v>945</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B11" s="14" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="12" spans="1:3" ht="306">
+      <c r="A12" t="s">
         <v>947</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>949</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>951</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="136">
-      <c r="A11" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>953</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B15" s="33" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="306">
-      <c r="A12" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="35" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>955</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="35" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="35" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>957</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="35" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>959</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>961</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>963</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>965</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>967</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="35" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20" s="35" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="35" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="35" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>1039</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="35" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B20" s="36" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="35" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="35" t="s">
+      <c r="B24" s="36" t="s">
         <v>1041</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="35" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="35" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>1052</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
     <hyperlink ref="A19" r:id="rId2" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
@@ -22982,6 +22998,12 @@
     <hyperlink ref="A21" r:id="rId4" xr:uid="{F2C2AA3A-558E-7245-8A34-D8556CA00308}"/>
     <hyperlink ref="A22" r:id="rId5" xr:uid="{1A271C19-F34C-DA44-86E3-3D6F1C7997A6}"/>
     <hyperlink ref="A24" r:id="rId6" xr:uid="{4A2555FE-E322-CC45-8EE9-AB9333304E49}"/>
+    <hyperlink ref="A16" r:id="rId7" xr:uid="{870F78CB-7887-814E-9F7F-A291F705FD8F}"/>
+    <hyperlink ref="A17" r:id="rId8" xr:uid="{5E1CD374-04C1-B641-ACDC-FDF24A1BE3F9}"/>
+    <hyperlink ref="A2" r:id="rId9" xr:uid="{F9ECDED6-9D46-274E-9E6A-62107D6B3EF4}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{3A067067-51A6-4445-B1A9-FCF24682A05A}"/>
+    <hyperlink ref="A4" r:id="rId11" xr:uid="{80D4AB18-BE89-F043-9D38-9565DB455BC6}"/>
+    <hyperlink ref="A9" r:id="rId12" xr:uid="{DF162FE7-062D-6C4A-8D52-C562080ECE04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -23154,7 +23176,7 @@
       <c r="C21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
@@ -23200,11 +23222,11 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23234,7 +23256,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23265,109 +23287,109 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
@@ -23408,107 +23430,107 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="2" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-1600-000000000000}"/>
   </hyperlinks>
@@ -23543,78 +23565,78 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-1700-000001000000}"/>
@@ -23637,7 +23659,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23654,7 +23676,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23671,7 +23693,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23688,7 +23710,7 @@
     <col min="1" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -23905,7 +23927,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
@@ -24027,7 +24049,7 @@
       <c r="C9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
@@ -24384,7 +24406,7 @@
       <c r="C38" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
@@ -24691,7 +24713,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
@@ -24946,7 +24968,7 @@
       <c r="C28" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
@@ -25542,7 +25564,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
     <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
@@ -25606,10 +25628,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -25619,7 +25641,7 @@
     <col min="3" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25">
+    <row r="1" spans="1:3" ht="25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -25627,83 +25649,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="38"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="35" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="38"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="35" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="38"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="38"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="35" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B6" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="C6" s="38"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="35" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="B9" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="35" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
     <hyperlink ref="A10" r:id="rId2" xr:uid="{6A3B8C48-C3D5-884F-AE8D-EEC632FACE1D}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{DD7ABB4D-A1E0-8E46-AEDE-5B54241EFD90}"/>
+    <hyperlink ref="A8" r:id="rId4" xr:uid="{D64987AC-C921-5E44-8A72-25CCCDC4C094}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{F16972E2-54E1-4F47-88DC-B2FDDB987408}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{C296CC5A-7251-E141-8C4F-5FC8364F9E23}"/>
+    <hyperlink ref="A6" r:id="rId7" xr:uid="{1FA242FC-5559-9E4B-AC53-86A3795040FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95B03E0-4AB7-B54B-B00A-EF52E2FEFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D20804-5A31-5745-B2BE-73B9893E72D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20240" tabRatio="500" firstSheet="5" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20240" tabRatio="500" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1161">
   <si>
     <t>题目</t>
   </si>
@@ -15935,9 +15935,6 @@
     <t>枚举所有可能的组合，然后计算比较每种组合下最小的酸度值</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P1433</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/P1088</t>
   </si>
   <si>
@@ -16269,9 +16266,6 @@
     <t>遍历所有可能的两个数的组合，计算它们的成绩，并更新最大值和最小值。</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P5831</t>
-  </si>
-  <si>
     <t>枚举每种配对情况，比较这种配对每次的名次先后是否一致。本题需要特别注意的是输入数据的内容，输入是获奖名单，即每个名次的获奖者是几号。因此在接收输入的时候，需要根据输入打表。</t>
   </si>
   <si>
@@ -16771,9 +16765,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P8086</t>
-  </si>
-  <si>
     <t>接收输入的过程中，判断当前歌曲的时间是否被累加到最终的结果。注意数据类型的选择。</t>
   </si>
   <si>
@@ -16848,112 +16839,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>开始枚举每一个偶数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>，直到第一个使</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2^n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>大于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>的偶数。输出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>n-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/P3717</t>
   </si>
   <si>
@@ -16987,61 +16872,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P9564</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>枚举每个骰子可能朝上的面，如果是红色则加到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>，蓝色则加到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">bc.   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>注意：每次枚举结束时，需要将当前的值从累计和中减掉</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P8301</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -17069,77 +16899,6 @@
         <family val="2"/>
       </rPr>
       <t>的数量的差异</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P9740</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>首先判断目前的分数是否一已经</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>。如果没有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>，则需要枚举每道题目通过的情况，如果某道题目可以提升分数直到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>AU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>，则枚举需要新增的最小通过数。</t>
     </r>
   </si>
   <si>
@@ -22756,12 +22515,221 @@
     <t>https://www.luogu.com.cn/problem/P1090</t>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9740</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1433</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5831</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8301</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>首先判断目前的分数是否一已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>。如果没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>，则需要枚举每道题目通过的情况，如果某道题目可以提升分数直到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>，则枚举需要新增的最小通过数。</t>
+    </r>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9564</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 枚举三个骰子投出后，向上的图案的所有可能组合，计算每种情况之下红色和黑色的点数和，并比较是否和输入的A和B相等。如果有相等的组合，则输出Yes；如果枚举完所有的组合，却没有发现匹配的组合则输出No。
+首先枚举第一个骰子可能的点数；然后枚举第二个骰子可能的点数；最后枚举第三个骰子的点数。因此需要一个三层循环。注意：每次枚举结束时，需要将当前的值从累计和中减掉</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P9502</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>开始枚举每一个偶数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>，直到第一个使</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2^n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>大于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>的偶数。输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>n-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8086</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -23031,6 +22999,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -23149,7 +23123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23277,6 +23251,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -26388,8 +26368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -26502,205 +26482,209 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>943</v>
+      <c r="A13" s="40" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>943</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>944</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>945</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>946</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>947</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>948</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>949</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>950</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>951</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>952</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>953</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="85">
       <c r="A19" t="s">
+        <v>953</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>954</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>955</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>955</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>956</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="40" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>959</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>960</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B28" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>974</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="40" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>976</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>978</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>977</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="40" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C33" s="41"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>979</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="119">
+      <c r="A35" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C35" s="41"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>327</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>983</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>985</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>987</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>989</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>990</v>
-      </c>
+      <c r="C36" s="41"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C37" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="35" type="noConversion"/>
@@ -26708,6 +26692,12 @@
     <hyperlink ref="A21" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
     <hyperlink ref="A28" r:id="rId2" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
     <hyperlink ref="A36" r:id="rId3" xr:uid="{00000000-0004-0000-1100-000002000000}"/>
+    <hyperlink ref="A37" r:id="rId4" xr:uid="{C5B9FAD2-6BCB-F445-8DB6-869E755A2033}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{D3DB7B31-8509-8842-AAA0-A536306E33ED}"/>
+    <hyperlink ref="A22" r:id="rId6" xr:uid="{5EDBBF35-FA53-D04B-A33F-547EF1DB5802}"/>
+    <hyperlink ref="A35" r:id="rId7" xr:uid="{BB030421-0B47-134F-9A43-FC751466AC62}"/>
+    <hyperlink ref="A33" r:id="rId8" xr:uid="{270EAB7A-5781-7D47-AC52-6750CCAEDE0C}"/>
+    <hyperlink ref="A31" r:id="rId9" xr:uid="{17FC7CD4-BE56-D34A-A8CF-766E38035716}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -26739,26 +26729,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -26774,154 +26764,154 @@
         <v>838</v>
       </c>
       <c r="B6" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="170">
       <c r="A7" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="136">
       <c r="A11" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="306">
       <c r="A12" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -26929,153 +26919,153 @@
         <v>832</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>1026</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>1035</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>1052</v>
+        <v>1043</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="66">
       <c r="A37" s="2" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1061</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>1064</v>
+        <v>1055</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1067</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="C43" s="6"/>
     </row>
@@ -27324,7 +27314,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>1070</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -27389,10 +27379,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27400,94 +27390,94 @@
         <v>838</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>1076</v>
+        <v>1067</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>1079</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>1082</v>
+        <v>1073</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1085</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -27511,7 +27501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="107" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="107" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -27532,115 +27522,115 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" s="40" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1097</v>
+        <v>1088</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" s="40" t="s">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1100</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1103</v>
+        <v>1094</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="2" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1106</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
-        <v>1154</v>
+        <v>1145</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1109</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
-        <v>1151</v>
+        <v>1142</v>
       </c>
       <c r="B14" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="C14" s="41"/>
     </row>
@@ -27649,86 +27639,86 @@
         <v>763</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1115</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="40" t="s">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="40" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="40" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1118</v>
+        <v>1109</v>
       </c>
       <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="23">
       <c r="A20" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="120">
       <c r="A21" s="2" t="s">
-        <v>1121</v>
+        <v>1112</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="68">
       <c r="A22" s="2" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>1124</v>
+        <v>1115</v>
       </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="136">
       <c r="A23" s="2" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="153">
       <c r="A24" s="2" t="s">
-        <v>1127</v>
+        <v>1118</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -27737,7 +27727,7 @@
         <v>887</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -27792,74 +27782,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1130</v>
+        <v>1121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1133</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1136</v>
+        <v>1127</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1139</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1142</v>
+        <v>1133</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1145</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D20804-5A31-5745-B2BE-73B9893E72D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D53BB4F-2960-104F-A486-88ECC4DB9687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20240" tabRatio="500" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1162">
   <si>
     <t>题目</t>
   </si>
@@ -15530,9 +15530,6 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P3799</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -16266,9 +16263,6 @@
     <t>遍历所有可能的两个数的组合，计算它们的成绩，并更新最大值和最小值。</t>
   </si>
   <si>
-    <t>枚举每种配对情况，比较这种配对每次的名次先后是否一致。本题需要特别注意的是输入数据的内容，输入是获奖名单，即每个名次的获奖者是几号。因此在接收输入的时候，需要根据输入打表。</t>
-  </si>
-  <si>
     <t>https://www.luogu.com.cn/problem/P8828</t>
   </si>
   <si>
@@ -16589,180 +16583,10 @@
     </r>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P10708</t>
-  </si>
-  <si>
-    <t>枚举加贪心，枚举每天需要搭乘的地铁数。在次票和日票中选择花销最小的。</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P10727</t>
-  </si>
-  <si>
-    <t>枚举每一种矩形，记录最大的面积。</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P5601</t>
-  </si>
-  <si>
     <t>需要使用结构体记录每一道题目的题面和答案。有两部分需要枚举。枚举所有的题目看输入的是哪一道题目，然后枚举输入的选项，看第几个输入是答案。</t>
   </si>
   <si>
-    <t>https://www.luogu.com.cn/problem/P7772</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>的值在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A*I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>I-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>之间，从</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A*I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>开始递减，直到找到一个满足要求的最小的值。</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P2356</t>
-  </si>
-  <si>
     <t>首先枚举矩阵中的每一个位置，找到每个空位后，枚举该空位对应的行和列上各有多少敌人。</t>
-  </si>
-  <si>
-    <t>https://www.luogu.com.cn/problem/P8318</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>通过不断的逆运算，推出原始数据。需要注意的是计算的对象可能是同一个数，此时除法变成了求平方根；减法变成了除以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t>。</t>
-    </r>
   </si>
   <si>
     <t>接收输入的过程中，判断当前歌曲的时间是否被累加到最终的结果。注意数据类型的选择。</t>
@@ -22722,6 +22546,191 @@
   </si>
   <si>
     <t>https://www.luogu.com.cn/problem/P8086</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P3799</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2392</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举每种配对情况，比较这种配对每次的名次先后是否一致。本题需要特别注意的是输入数据的内容，输入是获奖名单，即每个名次的获奖者是几号。因此在接收输入的时候，需要根据输入打表。</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P10708</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举加贪心，枚举每天需要搭乘的地铁数。在次票和日票中选择花销最小的。</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P10727</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举每一种矩形，记录最大的面积。</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P5601</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P7772</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>的值在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A*I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>I-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>之间，从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A*I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>开始递减，直到找到一个满足要求的最小的值。</t>
+    </r>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P8318</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P2356</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>通过不断的逆运算，推出原始数据。需要注意的是计算的对象可能是同一个数，此时除法变成了求平方根；减法变成了除以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>。</t>
+    </r>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
@@ -23123,7 +23132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -23258,6 +23267,9 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -26368,8 +26380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -26455,234 +26467,240 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="170">
-      <c r="A10" t="s">
+      <c r="A10" s="40" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>937</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" t="s">
         <v>938</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>939</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>843</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
+        <v>940</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>941</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>942</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>942</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>943</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>944</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>945</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>946</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>948</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>949</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>950</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>952</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="85">
       <c r="A19" t="s">
+        <v>952</v>
+      </c>
+      <c r="B19" s="15" t="s">
         <v>953</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>954</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>954</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>956</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>957</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>958</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="40" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>959</v>
+        <v>1141</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>960</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C25" s="41"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C26" s="41"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>962</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C27" s="41"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C28" s="41"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="40" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>964</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>966</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>968</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>970</v>
-      </c>
-      <c r="B28" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>972</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>973</v>
-      </c>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>974</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>975</v>
-      </c>
+      <c r="A30" s="40" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="40" t="s">
-        <v>1160</v>
+        <v>1148</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="40" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="C33" s="41"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="119">
       <c r="A35" s="40" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="C35" s="41"/>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="40" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C36" s="41"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="40" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>1155</v>
+        <v>1143</v>
       </c>
       <c r="C37" s="41"/>
     </row>
@@ -26698,6 +26716,13 @@
     <hyperlink ref="A35" r:id="rId7" xr:uid="{BB030421-0B47-134F-9A43-FC751466AC62}"/>
     <hyperlink ref="A33" r:id="rId8" xr:uid="{270EAB7A-5781-7D47-AC52-6750CCAEDE0C}"/>
     <hyperlink ref="A31" r:id="rId9" xr:uid="{17FC7CD4-BE56-D34A-A8CF-766E38035716}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{45141AE8-FFD7-8943-B6C0-8B932269B6F5}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{AC9FD6E9-462B-AE41-9E23-66B974C76886}"/>
+    <hyperlink ref="A25" r:id="rId12" xr:uid="{B81ACF69-7D6B-2040-9ECA-D9E9C181D58A}"/>
+    <hyperlink ref="A26" r:id="rId13" xr:uid="{7AC505E8-65AF-2F44-8538-D046FE5DC0A8}"/>
+    <hyperlink ref="A27" r:id="rId14" xr:uid="{C43CB72A-1447-3347-BB9D-A37EA9756271}"/>
+    <hyperlink ref="A30" r:id="rId15" xr:uid="{F54FDE63-3A1D-6943-9091-53B8B9068DCA}"/>
+    <hyperlink ref="A29" r:id="rId16" xr:uid="{F479A68A-0301-BE4B-8629-3F0D8CF3C61F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -26729,26 +26754,26 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -26764,154 +26789,154 @@
         <v>838</v>
       </c>
       <c r="B6" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="170">
       <c r="A7" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="136">
       <c r="A11" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="306">
       <c r="A12" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>1020</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>1022</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
-        <v>1023</v>
+        <v>1011</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -26919,153 +26944,153 @@
         <v>832</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1028</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1030</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>1031</v>
+        <v>1019</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1032</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>1033</v>
+        <v>1021</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1034</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>1035</v>
+        <v>1023</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1036</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>1037</v>
+        <v>1025</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1038</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>1041</v>
+        <v>1029</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="66">
       <c r="A37" s="2" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="C43" s="6"/>
     </row>
@@ -27314,7 +27339,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -27379,10 +27404,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -27390,94 +27415,94 @@
         <v>838</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1082</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>1084</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -27522,115 +27547,115 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1086</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51">
       <c r="A2" s="40" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="C2" s="41"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1088</v>
+        <v>1076</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="85">
       <c r="A4" s="40" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="C4" s="41"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="40" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1089</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1095</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6">
       <c r="A9" s="2" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="40" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="40" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="40" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="40" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="B14" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="C14" s="41"/>
     </row>
@@ -27639,86 +27664,86 @@
         <v>763</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1106</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="40" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1107</v>
+        <v>1095</v>
       </c>
       <c r="C17" s="41"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="40" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="40" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="C19" s="41"/>
     </row>
     <row r="20" spans="1:3" ht="23">
       <c r="A20" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="120">
       <c r="A21" s="2" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" spans="1:3" ht="68">
       <c r="A22" s="2" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="136">
       <c r="A23" s="2" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="153">
       <c r="A24" s="2" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="C24" s="6"/>
     </row>
@@ -27727,7 +27752,7 @@
         <v>887</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>1120</v>
+        <v>1108</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -27782,74 +27807,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1128</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="23"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="简单循环" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
     <sheet name="位操作" sheetId="22" state="visible" r:id="rId23"/>
     <sheet name="贪心" sheetId="23" state="visible" r:id="rId24"/>
     <sheet name="二分查找" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Sheet4" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="背包问题" sheetId="25" state="visible" r:id="rId26"/>
     <sheet name="Sheet2" sheetId="26" state="visible" r:id="rId27"/>
     <sheet name="Sheet1" sheetId="27" state="visible" r:id="rId28"/>
     <sheet name="Sheet3" sheetId="28" state="visible" r:id="rId29"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1169">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -16628,6 +16628,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的值在</t>
     </r>
@@ -16647,6 +16648,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">和</t>
     </r>
@@ -16666,6 +16668,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -16685,6 +16688,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -16704,6 +16708,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">之间，从</t>
     </r>
@@ -16723,6 +16728,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">开始递减，直到找到一个满足要求的最小的值。</t>
     </r>
@@ -20943,6 +20949,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一个比赛被另一个比赛包含</t>
     </r>
@@ -20962,6 +20969,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">这两个比赛 比赛</t>
     </r>
@@ -20982,6 +20990,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">冲 突 了 ，要 选 择 比 赛 </t>
     </r>
@@ -21001,6 +21010,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，因 为 比 赛 </t>
     </r>
@@ -21020,6 +21030,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">先 结 束 ，这 样可能后续比赛被占用时间的可能就少一些。
 </t>
@@ -21040,6 +21051,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一 个 比 赛 和 另 一 个 比 赛 相 交 </t>
     </r>
@@ -21059,6 +21071,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">还 是 选 择 比赛 </t>
     </r>
@@ -21078,6 +21091,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，理 由 是 一 样 的 。</t>
     </r>
@@ -22751,6 +22765,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">边界查找问题，找左边界。一个十进制数的位长等</t>
     </r>
@@ -22770,6 +22785,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -22781,6 +22797,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在树木的最高值和</t>
     </r>
@@ -22800,6 +22817,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">之间二分查找一个合适的值，二分查找检测的标准是当前高度得到的长度满足要求。</t>
     </r>
@@ -22814,6 +22832,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注意本题输出的要求：答案保留到小数点后 </t>
     </r>
@@ -22833,6 +22852,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位</t>
     </r>
@@ -22852,6 +22872,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">直接舍掉 </t>
     </r>
@@ -22871,6 +22892,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位后的小数</t>
     </r>
@@ -22890,6 +22912,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。一种处理是将输入的数据先乘以</t>
     </r>
@@ -22909,6 +22932,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">转换成整形数。注意本题是查找有边界，使用经典的模板会导致最后两个测试用例无法通过。</t>
     </r>
@@ -22927,7 +22951,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -23164,12 +23188,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="1"/>
@@ -23322,7 +23340,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -23451,15 +23469,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23475,15 +23489,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -23571,9 +23581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>668160</xdr:colOff>
+      <xdr:colOff>667800</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4936320</xdr:rowOff>
+      <xdr:rowOff>4935960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -23587,7 +23597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11462040" y="3086640"/>
-          <a:ext cx="8515080" cy="4910040"/>
+          <a:ext cx="8514000" cy="4909680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26538,7 +26548,7 @@
       <c r="A22" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="3" t="s">
         <v>961</v>
       </c>
     </row>
@@ -26562,7 +26572,7 @@
       <c r="A25" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="3" t="s">
         <v>967</v>
       </c>
       <c r="C25" s="4"/>
@@ -26571,7 +26581,7 @@
       <c r="A26" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="3" t="s">
         <v>969</v>
       </c>
       <c r="C26" s="4"/>
@@ -26649,7 +26659,7 @@
       <c r="A35" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>986</v>
       </c>
       <c r="C35" s="4"/>
@@ -26811,7 +26821,7 @@
       <c r="A12" s="0" t="s">
         <v>1008</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>1009</v>
       </c>
     </row>
@@ -26877,7 +26887,7 @@
       <c r="A20" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -26885,7 +26895,7 @@
       <c r="A21" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="33" t="s">
         <v>1027</v>
       </c>
       <c r="C21" s="6"/>
@@ -26894,7 +26904,7 @@
       <c r="A22" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="33" t="s">
         <v>1029</v>
       </c>
     </row>
@@ -26902,7 +26912,7 @@
       <c r="A23" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -26910,7 +26920,7 @@
       <c r="A24" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -26926,7 +26936,7 @@
       <c r="A26" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="34" t="s">
         <v>1035</v>
       </c>
       <c r="C26" s="6"/>
@@ -27007,7 +27017,7 @@
       <c r="A36" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="33" t="s">
         <v>1055</v>
       </c>
       <c r="C36" s="6"/>
@@ -27016,7 +27026,7 @@
       <c r="A37" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>1057</v>
       </c>
     </row>
@@ -27441,7 +27451,7 @@
       <c r="A6" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>1079</v>
       </c>
     </row>
@@ -27564,7 +27574,7 @@
       <c r="A2" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="14" t="s">
         <v>1097</v>
       </c>
       <c r="C2" s="4"/>
@@ -27716,7 +27726,7 @@
       <c r="A20" s="0" t="s">
         <v>1131</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>1132</v>
       </c>
       <c r="C20" s="6"/>
@@ -27725,7 +27735,7 @@
       <c r="A21" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="38" t="s">
         <v>1134</v>
       </c>
       <c r="C21" s="6"/>
@@ -27803,8 +27813,8 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27898,7 +27908,7 @@
       <c r="A11" s="0" t="s">
         <v>1160</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="3" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -27906,7 +27916,7 @@
       <c r="A12" s="0" t="s">
         <v>1162</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="3" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -27914,7 +27924,7 @@
       <c r="A13" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="3" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -27922,7 +27932,7 @@
       <c r="A14" s="0" t="s">
         <v>1165</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="3" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -27930,7 +27940,7 @@
       <c r="A15" s="0" t="s">
         <v>1167</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="3" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -27960,17 +27970,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1192">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -22943,6 +22943,374 @@
   <si>
     <t xml:space="preserve">一道比较难的题目。二分查找每个抄手最少的抄写页数，注意检测函数需要检测是否每个抄手都有抄写，且不能有为抄写的内容。本题查找的是左边界（最小值）。因为为了满足前面的人尽可能少抄写，那么就应该先统计后面的人抄写的内容。因此抄写记录需要使用简单的堆栈来记录。</t>
   </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1048</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">经典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1049</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">经典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包 物品重量和价格相同</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1855</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">双重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包问题  物品重量有两个维度</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1060</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">重量是每件商品的价格，价值是价格和重要程度的乘积</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">完全背包问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1616</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1679</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">完全背包问题，求装满背包使用的最少物品数。最小数量就有两种可能：不装该物品已经有了一个最小值；如果当前背包的最大容量可以装下该物品，则最小值是背包容量减去当前物品重量的最小值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1926</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包问题求最小值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">贪心。首先使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包求到达及格线需要花费的最小时间。然后使用贪心法每次选取最小时间的题目，看能再做多少题目。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2430</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包，题目复杂之处是物品重量需要做转换处理。需要将老王花费的时间转换成小王花费的时间。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2639</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">经典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包，重量和价格相同</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2871</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">经典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包 ，需要空间压缩</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2925</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">背包 ，重量和价格一样，需要压缩存储空间</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -22951,7 +23319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -23219,6 +23587,12 @@
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -23581,9 +23955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>667800</xdr:colOff>
+      <xdr:colOff>666360</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4935960</xdr:rowOff>
+      <xdr:rowOff>4934520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -23597,7 +23971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11462040" y="3086640"/>
-          <a:ext cx="8514000" cy="4909680"/>
+          <a:ext cx="8512560" cy="4908240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27970,15 +28344,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="143.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27989,7 +28365,124 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>836</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>1191</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="https://www.luogu.com.cn/problem/P1926"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangqian/Documents/lesson_plan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5140A21-99B1-2C4E-B3A8-E8D5659CB0FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D270EC1E-CDD1-E14E-8D8D-CFDF977EFBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20240" tabRatio="500" firstSheet="9" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1223">
   <si>
     <t>题目</t>
   </si>
@@ -23475,7 +23475,15 @@
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
   <si>
-    <t>分组背包</t>
+    <t>多重背包</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.luogu.com.cn/problem/P1833</t>
+    <phoneticPr fontId="35" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合背包，解法与上一题相同。在状态转移的过程中，区分完全和0-1</t>
     <phoneticPr fontId="35" type="noConversion"/>
   </si>
 </sst>
@@ -28648,10 +28656,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="157" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -28791,6 +28799,14 @@
         <v>1220</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="39" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1222</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="35" type="noConversion"/>
   <hyperlinks>
@@ -28802,6 +28818,7 @@
     <hyperlink ref="A8" r:id="rId6" xr:uid="{C435AA7C-1580-7945-8DA6-90481077AF33}"/>
     <hyperlink ref="A11" r:id="rId7" xr:uid="{1A2B490D-8D03-D046-A646-E3695E882082}"/>
     <hyperlink ref="A14" r:id="rId8" xr:uid="{402BB736-ABC1-7F46-ADFF-D12BD98E7E97}"/>
+    <hyperlink ref="A15" r:id="rId9" xr:uid="{3FE487A9-4A77-A74C-925F-683BEF2D7A5E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="1235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1253">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -8008,6 +8008,61 @@
     <t xml:space="preserve">统计约数的个数</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P8646</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">本题分为两部分。第一部分是检测是否有无限多个无法组成的数，这一步需要使用裴蜀定理：如果这些数的最大公约数不是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，那么就有无限多个无法组成的数。如果这些数之间最大公约数是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，那么无法组成的数就是有限多个。此时需要用动态规划的方法，统计哪些数无法被组合生成。</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.luogu.com.cn/problem/B2064</t>
   </si>
   <si>
@@ -23712,6 +23767,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">背包的一个变种。将维生素</t>
     </r>
@@ -23731,6 +23787,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当做</t>
     </r>
@@ -23750,6 +23807,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，维生素</t>
     </r>
@@ -23769,6 +23827,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当做</t>
     </r>
@@ -23788,6 +23847,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，维生素</t>
     </r>
@@ -23807,6 +23867,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当做</t>
     </r>
@@ -23826,6 +23887,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，目标：求出状态为</t>
     </r>
@@ -23845,6 +23907,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">的最小代价。</t>
     </r>
@@ -23864,6 +23927,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">表示不选第</t>
     </r>
@@ -23883,6 +23947,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">种果汁。本题必须有</t>
     </r>
@@ -23902,6 +23967,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">账号才可以提交</t>
     </r>
@@ -23916,6 +23982,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如果 </t>
     </r>
@@ -23935,6 +24002,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">那么 </t>
     </r>
@@ -23954,6 +24022,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。需要正向和逆向都推导。</t>
     </r>
@@ -23978,8 +24047,448 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">背包统计方案数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2918</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">本题是完全背包求最小值。需要注意背包的上限有变化。题目中要求“采购到至少 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">H </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">磅干草”。因此背包容量的上限需要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">加上最重的干草。最终的结果在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">和这个最大值之间。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1466</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包统计方案数。前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个正整数累加和如果是奇数，则无法等分。如果是偶数则统计累加到总数一半的方案数，注意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">DP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">推导的话，方案数会重复。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1853</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">完全背包问题。本题的变化是背包上限会不断增大。需要提前估算背包可能的最大上限。由于背包上限最多可能会更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">次，因此上限值可能会非常大。但是从题目输入的数据看，物品的限制条件全是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的倍数，因此可以将背包容量上限缩小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">倍。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/AT_abc327_e</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包，背包限制条件是题目的数量。选择一道题目将引起等级分的变化。状态转移的过程中计算一个算式的分子部分。注意：背包的上限也是可变得，背包上限是当前可选题目的数量。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/AT_abc344_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分组背包问题。变化之处是需要判断当前物品是否可以装入背包：检测所选字符串是否和当前的字符串尾部字符相匹配。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1509</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">二维费用背包。特点：需要花费两种代价。这道题不仅要数量尽量多，而且还要保证花费的时间尽量小。所以需要两个 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">数组，分别保存数量和花费的时间。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/AT_abc321_f</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包统计方案数。变化有二：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">、待选的物品会添加、减少；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">、每次添减之后都需要输出方案数。添加物品时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[i] → dp[i] + dp[i−x]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。如果某一个物品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">被移除，那么状态转移方程就变为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dp[i] → dp[i] – dp[i−x]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，需要注意此时应该顺序遍历。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/AT_abc271_d</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">本题和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">分组背包的区别是：所有的物品都要选。因此如果进行状态压缩的话，压缩后有些无法达到的组合会被错误地认为可以达到。当输入的组合比较多时，检测所有可能的组合是否合法会消耗大量的时间。</t>
     </r>
   </si>
   <si>
@@ -25067,9 +25576,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>665640</xdr:colOff>
+      <xdr:colOff>664920</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4933800</xdr:rowOff>
+      <xdr:rowOff>4933080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25083,7 +25592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11462040" y="3086640"/>
-          <a:ext cx="8511840" cy="4907520"/>
+          <a:ext cx="8511120" cy="4906800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -25451,39 +25960,39 @@
         <v>175</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -25527,18 +26036,18 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -25587,23 +26096,23 @@
         <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -25646,371 +26155,371 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C44" s="4"/>
     </row>
@@ -26019,152 +26528,152 @@
         <v>302</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26172,733 +26681,733 @@
         <v>304</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="C68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C76" s="4"/>
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C83" s="4"/>
     </row>
     <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C84" s="4"/>
     </row>
     <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C89" s="4"/>
     </row>
     <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C90" s="4"/>
     </row>
     <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C91" s="4"/>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C93" s="4"/>
     </row>
     <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="28" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C124" s="4"/>
     </row>
     <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B129" s="30" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C151" s="4"/>
     </row>
@@ -26912,69 +27421,69 @@
     </row>
     <row r="153" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C161" s="6"/>
     </row>
@@ -27086,94 +27595,94 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27181,56 +27690,56 @@
         <v>258</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27238,15 +27747,15 @@
         <v>132</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -27301,108 +27810,108 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27418,39 +27927,39 @@
         <v>396</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -27502,55 +28011,55 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27598,227 +28107,227 @@
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="C14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="238" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -27882,265 +28391,265 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="121" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28148,42 +28657,42 @@
         <v>331</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="119" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="C37" s="4"/>
     </row>
@@ -28244,343 +28753,343 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="170" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="306" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="C16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B36" s="33" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="C36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="66" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C43" s="6"/>
     </row>
@@ -28843,7 +29352,7 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
@@ -28922,105 +29431,105 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -29072,212 +29581,212 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="409.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="C21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="136" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="153" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="C24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -29339,114 +29848,114 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -29475,10 +29984,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29498,172 +30007,236 @@
     </row>
     <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>1181</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>1210</v>
+        <v>1211</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>1212</v>
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>
@@ -29680,6 +30253,13 @@
     <hyperlink ref="A16" r:id="rId10" display="https://www.luogu.com.cn/problem/P1064"/>
     <hyperlink ref="A17" r:id="rId11" display="https://www.luogu.com.cn/problem/AT_dp_d"/>
     <hyperlink ref="A19" r:id="rId12" display="https://www.luogu.com.cn/problem/P8742"/>
+    <hyperlink ref="A21" r:id="rId13" display="https://www.luogu.com.cn/problem/P2918"/>
+    <hyperlink ref="A22" r:id="rId14" display="https://www.luogu.com.cn/problem/P1466"/>
+    <hyperlink ref="A23" r:id="rId15" display="https://www.luogu.com.cn/problem/P1853"/>
+    <hyperlink ref="A24" r:id="rId16" display="https://www.luogu.com.cn/problem/AT_abc327_e"/>
+    <hyperlink ref="A25" r:id="rId17" display="https://www.luogu.com.cn/problem/AT_abc344_d"/>
+    <hyperlink ref="A26" r:id="rId18" display="https://www.luogu.com.cn/problem/P1509"/>
+    <hyperlink ref="A27" r:id="rId19" display="https://www.luogu.com.cn/problem/AT_abc321_f"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -29719,50 +30299,50 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1213</v>
+        <v>1231</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1214</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1215</v>
+        <v>1233</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1216</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1217</v>
+        <v>1235</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1218</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1219</v>
+        <v>1237</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1220</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="119" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1221</v>
+        <v>1239</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1222</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1223</v>
+        <v>1241</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1224</v>
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
@@ -29808,42 +30388,42 @@
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1225</v>
+        <v>1243</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1226</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1227</v>
+        <v>1245</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1228</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1229</v>
+        <v>1247</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1230</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1231</v>
+        <v>1249</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1232</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1233</v>
+        <v>1251</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1234</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -31245,10 +31825,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I58" activeCellId="0" sqref="I58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31815,6 +32395,14 @@
         <v>448</v>
       </c>
       <c r="C67" s="6"/>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>450</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -31874,6 +32462,7 @@
     <hyperlink ref="A64" r:id="rId54" display="https://www.luogu.com.cn/problem/P1403"/>
     <hyperlink ref="A65" r:id="rId55" display="https://www.luogu.com.cn/problem/P9484"/>
     <hyperlink ref="A67" r:id="rId56" display="https://www.luogu.com.cn/problem/AT_past202109_d"/>
+    <hyperlink ref="A68" r:id="rId57" display="https://www.luogu.com.cn/problem/P8646"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -31913,82 +32502,82 @@
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/题目汇总.xlsx
+++ b/题目汇总.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="1253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1284">
   <si>
     <t xml:space="preserve">题目</t>
   </si>
@@ -24468,6 +24468,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本题和</t>
     </r>
@@ -24487,8 +24488,1570 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">分组背包的区别是：所有的物品都要选。因此如果进行状态压缩的话，压缩后有些无法达到的组合会被错误地认为可以达到。当输入的组合比较多时，检测所有可能的组合是否合法会消耗大量的时间。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P4832</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包。物品是每个字符串，字符串的价值是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的数量，重量是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">数量的差。最终的答案是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Sums – Sumc == 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">时背包中的价值。由于重量可能是负值，一个简单的办法是将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">点往右迁移。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">烂题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/AT_code_festival_relay_g</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包 ，重量和价格一样，求最小值。注意题目中的描述“请输出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">最小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">**</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">大于等于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">**m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的”，因此背包的上限需要加上输入限制条件的最大值。状态迁移完毕之后，在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">和这个新的上限之间查找一个最小值。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1510</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">与上一题类似。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包求最小值。变化的地方在背包容量的上限需要加入物品限制条件的最大值。最终的解在背包初始上限和新的上限之间选择。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1504</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">找到每组输入可以得到的最大相同值。用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包的办法统计每组输入可以得到的每一个高度值，并记录不同的高度值都在多少组输入中可以获取。最大的那个值就是答案。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">可以当完全背包来处理。背包的容量上限是运输的牛的总头数、装入物品的限制条件是每次运输的牛的头数，待解的问题是运输所有的牛花费的最小的时间。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2946</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">和的余数等于相加的每个数的余数的和再求余数。因此物品限制条件是每个数相对于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的余数。背包上限就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，问题的子状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[i][j]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">就是在前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个数中选取若干，它们和模</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">后结果为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的方案数。因此有两种情况，选择第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个数和不选择第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个数，需要注意选择第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个数时，前一个状态是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[i-1][(j + f – a[i])%f]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。这里用到了模运算的性质。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1794</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">二维</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包问题</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P4141</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">首先按照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包推导出未添加限制条件时的方案数，然后依次减去添加第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个物品时的方案数。此时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[i][j]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表示背包容量到达</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">时，不包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个物品时的方案数。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[j – a[i]][1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表示当只有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">不在包内，容量达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">j-a[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">时的方案数。因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[j][0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">减去这个方案数，就是容量达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，不包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">时的方案数。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2889</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">由于每次挤奶之后需要休息，因此每个时间段的结束时间需要延后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。对这些时间段进行排序后，对这些时间片段进行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">选择。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vjudge.net/problem/UVA-12563#google_vignette</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包，背包容量上限是时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">t-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（因为需要至少有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">钟时间留给《劲歌金曲》）。物品限制条件是每首歌曲的时间，最优解是给定限制条件下能唱的歌曲。推导完毕之后从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">t-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">递减，找到第一个最优解。需要注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表示在时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的限制内，能唱的最多的歌。初始值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[0]=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，其余成员都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（表示当前时间没有合适的歌曲组合）。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P1455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有依赖关系的背包。通过并查集记录物品之间的依赖关系。将相互依赖的物品的限制条件和价值都累加到同一个物品上。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2725</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">多重背包问题。每种物品可选上限有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">个，背包的限制有两个：首先物品数量限制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，因此物品总量的限制为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k*maxv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[i]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表示背包容量达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">时，背包内部的物品数量，它的最大值是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P10987</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包。背包的限制有两个维度。因此</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[j][k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，表示两个维度的限制达到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">时的最优解。而状态转移需要同时考虑两个维度，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[j-wi][k]+wi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表示将物品放入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">车，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dp[j][k-wi]+wi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表示将物品放入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">车，比较这两种方案中的最优解。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P2370</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">背包问题。但是本题不要求背包一定装满。当背包内物品到达一个最优解时，输出装入的物品的最大限制条件。因此需要将物品先按限制条件升序排列，然有依次选择，当满足背包内物品总价值满足最优解时，输出此时物品的限制条件。如果所有物品遍历完毕后，无法满足最优解则输出“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">No”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.luogu.com.cn/problem/P9688</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">0-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">背包。设 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">dp[i][j] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">表示考虑前 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">种颜色并选用第 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">种颜色，一共选择了 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">j </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">种颜色的最大价值。由于最终的颜色序列是一个“严格非递减”序列，因此在决定是否选择第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">种颜色时，需要考虑：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">a[i]&gt;a[m]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">；第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">种颜色必须严格出现在前面颜色的后续。需要定义两个数组 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">l,r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">分别表示一种颜色第一次出现的位置和最后一次出现的位置。</t>
     </r>
   </si>
   <si>
@@ -25327,7 +26890,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -25488,10 +27051,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -25576,9 +27135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>664920</xdr:colOff>
+      <xdr:colOff>664200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>4933080</xdr:rowOff>
+      <xdr:rowOff>4932360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -25592,7 +27151,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11462040" y="3086640"/>
-          <a:ext cx="8511120" cy="4906800"/>
+          <a:ext cx="8510400" cy="4906080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29984,15 +31543,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="39" width="66.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.5"/>
   </cols>
@@ -30235,8 +31794,131 @@
       <c r="A28" s="0" t="s">
         <v>1229</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="14" t="s">
         <v>1230</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>1261</v>
       </c>
     </row>
   </sheetData>
@@ -30260,6 +31942,20 @@
     <hyperlink ref="A25" r:id="rId17" display="https://www.luogu.com.cn/problem/AT_abc344_d"/>
     <hyperlink ref="A26" r:id="rId18" display="https://www.luogu.com.cn/problem/P1509"/>
     <hyperlink ref="A27" r:id="rId19" display="https://www.luogu.com.cn/problem/AT_abc321_f"/>
+    <hyperlink ref="A29" r:id="rId20" display="https://www.luogu.com.cn/problem/P4832"/>
+    <hyperlink ref="A30" r:id="rId21" display="https://www.luogu.com.cn/problem/AT_code_festival_relay_g"/>
+    <hyperlink ref="A32" r:id="rId22" display="https://www.luogu.com.cn/problem/P1504"/>
+    <hyperlink ref="A33" r:id="rId23" display="https://www.luogu.com.cn/problem/P2904"/>
+    <hyperlink ref="A34" r:id="rId24" display="https://www.luogu.com.cn/problem/P2946"/>
+    <hyperlink ref="A35" r:id="rId25" display="https://www.luogu.com.cn/problem/P1794"/>
+    <hyperlink ref="A36" r:id="rId26" display="https://www.luogu.com.cn/problem/P4141"/>
+    <hyperlink ref="A37" r:id="rId27" display="https://www.luogu.com.cn/problem/P2889"/>
+    <hyperlink ref="A38" r:id="rId28" location="google_vignette" display="https://vjudge.net/problem/UVA-12563#google_vignette"/>
+    <hyperlink ref="A39" r:id="rId29" display="https://www.luogu.com.cn/problem/P1455"/>
+    <hyperlink ref="A40" r:id="rId30" display="https://www.luogu.com.cn/problem/P2725"/>
+    <hyperlink ref="A41" r:id="rId31" display="https://www.luogu.com.cn/problem/P10987"/>
+    <hyperlink ref="A42" r:id="rId32" display="https://www.luogu.com.cn/problem/P2370"/>
+    <hyperlink ref="A43" r:id="rId33" display="https://www.luogu.com.cn/problem/P9688"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -30299,50 +31995,50 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1231</v>
+        <v>1262</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1232</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1233</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1234</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1235</v>
+        <v>1266</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1236</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1237</v>
+        <v>1268</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1238</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="119" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1239</v>
+        <v>1270</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1240</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1241</v>
+        <v>1272</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1242</v>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -30388,42 +32084,42 @@
     </row>
     <row r="2" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1243</v>
+        <v>1274</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>1244</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1245</v>
+        <v>1276</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>1246</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1247</v>
+        <v>1278</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1248</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1249</v>
+        <v>1280</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>1250</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1251</v>
+        <v>1282</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>1252</v>
+        <v>1283</v>
       </c>
     </row>
   </sheetData>
